--- a/data/processed/BTWC_df.xlsx
+++ b/data/processed/BTWC_df.xlsx
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.150699125838331</v>
+        <v>1.121718751691772</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.85353258788966</v>
+        <v>-2.781666328344017</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.168037523326072</v>
+        <v>-2.11343546690755</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8301045836435699</v>
+        <v>0.8091983876844497</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6505526238615058</v>
+        <v>0.6341684466094402</v>
       </c>
       <c r="G2" t="n">
-        <v>9.03547076663842</v>
+        <v>8.807912304545468</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.186865270126785</v>
+        <v>-2.131789036632458</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.505241387263814</v>
+        <v>-1.467331861129421</v>
       </c>
       <c r="J2" t="n">
-        <v>1.48643252790326</v>
+        <v>1.448996703164218</v>
       </c>
       <c r="K2" t="n">
-        <v>9.57931688842759</v>
+        <v>9.338061653882388</v>
       </c>
       <c r="L2" t="n">
-        <v>6.741898904999164</v>
+        <v>6.572104083452906</v>
       </c>
       <c r="M2" t="n">
-        <v>7.423522809348047</v>
+        <v>7.236561279900734</v>
       </c>
       <c r="N2" t="n">
-        <v>10.41519888627874</v>
+        <v>10.15289195151395</v>
       </c>
     </row>
     <row r="3">
@@ -558,43 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.064718437098484</v>
+        <v>2.98753345888251</v>
       </c>
       <c r="C3" t="n">
-        <v>26.75505456960897</v>
+        <v>26.08122813285558</v>
       </c>
       <c r="D3" t="n">
-        <v>20.32777284258955</v>
+        <v>19.81581758919928</v>
       </c>
       <c r="E3" t="n">
-        <v>21.26612792700926</v>
+        <v>20.73054018723035</v>
       </c>
       <c r="F3" t="n">
-        <v>-13.94200727813437</v>
+        <v>-13.5908776229519</v>
       </c>
       <c r="G3" t="n">
-        <v>26.33502821425602</v>
+        <v>25.67178014734426</v>
       </c>
       <c r="H3" t="n">
-        <v>12.85596641637761</v>
+        <v>12.53218871602454</v>
       </c>
       <c r="I3" t="n">
-        <v>6.418374364387192</v>
+        <v>6.256727513080937</v>
       </c>
       <c r="J3" t="n">
-        <v>7.339502368133168</v>
+        <v>7.15465689471448</v>
       </c>
       <c r="K3" t="n">
-        <v>12.10882381029068</v>
+        <v>11.80386290729066</v>
       </c>
       <c r="L3" t="n">
-        <v>38.90679726659198</v>
+        <v>37.92692901405576</v>
       </c>
       <c r="M3" t="n">
-        <v>32.4692052718262</v>
+        <v>31.6514678668956</v>
       </c>
       <c r="N3" t="n">
-        <v>33.39033903311281</v>
+        <v>32.54940286106602</v>
       </c>
     </row>
     <row r="4">
@@ -604,43 +604,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0649046223129179</v>
+        <v>0.06326999846013701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6723933465723806</v>
+        <v>0.655459110402584</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5108664299088226</v>
+        <v>0.4980002514741351</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3130356866524958</v>
+        <v>0.3051518783513421</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09077444818416439</v>
+        <v>0.08848829239221663</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3071467181248195</v>
+        <v>-0.2994112235813086</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7640767361973362</v>
+        <v>0.7448334525322438</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6023314674202315</v>
+        <v>0.5871617406913898</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4041358889636627</v>
+        <v>0.3939577207481559</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2223909980858529</v>
+        <v>-0.2167900775788008</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4509112848824292</v>
+        <v>0.4395550776433925</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2891660173172893</v>
+        <v>0.28188336698398</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09097056079394616</v>
+        <v>0.08867946590308146</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.067633881149339</v>
+        <v>7.86445040503187</v>
       </c>
       <c r="C5" t="n">
-        <v>-33.75025827972279</v>
+        <v>-32.90025753623844</v>
       </c>
       <c r="D5" t="n">
-        <v>-25.64254099740224</v>
+        <v>-24.99673323107426</v>
       </c>
       <c r="E5" t="n">
-        <v>-24.12089906124237</v>
+        <v>-23.51341386911023</v>
       </c>
       <c r="F5" t="n">
-        <v>9.195361714602177</v>
+        <v>8.963776396669507</v>
       </c>
       <c r="G5" t="n">
-        <v>36.74099744984424</v>
+        <v>35.81567489705398</v>
       </c>
       <c r="H5" t="n">
-        <v>-24.44191529348863</v>
+        <v>-23.82634530289899</v>
       </c>
       <c r="I5" t="n">
-        <v>-16.36133914297801</v>
+        <v>-15.94927857974711</v>
       </c>
       <c r="J5" t="n">
-        <v>-14.88504616221788</v>
+        <v>-14.5101660590844</v>
       </c>
       <c r="K5" t="n">
-        <v>45.18823224566521</v>
+        <v>44.05016596222477</v>
       </c>
       <c r="L5" t="n">
-        <v>11.55095461050323</v>
+        <v>11.2600436513779</v>
       </c>
       <c r="M5" t="n">
-        <v>19.63153091165312</v>
+        <v>19.13711052137519</v>
       </c>
       <c r="N5" t="n">
-        <v>21.10783904869312</v>
+        <v>20.57623781660666</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +696,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.662327309978054</v>
+        <v>3.570091543645129</v>
       </c>
       <c r="C6" t="n">
-        <v>12.78063257376707</v>
+        <v>12.45875215733099</v>
       </c>
       <c r="D6" t="n">
-        <v>9.710381829654217</v>
+        <v>9.465825722666381</v>
       </c>
       <c r="E6" t="n">
-        <v>20.16120983103252</v>
+        <v>19.65344946950018</v>
       </c>
       <c r="F6" t="n">
-        <v>-8.76265952740518</v>
+        <v>-8.541971820322669</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6543132748565128</v>
+        <v>0.6378343855546902</v>
       </c>
       <c r="H6" t="n">
-        <v>4.069261243460261</v>
+        <v>3.96677684012011</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9866896987613112</v>
+        <v>0.9618399044105708</v>
       </c>
       <c r="J6" t="n">
-        <v>11.41693140181643</v>
+        <v>11.12939581914255</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.447960777246465</v>
+        <v>-8.235198762743586</v>
       </c>
       <c r="L6" t="n">
-        <v>4.383959708958074</v>
+        <v>4.273549620207476</v>
       </c>
       <c r="M6" t="n">
-        <v>1.301388232642292</v>
+        <v>1.268612751158877</v>
       </c>
       <c r="N6" t="n">
-        <v>11.73163681593745</v>
+        <v>11.43617537285196</v>
       </c>
     </row>
     <row r="7">
@@ -742,43 +742,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06305318333880321</v>
+        <v>-0.0614651880033945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3081880279038554</v>
+        <v>0.3004263079584811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2341529974359078</v>
+        <v>0.2282558508049087</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6151373404157251</v>
+        <v>0.5996450975900607</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1656128416539858</v>
+        <v>-0.1614418798388278</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.774333103562606</v>
+        <v>-1.729646498656734</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1416921728485415</v>
+        <v>0.1381236534236239</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06786926588362424</v>
+        <v>0.06615997743958649</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4492080369449792</v>
+        <v>0.4378947260299104</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.934098904502358</v>
+        <v>-1.885388595586382</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.626793885098869</v>
+        <v>-1.5858230575464</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.700616793241178</v>
+        <v>-1.657786734678175</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.31927814063482</v>
+        <v>-1.286052101559558</v>
       </c>
     </row>
     <row r="8">
@@ -788,43 +788,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.56184163852224</v>
+        <v>3.472136605279979</v>
       </c>
       <c r="C8" t="n">
-        <v>48.08374349655494</v>
+        <v>46.87275372033335</v>
       </c>
       <c r="D8" t="n">
-        <v>36.53273861491503</v>
+        <v>35.61266106389807</v>
       </c>
       <c r="E8" t="n">
-        <v>46.55894671156754</v>
+        <v>45.38635896445517</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.006419414735499</v>
+        <v>-1.955887712722087</v>
       </c>
       <c r="G8" t="n">
-        <v>-40.22214237789495</v>
+        <v>-39.20914713968413</v>
       </c>
       <c r="H8" t="n">
-        <v>46.12720505108508</v>
+        <v>44.96549072394365</v>
       </c>
       <c r="I8" t="n">
-        <v>34.56421742272892</v>
+        <v>33.69371710644168</v>
       </c>
       <c r="J8" t="n">
-        <v>44.5704040607994</v>
+        <v>43.44789778914106</v>
       </c>
       <c r="K8" t="n">
-        <v>-42.55885809133096</v>
+        <v>-41.48701263404121</v>
       </c>
       <c r="L8" t="n">
-        <v>5.574766097639149</v>
+        <v>5.43436553274654</v>
       </c>
       <c r="M8" t="n">
-        <v>-5.988221464210056</v>
+        <v>-5.837408019923455</v>
       </c>
       <c r="N8" t="n">
-        <v>4.01797186532275</v>
+        <v>3.916779185713676</v>
       </c>
     </row>
     <row r="9">
@@ -834,43 +834,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.9032486919482992</v>
+        <v>-0.8805003605623852</v>
       </c>
       <c r="C9" t="n">
-        <v>5.454404556680432</v>
+        <v>5.317035298939722</v>
       </c>
       <c r="D9" t="n">
-        <v>4.144110285079645</v>
+        <v>4.039740807542486</v>
       </c>
       <c r="E9" t="n">
-        <v>4.260614660924846</v>
+        <v>4.153311018995022</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2129662001883442</v>
+        <v>-0.2076026433528139</v>
       </c>
       <c r="G9" t="n">
-        <v>-20.68836621258252</v>
+        <v>-20.16732940994753</v>
       </c>
       <c r="H9" t="n">
-        <v>5.228789023698901</v>
+        <v>5.097101896423281</v>
       </c>
       <c r="I9" t="n">
-        <v>3.921533461113233</v>
+        <v>3.822769584110619</v>
       </c>
       <c r="J9" t="n">
-        <v>4.043115085783739</v>
+        <v>3.941289173803275</v>
       </c>
       <c r="K9" t="n">
-        <v>-20.81757245653643</v>
+        <v>-20.29328159277654</v>
       </c>
       <c r="L9" t="n">
-        <v>-15.37581716244251</v>
+        <v>-14.98857698456193</v>
       </c>
       <c r="M9" t="n">
-        <v>-16.68307274189369</v>
+        <v>-16.26290931331534</v>
       </c>
       <c r="N9" t="n">
-        <v>-16.56149281411351</v>
+        <v>-16.14439137777681</v>
       </c>
     </row>
     <row r="10">
@@ -880,43 +880,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1496518021943073</v>
+        <v>0.1458828193890599</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2379698152388693</v>
+        <v>-0.2319765419962347</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1808030828337011</v>
+        <v>-0.1762495545744747</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6671491417681615</v>
+        <v>0.6503469809722962</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4134224549742291</v>
+        <v>-0.4030104044592751</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.366159278542845</v>
+        <v>-5.231012479409837</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6492965069245042</v>
+        <v>-0.6329439649956857</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5926332330733854</v>
+        <v>-0.5777077565170015</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2544777841801669</v>
+        <v>0.2480687575007074</v>
       </c>
       <c r="K10" t="n">
-        <v>-5.793459227626878</v>
+        <v>-5.64755087308881</v>
       </c>
       <c r="L10" t="n">
-        <v>-6.029333291209104</v>
+        <v>-5.877484444964223</v>
       </c>
       <c r="M10" t="n">
-        <v>-5.972670014563748</v>
+        <v>-5.822248233761673</v>
       </c>
       <c r="N10" t="n">
-        <v>-5.12555871616634</v>
+        <v>-4.996471445680721</v>
       </c>
     </row>
     <row r="11">
@@ -926,43 +926,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6866366588851185</v>
+        <v>0.6693437046884801</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.366853883618963</v>
+        <v>-2.307244634287569</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.798272097432359</v>
+        <v>-1.752982588619237</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.769405349086846</v>
+        <v>-1.7248428497488</v>
       </c>
       <c r="F11" t="n">
-        <v>0.346931062917859</v>
+        <v>0.3381935990746514</v>
       </c>
       <c r="G11" t="n">
-        <v>6.454843100640641</v>
+        <v>6.292277783683772</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.010306979921412</v>
+        <v>-1.959677369522501</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.444035176604463</v>
+        <v>-1.407667129771802</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.419028079760069</v>
+        <v>-1.383289837023542</v>
       </c>
       <c r="K11" t="n">
-        <v>6.73810105004076</v>
+        <v>6.568401877526624</v>
       </c>
       <c r="L11" t="n">
-        <v>4.380862953831423</v>
+        <v>4.270530856903532</v>
       </c>
       <c r="M11" t="n">
-        <v>4.947134769969337</v>
+        <v>4.822541109152299</v>
       </c>
       <c r="N11" t="n">
-        <v>4.97214315676531</v>
+        <v>4.846919659364691</v>
       </c>
     </row>
     <row r="12">
@@ -972,43 +972,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3946291121530785</v>
+        <v>-0.3846903722492059</v>
       </c>
       <c r="C12" t="n">
-        <v>1.766944026935369</v>
+        <v>1.722443516031348</v>
       </c>
       <c r="D12" t="n">
-        <v>1.342476679001492</v>
+        <v>1.308666384401546</v>
       </c>
       <c r="E12" t="n">
-        <v>1.697250365619571</v>
+        <v>1.654505090584965</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7727019352400737</v>
+        <v>-0.7532414258121957</v>
       </c>
       <c r="G12" t="n">
-        <v>-21.49588220328225</v>
+        <v>-20.95450809872852</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9887156015780085</v>
+        <v>0.9638147848354945</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5655758648008571</v>
+        <v>0.5513318284562119</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9225678000739401</v>
+        <v>0.8993329166701377</v>
       </c>
       <c r="K12" t="n">
-        <v>-22.23198943602525</v>
+        <v>-21.67207646015593</v>
       </c>
       <c r="L12" t="n">
-        <v>-20.47057186853392</v>
+        <v>-19.9550202196075</v>
       </c>
       <c r="M12" t="n">
-        <v>-20.89371161267961</v>
+        <v>-20.36750318316974</v>
       </c>
       <c r="N12" t="n">
-        <v>-20.53672041877739</v>
+        <v>-20.01950281765524</v>
       </c>
     </row>
     <row r="13">
@@ -1018,43 +1018,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.339437350712521</v>
+        <v>1.305703601639543</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.604771476617556</v>
+        <v>-4.488800240301062</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.49858185955798</v>
+        <v>-3.410470024764946</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.678433607744297</v>
+        <v>-1.63616223302925</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4258080208048203</v>
+        <v>-0.4150840396350772</v>
       </c>
       <c r="G13" t="n">
-        <v>11.47868888993198</v>
+        <v>11.18959794402565</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.011821663665384</v>
+        <v>-4.885598862493934</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.91013818139358</v>
+        <v>-3.81166129467571</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.097519037317507</v>
+        <v>-2.044692989990231</v>
       </c>
       <c r="K13" t="n">
-        <v>10.92867231518781</v>
+        <v>10.65343354468075</v>
       </c>
       <c r="L13" t="n">
-        <v>6.342658568217097</v>
+        <v>6.182918620333764</v>
       </c>
       <c r="M13" t="n">
-        <v>7.444342075498944</v>
+        <v>7.256856212532153</v>
       </c>
       <c r="N13" t="n">
-        <v>9.256963735912295</v>
+        <v>9.023826970180922</v>
       </c>
     </row>
     <row r="14">
@@ -1064,43 +1064,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.337900515499096</v>
+        <v>4.228650428202708</v>
       </c>
       <c r="C14" t="n">
-        <v>-15.52389272114666</v>
+        <v>-15.13292325817596</v>
       </c>
       <c r="D14" t="n">
-        <v>-11.79463731038885</v>
+        <v>-11.49758919893833</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.26822059158506</v>
+        <v>-10.98443029282022</v>
       </c>
       <c r="F14" t="n">
-        <v>1.643809753798073</v>
+        <v>1.602410381346022</v>
       </c>
       <c r="G14" t="n">
-        <v>40.57407569433258</v>
+        <v>39.55221701045124</v>
       </c>
       <c r="H14" t="n">
-        <v>-13.81933386498794</v>
+        <v>-13.4712937414919</v>
       </c>
       <c r="I14" t="n">
-        <v>-10.1046720180189</v>
+        <v>-9.850185706927716</v>
       </c>
       <c r="J14" t="n">
-        <v>-9.602639060291105</v>
+        <v>-9.360796456509814</v>
       </c>
       <c r="K14" t="n">
-        <v>41.81562374482964</v>
+        <v>40.76249665531871</v>
       </c>
       <c r="L14" t="n">
-        <v>26.3524797888726</v>
+        <v>25.68879220380142</v>
       </c>
       <c r="M14" t="n">
-        <v>30.06714171683914</v>
+        <v>29.30990031732318</v>
       </c>
       <c r="N14" t="n">
-        <v>30.56918282397422</v>
+        <v>29.79929751190542</v>
       </c>
     </row>
     <row r="15">
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.2303521346216</v>
+        <v>9.972700567973895</v>
       </c>
       <c r="C15" t="n">
-        <v>-37.38426213597665</v>
+        <v>-36.44273895275154</v>
       </c>
       <c r="D15" t="n">
-        <v>-28.40355965676738</v>
+        <v>-27.68821559552327</v>
       </c>
       <c r="E15" t="n">
-        <v>-27.7826590658476</v>
+        <v>-27.08295239497655</v>
       </c>
       <c r="F15" t="n">
-        <v>10.45588481526708</v>
+        <v>10.19255320479157</v>
       </c>
       <c r="G15" t="n">
-        <v>80.95624304340993</v>
+        <v>78.91735889010135</v>
       </c>
       <c r="H15" t="n">
-        <v>-26.78510877252802</v>
+        <v>-26.11052542023893</v>
       </c>
       <c r="I15" t="n">
-        <v>-17.83882324131595</v>
+        <v>-17.38955221967418</v>
       </c>
       <c r="J15" t="n">
-        <v>-17.27542845563124</v>
+        <v>-16.840346539825</v>
       </c>
       <c r="K15" t="n">
-        <v>90.4634479937658</v>
+        <v>88.18512474611654</v>
       </c>
       <c r="L15" t="n">
-        <v>53.22245361079841</v>
+        <v>51.88204534594018</v>
       </c>
       <c r="M15" t="n">
-        <v>62.16873933303214</v>
+        <v>60.6030187327157</v>
       </c>
       <c r="N15" t="n">
-        <v>62.73215333799266</v>
+        <v>61.15224314780297</v>
       </c>
     </row>
     <row r="16">
@@ -1156,43 +1156,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1227502970452106</v>
+        <v>-0.1196588290366816</v>
       </c>
       <c r="C16" t="n">
-        <v>2.432990063840732</v>
+        <v>2.37171517385279</v>
       </c>
       <c r="D16" t="n">
-        <v>1.848520593271704</v>
+        <v>1.80196557536326</v>
       </c>
       <c r="E16" t="n">
-        <v>2.4980053315966</v>
+        <v>2.435093031148794</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4694987450748712</v>
+        <v>0.4576744123817381</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.229204276561724</v>
+        <v>-8.996766633216055</v>
       </c>
       <c r="H16" t="n">
-        <v>2.900769781396794</v>
+        <v>2.827713852448671</v>
       </c>
       <c r="I16" t="n">
-        <v>2.316713267345239</v>
+        <v>2.258366810160744</v>
       </c>
       <c r="J16" t="n">
-        <v>2.966887997039107</v>
+        <v>2.892166879872629</v>
       </c>
       <c r="K16" t="n">
-        <v>-8.74832266473053</v>
+        <v>-8.527996031742077</v>
       </c>
       <c r="L16" t="n">
-        <v>-6.317051618867621</v>
+        <v>-6.157956582374449</v>
       </c>
       <c r="M16" t="n">
-        <v>-6.901108135211108</v>
+        <v>-6.727303626896585</v>
       </c>
       <c r="N16" t="n">
-        <v>-6.250933636122451</v>
+        <v>-6.093503781982115</v>
       </c>
     </row>
     <row r="17">
@@ -1202,43 +1202,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08077050905596581</v>
+        <v>0.0787363026158204</v>
       </c>
       <c r="C17" t="n">
-        <v>3.194971175585729</v>
+        <v>3.114505780264872</v>
       </c>
       <c r="D17" t="n">
-        <v>2.427453404251336</v>
+        <v>2.366317955115325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0219191694628855</v>
+        <v>0.02136713486256955</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09455804619946646</v>
+        <v>0.09217660043671608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3320384840484322</v>
+        <v>0.3236760900196976</v>
       </c>
       <c r="H17" t="n">
-        <v>3.290660353286444</v>
+        <v>3.207785024639597</v>
       </c>
       <c r="I17" t="n">
-        <v>2.522870853826439</v>
+        <v>2.459332314841218</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1168826001438798</v>
+        <v>0.1139389101667762</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4191065284755542</v>
+        <v>0.4085513244871622</v>
       </c>
       <c r="L17" t="n">
-        <v>3.615208829284432</v>
+        <v>3.524159742570059</v>
       </c>
       <c r="M17" t="n">
-        <v>2.84741933133258</v>
+        <v>2.775707034241847</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4414312293897993</v>
+        <v>0.4303137774856167</v>
       </c>
     </row>
     <row r="18">
@@ -1248,43 +1248,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06754262930940549</v>
+        <v>-0.0658415672122193</v>
       </c>
       <c r="C18" t="n">
-        <v>1.299720306673604</v>
+        <v>1.266986831929856</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9874926281395858</v>
+        <v>0.9626226120008278</v>
       </c>
       <c r="E18" t="n">
-        <v>1.357427656900369</v>
+        <v>1.323240821705548</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.145335143652244</v>
+        <v>-0.1416748759548845</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.44735031850175</v>
+        <v>-4.335343736331888</v>
       </c>
       <c r="H18" t="n">
-        <v>1.153439278235168</v>
+        <v>1.124389893310816</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8414388265971499</v>
+        <v>0.8202471775651221</v>
       </c>
       <c r="J18" t="n">
-        <v>1.211753519052234</v>
+        <v>1.181235489128504</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.58642210664034</v>
+        <v>-4.470912999472424</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.287647679503057</v>
+        <v>-3.20484822508907</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.599648132402234</v>
+        <v>-3.508990942064162</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.229333566836206</v>
+        <v>-3.148002754194133</v>
       </c>
     </row>
     <row r="19">
@@ -1294,43 +1294,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.7736052101701465</v>
+        <v>-0.7541219517500751</v>
       </c>
       <c r="C19" t="n">
-        <v>6.892789780060052</v>
+        <v>6.71919476964046</v>
       </c>
       <c r="D19" t="n">
-        <v>5.236956797686322</v>
+        <v>5.105063964904557</v>
       </c>
       <c r="E19" t="n">
-        <v>7.065897573505842</v>
+        <v>6.887942840801687</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.947259295867236</v>
+        <v>-1.898217542304171</v>
       </c>
       <c r="G19" t="n">
-        <v>-18.52566110593337</v>
+        <v>-18.05909206272568</v>
       </c>
       <c r="H19" t="n">
-        <v>4.934696712894526</v>
+        <v>4.810416304725022</v>
       </c>
       <c r="I19" t="n">
-        <v>3.281466292968151</v>
+        <v>3.198822516863554</v>
       </c>
       <c r="J19" t="n">
-        <v>5.114755578981596</v>
+        <v>4.985940385662406</v>
       </c>
       <c r="K19" t="n">
-        <v>-20.40118253035487</v>
+        <v>-19.88737845291525</v>
       </c>
       <c r="L19" t="n">
-        <v>-13.51922646146319</v>
+        <v>-13.17874454727052</v>
       </c>
       <c r="M19" t="n">
-        <v>-15.1724568958343</v>
+        <v>-14.79033834921293</v>
       </c>
       <c r="N19" t="n">
-        <v>-13.33916906315622</v>
+        <v>-13.00322189714717</v>
       </c>
     </row>
     <row r="20">
@@ -1340,43 +1340,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0472155985314642</v>
+        <v>0.0460264729987593</v>
       </c>
       <c r="C20" t="n">
-        <v>2.66908425752403</v>
+        <v>2.601863331849489</v>
       </c>
       <c r="D20" t="n">
-        <v>2.027898629155064</v>
+        <v>1.976825972815474</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9023867123449578</v>
+        <v>0.8796600899278356</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.100191527306457</v>
+        <v>-1.072483187760282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.336139938712573</v>
+        <v>0.3276742494887329</v>
       </c>
       <c r="H20" t="n">
-        <v>1.569553949906145</v>
+        <v>1.530024710950348</v>
       </c>
       <c r="I20" t="n">
-        <v>0.928209478832848</v>
+        <v>0.9048325096678101</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1975678414527964</v>
+        <v>-0.1925920925049915</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.768429980172962</v>
+        <v>-0.7490770599953078</v>
       </c>
       <c r="L20" t="n">
-        <v>1.901315493369724</v>
+        <v>1.853430835137832</v>
       </c>
       <c r="M20" t="n">
-        <v>1.259971023178107</v>
+        <v>1.22823863471477</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1341937915940929</v>
+        <v>0.1308141190096465</v>
       </c>
     </row>
     <row r="21">
@@ -1386,43 +1386,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.27800303322109</v>
+        <v>1.245816508323714</v>
       </c>
       <c r="C21" t="n">
-        <v>10.15084922221275</v>
+        <v>9.895199937565279</v>
       </c>
       <c r="D21" t="n">
-        <v>7.712342974732858</v>
+        <v>7.518107505238161</v>
       </c>
       <c r="E21" t="n">
-        <v>28.57474183983594</v>
+        <v>27.8550865528325</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.519155385600673</v>
+        <v>-9.279415319375316</v>
       </c>
       <c r="G21" t="n">
-        <v>8.244882018580491</v>
+        <v>8.037234545555235</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6495913279917573</v>
+        <v>0.6332313609900901</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.793214376960937</v>
+        <v>-1.748052246911124</v>
       </c>
       <c r="J21" t="n">
-        <v>19.06200070868361</v>
+        <v>18.58192394481437</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.3927850007312</v>
+        <v>-1.357707690320014</v>
       </c>
       <c r="L21" t="n">
-        <v>8.775961613526176</v>
+        <v>8.554938893212089</v>
       </c>
       <c r="M21" t="n">
-        <v>6.333155932436488</v>
+        <v>6.173655308572891</v>
       </c>
       <c r="N21" t="n">
-        <v>27.18837341900446</v>
+        <v>26.50363384075452</v>
       </c>
     </row>
     <row r="22">
@@ -1432,43 +1432,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.45376133500063</v>
+        <v>22.86307801616415</v>
       </c>
       <c r="C22" t="n">
-        <v>91.82051362555714</v>
+        <v>89.50801266032067</v>
       </c>
       <c r="D22" t="n">
-        <v>69.76276345892386</v>
+        <v>68.00578725103406</v>
       </c>
       <c r="E22" t="n">
-        <v>205.5979687967825</v>
+        <v>200.4199809755417</v>
       </c>
       <c r="F22" t="n">
-        <v>-181.4761221659425</v>
+        <v>-176.9056434013879</v>
       </c>
       <c r="G22" t="n">
-        <v>132.5785173570723</v>
+        <v>129.2395254776747</v>
       </c>
       <c r="H22" t="n">
-        <v>-89.32715588385456</v>
+        <v>-87.07745016944712</v>
       </c>
       <c r="I22" t="n">
-        <v>-111.4638091882863</v>
+        <v>-108.6565915398642</v>
       </c>
       <c r="J22" t="n">
-        <v>24.23956027397275</v>
+        <v>23.62908659747976</v>
       </c>
       <c r="K22" t="n">
-        <v>-51.07251637028651</v>
+        <v>-49.78625430596202</v>
       </c>
       <c r="L22" t="n">
-        <v>41.07644808881616</v>
+        <v>40.04193714890533</v>
       </c>
       <c r="M22" t="n">
-        <v>18.93979522231427</v>
+        <v>18.4627962053888</v>
       </c>
       <c r="N22" t="n">
-        <v>154.6432087460388</v>
+        <v>150.7485172945096</v>
       </c>
     </row>
     <row r="23">
@@ -1478,43 +1478,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2464194498401245</v>
+        <v>0.240213372427705</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1888857943006552</v>
+        <v>0.1841287028360947</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1435103602478116</v>
+        <v>0.1398960497469159</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4246472675577695</v>
+        <v>-0.4139525199753616</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1247332793621369</v>
+        <v>0.1215918699152421</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6337448270906856</v>
+        <v>0.6177839544436721</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3170699965984863</v>
+        <v>0.3090845841429257</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2708655582964201</v>
+        <v>0.2640438052885452</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.2986772172247188</v>
+        <v>-0.2911550271840169</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7356271657119478</v>
+        <v>0.7171003848914841</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9279638637949754</v>
+        <v>0.9045930804482227</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8817594300941338</v>
+        <v>0.8595523060791849</v>
       </c>
       <c r="N23" t="n">
-        <v>0.312217117509421</v>
+        <v>0.3043539248839886</v>
       </c>
     </row>
     <row r="24">
@@ -1524,43 +1524,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1408911138109793</v>
+        <v>0.1373427690695223</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8074352240571089</v>
+        <v>0.7870999562474297</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6134676263520183</v>
+        <v>0.5980174352992258</v>
       </c>
       <c r="E24" t="n">
-        <v>0.54035657509838</v>
+        <v>0.5267476869300711</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1475961931168515</v>
+        <v>-0.1438789808559853</v>
       </c>
       <c r="G24" t="n">
-        <v>1.129832319475127</v>
+        <v>1.101377476148981</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6618121072392027</v>
+        <v>0.6451443597352303</v>
       </c>
       <c r="I24" t="n">
-        <v>0.467370523685581</v>
+        <v>0.4555997902789541</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3934675097659912</v>
+        <v>0.3835580248350575</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9691710274194281</v>
+        <v>0.9447624410601073</v>
       </c>
       <c r="L24" t="n">
-        <v>1.77857931682447</v>
+        <v>1.733785770976112</v>
       </c>
       <c r="M24" t="n">
-        <v>1.584137735901642</v>
+        <v>1.544241204084373</v>
       </c>
       <c r="N24" t="n">
-        <v>1.510234986667416</v>
+        <v>1.472199696659735</v>
       </c>
     </row>
     <row r="25">
@@ -1570,43 +1570,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5008811615366352</v>
+        <v>0.4882664622304898</v>
       </c>
       <c r="C25" t="n">
-        <v>1.703458940071535</v>
+        <v>1.660557301999455</v>
       </c>
       <c r="D25" t="n">
-        <v>1.294242412788248</v>
+        <v>1.261646898881324</v>
       </c>
       <c r="E25" t="n">
-        <v>3.121553365410858</v>
+        <v>3.042936998702357</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5213014970331176</v>
+        <v>-0.5081725112818035</v>
       </c>
       <c r="G25" t="n">
-        <v>3.587764603200482</v>
+        <v>3.49740669971743</v>
       </c>
       <c r="H25" t="n">
-        <v>1.189171914865051</v>
+        <v>1.159222602969761</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7782703233080677</v>
+        <v>0.7586695739460664</v>
       </c>
       <c r="J25" t="n">
-        <v>2.602765774162783</v>
+        <v>2.537215080451998</v>
       </c>
       <c r="K25" t="n">
-        <v>3.020015450562719</v>
+        <v>2.943956317709955</v>
       </c>
       <c r="L25" t="n">
-        <v>4.73048882352894</v>
+        <v>4.611351394010074</v>
       </c>
       <c r="M25" t="n">
-        <v>4.319587241324437</v>
+        <v>4.210798374103316</v>
       </c>
       <c r="N25" t="n">
-        <v>6.144083633160756</v>
+        <v>5.989344797892216</v>
       </c>
     </row>
     <row r="26">
@@ -1616,43 +1616,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3739140382363689</v>
+        <v>0.3644970077690465</v>
       </c>
       <c r="C26" t="n">
-        <v>18.70539200025605</v>
+        <v>18.23429643187231</v>
       </c>
       <c r="D26" t="n">
-        <v>14.21185512903831</v>
+        <v>13.85392935182337</v>
       </c>
       <c r="E26" t="n">
-        <v>6.949752697871822</v>
+        <v>6.774723075542308</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7300409551195097</v>
+        <v>-0.7116548630937065</v>
       </c>
       <c r="G26" t="n">
-        <v>3.534113382102496</v>
+        <v>3.445106685399677</v>
       </c>
       <c r="H26" t="n">
-        <v>17.9805874358978</v>
+        <v>17.52774608096272</v>
       </c>
       <c r="I26" t="n">
-        <v>13.48579264316962</v>
+        <v>13.1461527601748</v>
       </c>
       <c r="J26" t="n">
-        <v>6.221588404795087</v>
+        <v>6.064897610730656</v>
       </c>
       <c r="K26" t="n">
-        <v>2.769398672393232</v>
+        <v>2.69965132672764</v>
       </c>
       <c r="L26" t="n">
-        <v>21.4800270343474</v>
+        <v>20.93905224245288</v>
       </c>
       <c r="M26" t="n">
-        <v>16.98523224860097</v>
+        <v>16.55745892847088</v>
       </c>
       <c r="N26" t="n">
-        <v>9.721028712680948</v>
+        <v>9.476204463789914</v>
       </c>
     </row>
     <row r="27">
@@ -1662,43 +1662,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-8.185507817747371</v>
+        <v>-7.979355684829847</v>
       </c>
       <c r="C27" t="n">
-        <v>174.3460132191911</v>
+        <v>169.9551063517056</v>
       </c>
       <c r="D27" t="n">
-        <v>132.4634245656347</v>
+        <v>129.127331299856</v>
       </c>
       <c r="E27" t="n">
-        <v>157.3576235127298</v>
+        <v>153.3945694859963</v>
       </c>
       <c r="F27" t="n">
-        <v>-28.47041435545949</v>
+        <v>-27.75338655766076</v>
       </c>
       <c r="G27" t="n">
-        <v>-181.9064965661654</v>
+        <v>-177.3251788161093</v>
       </c>
       <c r="H27" t="n">
-        <v>145.7609668544181</v>
+        <v>142.0899747935457</v>
       </c>
       <c r="I27" t="n">
-        <v>103.9059158841384</v>
+        <v>101.2890438880209</v>
       </c>
       <c r="J27" t="n">
-        <v>128.8461263675056</v>
+        <v>125.6011348092259</v>
       </c>
       <c r="K27" t="n">
-        <v>-209.6178533301965</v>
+        <v>-204.338624658773</v>
       </c>
       <c r="L27" t="n">
-        <v>-35.38647148408581</v>
+        <v>-34.49526268735694</v>
       </c>
       <c r="M27" t="n">
-        <v>-77.2415226072056</v>
+        <v>-75.29619374187263</v>
       </c>
       <c r="N27" t="n">
-        <v>-52.30132750156261</v>
+        <v>-50.98411781110357</v>
       </c>
     </row>
     <row r="28">
@@ -1708,43 +1708,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.101344328567296</v>
+        <v>-1.073606955704674</v>
       </c>
       <c r="C28" t="n">
-        <v>5.357963917538703</v>
+        <v>5.223023518691255</v>
       </c>
       <c r="D28" t="n">
-        <v>4.070837274173722</v>
+        <v>3.968313178477235</v>
       </c>
       <c r="E28" t="n">
-        <v>3.928977478532034</v>
+        <v>3.830026123842937</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.056127977616433</v>
+        <v>-1.029529379207249</v>
       </c>
       <c r="G28" t="n">
-        <v>-17.28895826140505</v>
+        <v>-16.85353559724448</v>
       </c>
       <c r="H28" t="n">
-        <v>4.286412423612618</v>
+        <v>4.178459064655947</v>
       </c>
       <c r="I28" t="n">
-        <v>3.002990922552078</v>
+        <v>2.92736055268378</v>
       </c>
       <c r="J28" t="n">
-        <v>2.867321890592994</v>
+        <v>2.795108347259097</v>
       </c>
       <c r="K28" t="n">
-        <v>-18.24295650046536</v>
+        <v>-17.78350737684</v>
       </c>
       <c r="L28" t="n">
-        <v>-12.90041601363236</v>
+        <v>-12.57551884952879</v>
       </c>
       <c r="M28" t="n">
-        <v>-14.18383753525719</v>
+        <v>-13.82661738154734</v>
       </c>
       <c r="N28" t="n">
-        <v>-14.31950863625953</v>
+        <v>-13.95887160390639</v>
       </c>
     </row>
     <row r="29">
@@ -1754,43 +1754,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.5414225202309575</v>
+        <v>-0.5277867862190498</v>
       </c>
       <c r="C29" t="n">
-        <v>12.66443309384574</v>
+        <v>12.34547916299407</v>
       </c>
       <c r="D29" t="n">
-        <v>9.622096581492123</v>
+        <v>9.379763939757634</v>
       </c>
       <c r="E29" t="n">
-        <v>10.75004170197897</v>
+        <v>10.47930174605218</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.350394504115624</v>
+        <v>-1.316384798975527</v>
       </c>
       <c r="G29" t="n">
-        <v>-20.63799152646262</v>
+        <v>-20.118223411027</v>
       </c>
       <c r="H29" t="n">
-        <v>11.30645636602896</v>
+        <v>11.02170309873109</v>
       </c>
       <c r="I29" t="n">
-        <v>8.265941307177444</v>
+        <v>8.057763455663931</v>
       </c>
       <c r="J29" t="n">
-        <v>9.396929816355955</v>
+        <v>9.160268002861873</v>
       </c>
       <c r="K29" t="n">
-        <v>-21.93817889825341</v>
+        <v>-21.3856655450323</v>
       </c>
       <c r="L29" t="n">
-        <v>-9.281327986025797</v>
+        <v>-9.047577606302514</v>
       </c>
       <c r="M29" t="n">
-        <v>-12.32184305498679</v>
+        <v>-12.01151725922454</v>
       </c>
       <c r="N29" t="n">
-        <v>-11.190855562953</v>
+        <v>-10.90901370355452</v>
       </c>
     </row>
     <row r="30">
@@ -1800,43 +1800,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.19593243190997</v>
+        <v>59.65471198748471</v>
       </c>
       <c r="C30" t="n">
-        <v>-74.56670856808159</v>
+        <v>-72.68874493305574</v>
       </c>
       <c r="D30" t="n">
-        <v>-56.65378515479831</v>
+        <v>-55.22695875531822</v>
       </c>
       <c r="E30" t="n">
-        <v>-68.88892093363108</v>
+        <v>-67.1539524623942</v>
       </c>
       <c r="F30" t="n">
-        <v>102.3250398955275</v>
+        <v>99.74798228407452</v>
       </c>
       <c r="G30" t="n">
-        <v>-1388.36724034451</v>
+        <v>-1353.401191292638</v>
       </c>
       <c r="H30" t="n">
-        <v>28.61533529747206</v>
+        <v>27.89465766365024</v>
       </c>
       <c r="I30" t="n">
-        <v>46.32238337074418</v>
+        <v>45.15575347479593</v>
       </c>
       <c r="J30" t="n">
-        <v>33.74325929851781</v>
+        <v>32.89343482447644</v>
       </c>
       <c r="K30" t="n">
-        <v>-1291.717014780754</v>
+        <v>-1259.185103059217</v>
       </c>
       <c r="L30" t="n">
-        <v>-1365.426724135373</v>
+        <v>-1331.03843231641</v>
       </c>
       <c r="M30" t="n">
-        <v>-1347.719674919447</v>
+        <v>-1313.777335391388</v>
       </c>
       <c r="N30" t="n">
-        <v>-1360.298684025787</v>
+        <v>-1326.039541971239</v>
       </c>
     </row>
     <row r="31">
@@ -1846,43 +1846,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.894600792984136</v>
+        <v>2.821700230098513</v>
       </c>
       <c r="C31" t="n">
-        <v>6.374069322940676</v>
+        <v>6.213538294744801</v>
       </c>
       <c r="D31" t="n">
-        <v>4.842846907396517</v>
+        <v>4.720879737908481</v>
       </c>
       <c r="E31" t="n">
-        <v>4.738753361070982</v>
+        <v>4.619407789054451</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.505359844694083</v>
+        <v>-1.467447335207594</v>
       </c>
       <c r="G31" t="n">
-        <v>26.2007774486627</v>
+        <v>25.54091048922637</v>
       </c>
       <c r="H31" t="n">
-        <v>4.909246230815702</v>
+        <v>4.785606793405883</v>
       </c>
       <c r="I31" t="n">
-        <v>3.368285800034742</v>
+        <v>3.283455473387511</v>
       </c>
       <c r="J31" t="n">
-        <v>3.247921420873276</v>
+        <v>3.166122472858125</v>
       </c>
       <c r="K31" t="n">
-        <v>24.4269958084014</v>
+        <v>23.81180156525971</v>
       </c>
       <c r="L31" t="n">
-        <v>30.84160165892312</v>
+        <v>30.06485547455146</v>
       </c>
       <c r="M31" t="n">
-        <v>29.30064128219037</v>
+        <v>28.56270420722009</v>
       </c>
       <c r="N31" t="n">
-        <v>29.18028234097768</v>
+        <v>28.44537650768465</v>
       </c>
     </row>
     <row r="32">
@@ -1892,43 +1892,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.40982895013919</v>
+        <v>8.198027286254169</v>
       </c>
       <c r="C32" t="n">
-        <v>94.78626756642467</v>
+        <v>92.39907404524283</v>
       </c>
       <c r="D32" t="n">
-        <v>72.01606375626088</v>
+        <v>70.20233814775447</v>
       </c>
       <c r="E32" t="n">
-        <v>71.60944470645103</v>
+        <v>69.805959804602</v>
       </c>
       <c r="F32" t="n">
-        <v>-88.91861288655878</v>
+        <v>-86.67919633345402</v>
       </c>
       <c r="G32" t="n">
-        <v>79.76927721747073</v>
+        <v>77.76028681567593</v>
       </c>
       <c r="H32" t="n">
-        <v>5.985428141452172</v>
+        <v>5.83468504703967</v>
       </c>
       <c r="I32" t="n">
-        <v>-16.81306801308382</v>
+        <v>-16.3896306517182</v>
       </c>
       <c r="J32" t="n">
-        <v>-17.26695953008761</v>
+        <v>-16.83209090429382</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.929194982566074</v>
+        <v>-9.679128063153669</v>
       </c>
       <c r="L32" t="n">
-        <v>84.97484539177599</v>
+        <v>82.83475268013378</v>
       </c>
       <c r="M32" t="n">
-        <v>62.17634939426875</v>
+        <v>60.61043713444988</v>
       </c>
       <c r="N32" t="n">
-        <v>61.72247367641043</v>
+        <v>60.16799228311802</v>
       </c>
     </row>
     <row r="33">
@@ -1938,43 +1938,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.075457152934838</v>
+        <v>1.04837174896537</v>
       </c>
       <c r="C33" t="n">
-        <v>14.10170993119957</v>
+        <v>13.74655816238712</v>
       </c>
       <c r="D33" t="n">
-        <v>10.71410097212532</v>
+        <v>10.44426618400033</v>
       </c>
       <c r="E33" t="n">
-        <v>9.975092057790786</v>
+        <v>9.723869219874279</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.472110038502599</v>
+        <v>-1.435034925866505</v>
       </c>
       <c r="G33" t="n">
-        <v>9.551101709289366</v>
+        <v>9.31055707443932</v>
       </c>
       <c r="H33" t="n">
-        <v>12.64466087817478</v>
+        <v>12.32620491086109</v>
       </c>
       <c r="I33" t="n">
-        <v>9.253433866425645</v>
+        <v>9.020386000508402</v>
       </c>
       <c r="J33" t="n">
-        <v>8.508379702742747</v>
+        <v>8.294096036726375</v>
       </c>
       <c r="K33" t="n">
-        <v>7.979262498893334</v>
+        <v>7.778304657317616</v>
       </c>
       <c r="L33" t="n">
-        <v>22.09603333197882</v>
+        <v>21.53954441255858</v>
       </c>
       <c r="M33" t="n">
-        <v>18.70480634031075</v>
+        <v>18.23372552178122</v>
       </c>
       <c r="N33" t="n">
-        <v>17.95975419703797</v>
+        <v>17.50743752752524</v>
       </c>
     </row>
     <row r="34">
@@ -1984,43 +1984,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.321602986935155</v>
+        <v>6.162393324171298</v>
       </c>
       <c r="C34" t="n">
-        <v>23.92254754964941</v>
+        <v>23.3200578432089</v>
       </c>
       <c r="D34" t="n">
-        <v>18.17570998183276</v>
+        <v>17.7179544627529</v>
       </c>
       <c r="E34" t="n">
-        <v>19.39877003121659</v>
+        <v>18.91021172708288</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.671211482638707</v>
+        <v>-3.578751968288677</v>
       </c>
       <c r="G34" t="n">
-        <v>42.81398902113036</v>
+        <v>41.73571808767929</v>
       </c>
       <c r="H34" t="n">
-        <v>20.33986546171779</v>
+        <v>19.82760565553968</v>
       </c>
       <c r="I34" t="n">
-        <v>14.57176075877252</v>
+        <v>14.20477075306123</v>
       </c>
       <c r="J34" t="n">
-        <v>15.75928646238251</v>
+        <v>15.36238860463024</v>
       </c>
       <c r="K34" t="n">
-        <v>38.55656336045058</v>
+        <v>37.58551575391198</v>
       </c>
       <c r="L34" t="n">
-        <v>62.56763981344919</v>
+        <v>60.99187289875731</v>
       </c>
       <c r="M34" t="n">
-        <v>56.79953522854122</v>
+        <v>55.36903811134339</v>
       </c>
       <c r="N34" t="n">
-        <v>57.98707280824593</v>
+        <v>56.52666753990749</v>
       </c>
     </row>
     <row r="35">
@@ -2030,43 +2030,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0603659086058073</v>
+        <v>0.0588455923234614</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01940721624584615</v>
+        <v>-0.01891844522367503</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.01474508236665673</v>
+        <v>-0.01437372725374139</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1683467419411047</v>
+        <v>-0.1641069268076285</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06683883546351992</v>
+        <v>0.06515549842453343</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5171081177351183</v>
+        <v>0.5040847423021457</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04827699931523127</v>
+        <v>0.04706114238841769</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05273605022034999</v>
+        <v>0.05140789203192325</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.1012049320027654</v>
+        <v>-0.09865608432481113</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5783491085430673</v>
+        <v>0.5637833778698165</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5597872677027192</v>
+        <v>0.545689017259811</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5642463197349933</v>
+        <v>0.5500357680020845</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4103054509184497</v>
+        <v>0.3999719021957758</v>
       </c>
     </row>
     <row r="36">
@@ -2076,43 +2076,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0266286162662602</v>
+        <v>0.0259579741800075</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03949186883693971</v>
+        <v>-0.03849726554843236</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.03000486269830027</v>
+        <v>-0.02924918979676802</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03814253092507084</v>
+        <v>-0.03718191073141253</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02934008554059753</v>
+        <v>0.02860115506140811</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1567875507322389</v>
+        <v>0.1528388539967368</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.009778869134410256</v>
+        <v>-0.009532588173660442</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.0003814469797054285</v>
+        <v>-0.0003718402319981273</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.00866879725070429</v>
+        <v>-0.008450473466419625</v>
       </c>
       <c r="K36" t="n">
-        <v>0.183658314420585</v>
+        <v>0.1790328771124987</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1445393576757894</v>
+        <v>0.14089913185977</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1539367803277051</v>
+        <v>0.1500598802861209</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1456494800826205</v>
+        <v>0.1419812958177103</v>
       </c>
     </row>
     <row r="37">
@@ -2122,43 +2122,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7174651943990056</v>
+        <v>0.6993958230890475</v>
       </c>
       <c r="C37" t="n">
-        <v>5.786726075739264</v>
+        <v>5.640987295728982</v>
       </c>
       <c r="D37" t="n">
-        <v>4.39659926179086</v>
+        <v>4.285870845719145</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5942935157280915</v>
+        <v>-0.5793262249290072</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0830914455038243</v>
+        <v>0.08099878624563206</v>
       </c>
       <c r="G37" t="n">
-        <v>5.418809830694387</v>
+        <v>5.282337026643052</v>
       </c>
       <c r="H37" t="n">
-        <v>5.879865092960953</v>
+        <v>5.731780605453277</v>
       </c>
       <c r="I37" t="n">
-        <v>4.487324582791688</v>
+        <v>4.374311248196848</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.5076011364275179</v>
+        <v>-0.4948171944564395</v>
       </c>
       <c r="K37" t="n">
-        <v>5.435369374388282</v>
+        <v>5.298479517989232</v>
       </c>
       <c r="L37" t="n">
-        <v>11.23214296607916</v>
+        <v>10.9492612828351</v>
       </c>
       <c r="M37" t="n">
-        <v>9.839602469306437</v>
+        <v>9.591791938637822</v>
       </c>
       <c r="N37" t="n">
-        <v>4.844678097955019</v>
+        <v>4.722664809906251</v>
       </c>
     </row>
     <row r="38">
@@ -2168,43 +2168,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.637643770982474</v>
+        <v>0.6215847033770893</v>
       </c>
       <c r="C38" t="n">
-        <v>1.982741232862688</v>
+        <v>1.932805866202608</v>
       </c>
       <c r="D38" t="n">
-        <v>1.506433607990117</v>
+        <v>1.468494055759469</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3048475163042625</v>
+        <v>0.2971699271918948</v>
       </c>
       <c r="F38" t="n">
-        <v>1.136296029443711</v>
+        <v>1.107678397488409</v>
       </c>
       <c r="G38" t="n">
-        <v>1.545787938505042</v>
+        <v>1.506857246890519</v>
       </c>
       <c r="H38" t="n">
-        <v>3.127966993768643</v>
+        <v>3.049189099737081</v>
       </c>
       <c r="I38" t="n">
-        <v>2.649514207887159</v>
+        <v>2.5827861541961</v>
       </c>
       <c r="J38" t="n">
-        <v>1.444343858492389</v>
+        <v>1.40796803750191</v>
       </c>
       <c r="K38" t="n">
-        <v>2.622954057408405</v>
+        <v>2.556894921491751</v>
       </c>
       <c r="L38" t="n">
-        <v>4.614624972171207</v>
+        <v>4.498405575426514</v>
       </c>
       <c r="M38" t="n">
-        <v>4.136172198195908</v>
+        <v>4.032002641491861</v>
       </c>
       <c r="N38" t="n">
-        <v>2.931003046712148</v>
+        <v>2.857185692539275</v>
       </c>
     </row>
     <row r="39">
@@ -2214,43 +2214,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1234447257542561</v>
+        <v>0.1203357685486343</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1813295369473265</v>
+        <v>0.1767627499336255</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1377693185833867</v>
+        <v>0.1342995962999409</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1029106836749822</v>
+        <v>-0.1003188766164634</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1983045084486943</v>
+        <v>0.1933102065319306</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1554513852733423</v>
+        <v>-0.1515363398842706</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3813627978775341</v>
+        <v>0.3717581702907897</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3373872867992375</v>
+        <v>0.328890183095773</v>
       </c>
       <c r="J39" t="n">
-        <v>0.09601338972052412</v>
+        <v>0.09359529111012241</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0314058607339911</v>
+        <v>0.03061490367664277</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2144641405678702</v>
+        <v>0.2090628580821906</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1704886317946078</v>
+        <v>0.1661948731341558</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0708850333744413</v>
+        <v>-0.06909979278247858</v>
       </c>
     </row>
     <row r="40">
@@ -2260,43 +2260,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.186672828718042</v>
+        <v>-1.156786456343552</v>
       </c>
       <c r="C40" t="n">
-        <v>5.465634777128344</v>
+        <v>5.327982686123037</v>
       </c>
       <c r="D40" t="n">
-        <v>4.152642705361011</v>
+        <v>4.048058338695515</v>
       </c>
       <c r="E40" t="n">
-        <v>5.094750958658658</v>
+        <v>4.966439581991971</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2866012611797011</v>
+        <v>0.2793832042668547</v>
       </c>
       <c r="G40" t="n">
-        <v>-29.89241949956946</v>
+        <v>-29.13957848162544</v>
       </c>
       <c r="H40" t="n">
-        <v>5.735617559188292</v>
+        <v>5.591165947907408</v>
       </c>
       <c r="I40" t="n">
-        <v>4.42661769184347</v>
+        <v>4.315133261176207</v>
       </c>
       <c r="J40" t="n">
-        <v>5.375396348629478</v>
+        <v>5.240016913752582</v>
       </c>
       <c r="K40" t="n">
-        <v>-29.49577582694312</v>
+        <v>-28.75292428563766</v>
       </c>
       <c r="L40" t="n">
-        <v>-24.04675943669827</v>
+        <v>-23.44114145208382</v>
       </c>
       <c r="M40" t="n">
-        <v>-25.3557593262007</v>
+        <v>-24.7171741604146</v>
       </c>
       <c r="N40" t="n">
-        <v>-24.40698289876048</v>
+        <v>-23.7922926810379</v>
       </c>
     </row>
     <row r="41">
@@ -2306,43 +2306,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-4.767786034695486</v>
+        <v>-4.64770927437332</v>
       </c>
       <c r="C41" t="n">
-        <v>21.57689652545182</v>
+        <v>21.03348207402116</v>
       </c>
       <c r="D41" t="n">
-        <v>16.39354724828931</v>
+        <v>15.98067552345977</v>
       </c>
       <c r="E41" t="n">
-        <v>21.27750799836814</v>
+        <v>20.74163365132727</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.600387566237025</v>
+        <v>-1.56008178220746</v>
       </c>
       <c r="G41" t="n">
-        <v>-179.867174152971</v>
+        <v>-175.3372167674209</v>
       </c>
       <c r="H41" t="n">
-        <v>19.90973962671853</v>
+        <v>19.40831254592318</v>
       </c>
       <c r="I41" t="n">
-        <v>14.74243013409702</v>
+        <v>14.37114181769687</v>
       </c>
       <c r="J41" t="n">
-        <v>19.65319107360291</v>
+        <v>19.15822517183264</v>
       </c>
       <c r="K41" t="n">
-        <v>-181.0254359202324</v>
+        <v>-176.466307695302</v>
       </c>
       <c r="L41" t="n">
-        <v>-159.5153083566923</v>
+        <v>-155.49791300592</v>
       </c>
       <c r="M41" t="n">
-        <v>-164.6826179383381</v>
+        <v>-160.5350838209285</v>
       </c>
       <c r="N41" t="n">
-        <v>-159.771865955845</v>
+        <v>-155.748009198223</v>
       </c>
     </row>
     <row r="42">
@@ -2352,43 +2352,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.162254624893929</v>
+        <v>0.1581682398165006</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6843711049600207</v>
+        <v>-0.6671352087717917</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.5199668094664115</v>
+        <v>-0.5068714378407913</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4553950575479094</v>
+        <v>-0.4439259264293668</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1763238271460296</v>
+        <v>0.1718831090061576</v>
       </c>
       <c r="G42" t="n">
-        <v>1.474384556084727</v>
+        <v>1.437252159690392</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.5057750212740009</v>
+        <v>-0.4930370700395062</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.3419165827473656</v>
+        <v>-0.3333054086598625</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.2782568798702698</v>
+        <v>-0.2712489763215298</v>
       </c>
       <c r="K42" t="n">
-        <v>1.635662205582123</v>
+        <v>1.594468029249868</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9535633445505222</v>
+        <v>0.9295478379102565</v>
       </c>
       <c r="M42" t="n">
-        <v>1.117421786106815</v>
+        <v>1.089279502243255</v>
       </c>
       <c r="N42" t="n">
-        <v>1.181081793803897</v>
+        <v>1.151336231724679</v>
       </c>
     </row>
     <row r="43">
@@ -2398,43 +2398,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.5715866243502472</v>
+        <v>-0.5571912069393139</v>
       </c>
       <c r="C43" t="n">
-        <v>3.865077038721576</v>
+        <v>3.767735017534394</v>
       </c>
       <c r="D43" t="n">
-        <v>2.936581865599544</v>
+        <v>2.862624008792211</v>
       </c>
       <c r="E43" t="n">
-        <v>2.764167812293434</v>
+        <v>2.6945522059152</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.9952863093332105</v>
+        <v>-0.9702200092207371</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.46174153845499</v>
+        <v>-11.17307741184102</v>
       </c>
       <c r="H43" t="n">
-        <v>2.861786079621372</v>
+        <v>2.789711955766954</v>
       </c>
       <c r="I43" t="n">
-        <v>1.935213838072692</v>
+        <v>1.886475449538602</v>
       </c>
       <c r="J43" t="n">
-        <v>1.766012728823794</v>
+        <v>1.721535672676199</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.40402354114869</v>
+        <v>-12.09162802865247</v>
       </c>
       <c r="L43" t="n">
-        <v>-8.546951107766523</v>
+        <v>-8.331696020356105</v>
       </c>
       <c r="M43" t="n">
-        <v>-9.47352335998783</v>
+        <v>-9.234932536988293</v>
       </c>
       <c r="N43" t="n">
-        <v>-9.64272554304932</v>
+        <v>-9.399873360619303</v>
       </c>
     </row>
     <row r="44">
@@ -2444,43 +2444,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.453930117831889</v>
+        <v>1.417312866761135</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.371967653834606</v>
+        <v>-2.312229614126283</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.802157402881583</v>
+        <v>-1.756770042594462</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.176426818944195</v>
+        <v>-3.096428463513881</v>
       </c>
       <c r="F44" t="n">
-        <v>1.547192067525156</v>
+        <v>1.508226012900929</v>
       </c>
       <c r="G44" t="n">
-        <v>9.31798510894393</v>
+        <v>9.083311519049154</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.8044143656596177</v>
+        <v>-0.7841551782124223</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.2394954260317381</v>
+        <v>-0.233463730259194</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.621937524821381</v>
+        <v>-1.58108900477282</v>
       </c>
       <c r="K44" t="n">
-        <v>10.73035149211095</v>
+        <v>10.4601074344048</v>
       </c>
       <c r="L44" t="n">
-        <v>8.378744945916941</v>
+        <v>8.167726133128356</v>
       </c>
       <c r="M44" t="n">
-        <v>8.943663912692678</v>
+        <v>8.718417607545723</v>
       </c>
       <c r="N44" t="n">
-        <v>7.561224545332361</v>
+        <v>7.370794995670336</v>
       </c>
     </row>
     <row r="45">
@@ -2490,43 +2490,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.857625967095462</v>
+        <v>2.785656615735248</v>
       </c>
       <c r="C45" t="n">
-        <v>-15.98785866391442</v>
+        <v>-15.5852042119568</v>
       </c>
       <c r="D45" t="n">
-        <v>-12.14714618929024</v>
+        <v>-11.8412201366202</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.810533439579152</v>
+        <v>-6.639010056285659</v>
       </c>
       <c r="F45" t="n">
-        <v>3.12932606175226</v>
+        <v>3.050513939573852</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.187565004518088</v>
+        <v>-1.157656162683146</v>
       </c>
       <c r="H45" t="n">
-        <v>-12.81851365480203</v>
+        <v>-12.49567920279156</v>
       </c>
       <c r="I45" t="n">
-        <v>-8.987414804714991</v>
+        <v>-8.761066632718936</v>
       </c>
       <c r="J45" t="n">
-        <v>-3.666865048744087</v>
+        <v>-3.574514999394633</v>
       </c>
       <c r="K45" t="n">
-        <v>1.676768007067594</v>
+        <v>1.634538580529714</v>
       </c>
       <c r="L45" t="n">
-        <v>-14.27107193160069</v>
+        <v>-13.91165477835575</v>
       </c>
       <c r="M45" t="n">
-        <v>-10.43997302815597</v>
+        <v>-10.17704215626927</v>
       </c>
       <c r="N45" t="n">
-        <v>-5.119417903699084</v>
+        <v>-4.990485289664367</v>
       </c>
     </row>
     <row r="46">
@@ -2536,43 +2536,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.508956939396733</v>
+        <v>1.470953837028071</v>
       </c>
       <c r="C46" t="n">
-        <v>5.832475975183764</v>
+        <v>5.685584983293508</v>
       </c>
       <c r="D46" t="n">
-        <v>4.431358808292971</v>
+        <v>4.319754972539275</v>
       </c>
       <c r="E46" t="n">
-        <v>3.9822020253097</v>
+        <v>3.881910209639308</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.257962401634701</v>
+        <v>-2.201095585853848</v>
       </c>
       <c r="G46" t="n">
-        <v>7.408881905456815</v>
+        <v>7.222289107386002</v>
       </c>
       <c r="H46" t="n">
-        <v>3.595645404314061</v>
+        <v>3.505089022740849</v>
       </c>
       <c r="I46" t="n">
-        <v>2.189451804879222</v>
+        <v>2.1343104294697</v>
       </c>
       <c r="J46" t="n">
-        <v>1.731813028048322</v>
+        <v>1.688197291859975</v>
       </c>
       <c r="K46" t="n">
-        <v>5.010991078428049</v>
+        <v>4.884789195557827</v>
       </c>
       <c r="L46" t="n">
-        <v>10.86459876709045</v>
+        <v>10.59097368982002</v>
       </c>
       <c r="M46" t="n">
-        <v>9.45840519583107</v>
+        <v>9.220195124014733</v>
       </c>
       <c r="N46" t="n">
-        <v>9.000769253805698</v>
+        <v>8.774084749815918</v>
       </c>
     </row>
     <row r="47">
@@ -2582,43 +2582,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15.24385695590726</v>
+        <v>14.85994019773907</v>
       </c>
       <c r="C47" t="n">
-        <v>-63.32001771048245</v>
+        <v>-61.72530214755921</v>
       </c>
       <c r="D47" t="n">
-        <v>-48.10885109797205</v>
+        <v>-46.8972289864452</v>
       </c>
       <c r="E47" t="n">
-        <v>-45.32976046951058</v>
+        <v>-44.18812979570323</v>
       </c>
       <c r="F47" t="n">
-        <v>16.76201803514262</v>
+        <v>16.33986636821065</v>
       </c>
       <c r="G47" t="n">
-        <v>100.3677612952088</v>
+        <v>97.83999777364649</v>
       </c>
       <c r="H47" t="n">
-        <v>-46.34452068399909</v>
+        <v>-45.17733325949597</v>
       </c>
       <c r="I47" t="n">
-        <v>-31.18463745110499</v>
+        <v>-30.39925190534</v>
       </c>
       <c r="J47" t="n">
-        <v>-28.49123402652477</v>
+        <v>-27.77368188500878</v>
       </c>
       <c r="K47" t="n">
-        <v>115.7161876995495</v>
+        <v>112.8018738367461</v>
       </c>
       <c r="L47" t="n">
-        <v>52.60964779555204</v>
+        <v>51.28467305402432</v>
       </c>
       <c r="M47" t="n">
-        <v>67.76953131308026</v>
+        <v>66.0627546856459</v>
       </c>
       <c r="N47" t="n">
-        <v>70.46296337556905</v>
+        <v>68.68835262263951</v>
       </c>
     </row>
     <row r="48">
@@ -2628,43 +2628,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2655853007795487</v>
+        <v>0.258896531133695</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2093487003551671</v>
+        <v>0.2040762503053173</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1590575274155324</v>
+        <v>0.1550516612843921</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.2524781651885888</v>
+        <v>-0.2461194989423869</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.006842749341247345</v>
+        <v>-0.006670414600003893</v>
       </c>
       <c r="G48" t="n">
-        <v>2.426031387830686</v>
+        <v>2.364931752198819</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2062252775786698</v>
+        <v>0.2010314909766738</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1550406226390545</v>
+        <v>0.1511359223128751</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.2579879507944789</v>
+        <v>-0.25149052051801</v>
       </c>
       <c r="K48" t="n">
-        <v>2.394560412212332</v>
+        <v>2.334253373557118</v>
       </c>
       <c r="L48" t="n">
-        <v>2.607628418489092</v>
+        <v>2.541955259010536</v>
       </c>
       <c r="M48" t="n">
-        <v>2.556443768508567</v>
+        <v>2.492059695180934</v>
       </c>
       <c r="N48" t="n">
-        <v>2.143415694017432</v>
+        <v>2.089433738726576</v>
       </c>
     </row>
     <row r="49">
@@ -2674,43 +2674,43 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.094507967548864</v>
+        <v>3.016572739577139</v>
       </c>
       <c r="C49" t="n">
-        <v>-11.90619496632631</v>
+        <v>-11.60633727369564</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.046007589533462</v>
+        <v>-8.818183757403318</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.638731834856609</v>
+        <v>-2.572275335386455</v>
       </c>
       <c r="F49" t="n">
-        <v>5.742533246848685</v>
+        <v>5.597907463873935</v>
       </c>
       <c r="G49" t="n">
-        <v>-16.3027419104499</v>
+        <v>-15.89215711936873</v>
       </c>
       <c r="H49" t="n">
-        <v>-6.120325414137108</v>
+        <v>-5.966184929958702</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.270548580245866</v>
+        <v>-3.188179766894269</v>
       </c>
       <c r="J49" t="n">
-        <v>3.11933264390668</v>
+        <v>3.040772206101419</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.8471682288234</v>
+        <v>-10.57398213991162</v>
       </c>
       <c r="L49" t="n">
-        <v>-22.71002713033533</v>
+        <v>-22.13807476821274</v>
       </c>
       <c r="M49" t="n">
-        <v>-19.86025023866328</v>
+        <v>-19.36006954882271</v>
       </c>
       <c r="N49" t="n">
-        <v>-13.47036320100586</v>
+        <v>-13.13111190873536</v>
       </c>
     </row>
     <row r="50">
@@ -2720,43 +2720,43 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.2120882078162923</v>
+        <v>-0.2067467632313654</v>
       </c>
       <c r="C50" t="n">
-        <v>2.033987138326592</v>
+        <v>1.982761142795354</v>
       </c>
       <c r="D50" t="n">
-        <v>1.545368872452854</v>
+        <v>1.506448735022922</v>
       </c>
       <c r="E50" t="n">
-        <v>1.493210202528169</v>
+        <v>1.455603681955557</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.368421543125122</v>
+        <v>-0.3591428412267086</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.662560759541098</v>
+        <v>-4.545134099297377</v>
       </c>
       <c r="H50" t="n">
-        <v>1.662595456029287</v>
+        <v>1.620722965394522</v>
       </c>
       <c r="I50" t="n">
-        <v>1.174690697249261</v>
+        <v>1.145106095029316</v>
       </c>
       <c r="J50" t="n">
-        <v>1.123724195786702</v>
+        <v>1.095423185644095</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.011314962804134</v>
+        <v>-4.885104922901212</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.980297947164793</v>
+        <v>-2.905239100210222</v>
       </c>
       <c r="M50" t="n">
-        <v>-3.46820270990494</v>
+        <v>-3.380855974435814</v>
       </c>
       <c r="N50" t="n">
-        <v>-3.519169609807523</v>
+        <v>-3.430539272226341</v>
       </c>
     </row>
     <row r="51">
@@ -2766,43 +2766,43 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.893951072050955</v>
+        <v>7.695141799995586</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8870321816854911</v>
+        <v>-0.8646922633453613</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.6739432598223942</v>
+        <v>-0.6569699890649545</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.70724095969605</v>
+        <v>-11.41239392660325</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.699556271419999</v>
+        <v>-1.656752922114418</v>
       </c>
       <c r="G51" t="n">
-        <v>72.50903799933222</v>
+        <v>70.68289682737573</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.476039481317745</v>
+        <v>-2.413680391127283</v>
       </c>
       <c r="I51" t="n">
-        <v>-2.289507387603289</v>
+        <v>-2.231846110894043</v>
       </c>
       <c r="J51" t="n">
-        <v>-13.36717775489946</v>
+        <v>-13.03052518958329</v>
       </c>
       <c r="K51" t="n">
-        <v>70.07746074387343</v>
+        <v>68.31255888030533</v>
       </c>
       <c r="L51" t="n">
-        <v>69.30097692040425</v>
+        <v>67.55563081317383</v>
       </c>
       <c r="M51" t="n">
-        <v>69.48750916151496</v>
+        <v>67.73746523709116</v>
       </c>
       <c r="N51" t="n">
-        <v>58.40985362420918</v>
+        <v>56.93880061489877</v>
       </c>
     </row>
     <row r="52">
@@ -2812,43 +2812,43 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.78488024829493</v>
+        <v>-1.73992801339625</v>
       </c>
       <c r="C52" t="n">
-        <v>14.69958167902604</v>
+        <v>14.3293725015873</v>
       </c>
       <c r="D52" t="n">
-        <v>11.16834789011232</v>
+        <v>10.88707288678024</v>
       </c>
       <c r="E52" t="n">
-        <v>10.14011885584625</v>
+        <v>9.884739815631104</v>
       </c>
       <c r="F52" t="n">
-        <v>-6.287102707044214</v>
+        <v>-6.128761934328979</v>
       </c>
       <c r="G52" t="n">
-        <v>-24.76985593623116</v>
+        <v>-24.14602675580542</v>
       </c>
       <c r="H52" t="n">
-        <v>8.387483038461042</v>
+        <v>8.176244156685208</v>
       </c>
       <c r="I52" t="n">
-        <v>4.862253943215579</v>
+        <v>4.739798007249425</v>
       </c>
       <c r="J52" t="n">
-        <v>3.844057894576564</v>
+        <v>3.747245240839035</v>
       </c>
       <c r="K52" t="n">
-        <v>-30.8914433285968</v>
+        <v>-30.1134418810527</v>
       </c>
       <c r="L52" t="n">
-        <v>-16.21685744435849</v>
+        <v>-15.80843565479945</v>
       </c>
       <c r="M52" t="n">
-        <v>-19.74208657293133</v>
+        <v>-19.24488183672326</v>
       </c>
       <c r="N52" t="n">
-        <v>-20.76028597474</v>
+        <v>-20.23743787185368</v>
       </c>
     </row>
     <row r="53">
@@ -2858,43 +2858,43 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0526235693676873</v>
+        <v>0.0512982440111638</v>
       </c>
       <c r="C53" t="n">
-        <v>3.846172893713641</v>
+        <v>3.74930697369222</v>
       </c>
       <c r="D53" t="n">
-        <v>2.922219003266206</v>
+        <v>2.848622875354714</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04559728893336618</v>
+        <v>0.04444892055132268</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09605368299173002</v>
+        <v>0.0936345695947095</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2794823172191609</v>
+        <v>0.2724435510130447</v>
       </c>
       <c r="H53" t="n">
-        <v>3.942963531043231</v>
+        <v>3.843659937419118</v>
       </c>
       <c r="I53" t="n">
-        <v>3.018832604397381</v>
+        <v>2.942803261542418</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1419150878584189</v>
+        <v>0.1383409543157498</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3706561172878064</v>
+        <v>0.3613211376067489</v>
       </c>
       <c r="L53" t="n">
-        <v>4.21756596124898</v>
+        <v>4.111346501443845</v>
       </c>
       <c r="M53" t="n">
-        <v>3.293435035585786</v>
+        <v>3.210489826525055</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4165176179081982</v>
+        <v>0.4060276156699338</v>
       </c>
     </row>
     <row r="54">
@@ -2904,43 +2904,43 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.4070248236206286</v>
+        <v>-0.3967738975439538</v>
       </c>
       <c r="C54" t="n">
-        <v>9.169651154730724</v>
+        <v>8.938713357620708</v>
       </c>
       <c r="D54" t="n">
-        <v>6.9668550005831</v>
+        <v>6.791394656512158</v>
       </c>
       <c r="E54" t="n">
-        <v>17.14745059908078</v>
+        <v>16.7155918074449</v>
       </c>
       <c r="F54" t="n">
-        <v>7.231163676123435</v>
+        <v>7.049046714231776</v>
       </c>
       <c r="G54" t="n">
-        <v>-61.72677624685434</v>
+        <v>-60.172186493263</v>
       </c>
       <c r="H54" t="n">
-        <v>16.39511474792577</v>
+        <v>15.98220354559518</v>
       </c>
       <c r="I54" t="n">
-        <v>14.19368790658417</v>
+        <v>13.83621967112981</v>
       </c>
       <c r="J54" t="n">
-        <v>24.37657143123769</v>
+        <v>23.76264712676504</v>
       </c>
       <c r="K54" t="n">
-        <v>-54.45786839051045</v>
+        <v>-53.08634618653616</v>
       </c>
       <c r="L54" t="n">
-        <v>-45.29391728707138</v>
+        <v>-44.15318932433279</v>
       </c>
       <c r="M54" t="n">
-        <v>-47.4953441360129</v>
+        <v>-46.29917320620667</v>
       </c>
       <c r="N54" t="n">
-        <v>-37.31246137601754</v>
+        <v>-36.37274649597169</v>
       </c>
     </row>
     <row r="55">
@@ -2950,43 +2950,43 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.400086040265959</v>
+        <v>0.3900098675485463</v>
       </c>
       <c r="C55" t="n">
-        <v>16.41391282024502</v>
+        <v>16.00052818819088</v>
       </c>
       <c r="D55" t="n">
-        <v>12.47085070972011</v>
+        <v>12.15677215401575</v>
       </c>
       <c r="E55" t="n">
-        <v>10.48434386192927</v>
+        <v>10.22029550995148</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9165759295633995</v>
+        <v>-0.8934919515051685</v>
       </c>
       <c r="G55" t="n">
-        <v>3.227149993559718</v>
+        <v>3.14587417424223</v>
       </c>
       <c r="H55" t="n">
-        <v>15.50293980105868</v>
+        <v>15.11249803768378</v>
       </c>
       <c r="I55" t="n">
-        <v>11.55853172118096</v>
+        <v>11.26742993241349</v>
       </c>
       <c r="J55" t="n">
-        <v>9.569775950810843</v>
+        <v>9.328761004917673</v>
       </c>
       <c r="K55" t="n">
-        <v>2.273473330254429</v>
+        <v>2.216215871511687</v>
       </c>
       <c r="L55" t="n">
-        <v>18.69298902977911</v>
+        <v>18.22220583038643</v>
       </c>
       <c r="M55" t="n">
-        <v>14.74858095737182</v>
+        <v>14.37713773239842</v>
       </c>
       <c r="N55" t="n">
-        <v>12.7598259386243</v>
+        <v>12.43846953759558</v>
       </c>
     </row>
     <row r="56">
@@ -2996,43 +2996,43 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-3.373843129007984</v>
+        <v>-3.28887284095009</v>
       </c>
       <c r="C56" t="n">
-        <v>18.95982322477971</v>
+        <v>18.48231980232213</v>
       </c>
       <c r="D56" t="n">
-        <v>14.4051651491215</v>
+        <v>14.04237085625162</v>
       </c>
       <c r="E56" t="n">
-        <v>14.30516095858099</v>
+        <v>13.94488527269794</v>
       </c>
       <c r="F56" t="n">
-        <v>-5.854906186317046</v>
+        <v>-5.707450289234604</v>
       </c>
       <c r="G56" t="n">
-        <v>-100.5484733341155</v>
+        <v>-98.01615857723669</v>
       </c>
       <c r="H56" t="n">
-        <v>13.05766884988375</v>
+        <v>12.72881127082214</v>
       </c>
       <c r="I56" t="n">
-        <v>8.514361056404868</v>
+        <v>8.299926749909901</v>
       </c>
       <c r="J56" t="n">
-        <v>8.43332156652345</v>
+        <v>8.220928240754613</v>
       </c>
       <c r="K56" t="n">
-        <v>-106.0905166783974</v>
+        <v>-103.418625479643</v>
       </c>
       <c r="L56" t="n">
-        <v>-87.17794137995861</v>
+        <v>-84.98236366395281</v>
       </c>
       <c r="M56" t="n">
-        <v>-91.72124923643406</v>
+        <v>-89.41124824627504</v>
       </c>
       <c r="N56" t="n">
-        <v>-91.80229506459402</v>
+        <v>-89.49025293407922</v>
       </c>
     </row>
     <row r="57">
@@ -3042,43 +3042,43 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0001990582348733</v>
+        <v>0.0001940449503456</v>
       </c>
       <c r="C57" t="n">
-        <v>1.308373961779929</v>
+        <v>1.275422544607022</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9940674431825358</v>
+        <v>0.9690318402317165</v>
       </c>
       <c r="E57" t="n">
-        <v>1.256146685803094</v>
+        <v>1.224510613331923</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9875162697262786</v>
+        <v>0.9626456581738172</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.945240531579423</v>
+        <v>-1.896249620624179</v>
       </c>
       <c r="H57" t="n">
-        <v>2.295893019170204</v>
+        <v>2.238070920237477</v>
       </c>
       <c r="I57" t="n">
-        <v>1.981585830901149</v>
+        <v>1.9316795630562</v>
       </c>
       <c r="J57" t="n">
-        <v>2.243663954595991</v>
+        <v>2.187157245410852</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.9577427208990196</v>
+        <v>-0.933621956604899</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3506340285293657</v>
+        <v>0.3418033054436126</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03632684026406795</v>
+        <v>0.03541194826599837</v>
       </c>
       <c r="N57" t="n">
-        <v>0.2984049643328308</v>
+        <v>0.2908896309851532</v>
       </c>
     </row>
     <row r="58">
@@ -3088,43 +3088,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.442093907558487</v>
+        <v>4.330219708174344</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.54414025282905</v>
+        <v>-13.20303088444007</v>
       </c>
       <c r="D58" t="n">
-        <v>-10.29047448553595</v>
+        <v>-10.03130873660989</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.338864359193749</v>
+        <v>-9.103664925079093</v>
       </c>
       <c r="F58" t="n">
-        <v>3.466565742990809</v>
+        <v>3.379260234557117</v>
       </c>
       <c r="G58" t="n">
-        <v>39.48947515703793</v>
+        <v>38.49493215339355</v>
       </c>
       <c r="H58" t="n">
-        <v>-10.01536625574811</v>
+        <v>-9.763129111572869</v>
       </c>
       <c r="I58" t="n">
-        <v>-6.776644579626395</v>
+        <v>-6.605974687761528</v>
       </c>
       <c r="J58" t="n">
-        <v>-5.850003895559782</v>
+        <v>-5.702671462741048</v>
       </c>
       <c r="K58" t="n">
-        <v>42.54411714679996</v>
+        <v>41.47264294041167</v>
       </c>
       <c r="L58" t="n">
-        <v>29.06218480279132</v>
+        <v>28.3302532577076</v>
       </c>
       <c r="M58" t="n">
-        <v>32.30090656185618</v>
+        <v>31.48740776237316</v>
       </c>
       <c r="N58" t="n">
-        <v>33.22755559107324</v>
+        <v>32.39071912237135</v>
       </c>
     </row>
     <row r="59">
@@ -3134,43 +3134,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.137633924636648</v>
+        <v>2.083797583291368</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.113521614662115</v>
+        <v>-3.035107527712523</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.36557021248754</v>
+        <v>-2.305993292432179</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.122164597433446</v>
+        <v>-3.043532836837605</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.6844779199760458</v>
+        <v>-0.6672393336500915</v>
       </c>
       <c r="G59" t="n">
-        <v>19.79315478420962</v>
+        <v>19.29466389436103</v>
       </c>
       <c r="H59" t="n">
-        <v>-3.768063545642318</v>
+        <v>-3.67316481068311</v>
       </c>
       <c r="I59" t="n">
-        <v>-3.027303570962364</v>
+        <v>-2.951060886691801</v>
       </c>
       <c r="J59" t="n">
-        <v>-3.795913804289343</v>
+        <v>-3.700313660162832</v>
       </c>
       <c r="K59" t="n">
-        <v>18.91045003526735</v>
+        <v>18.43419007730258</v>
       </c>
       <c r="L59" t="n">
-        <v>15.82686424344968</v>
+        <v>15.42826443830269</v>
       </c>
       <c r="M59" t="n">
-        <v>16.56762425804364</v>
+        <v>16.15036840120277</v>
       </c>
       <c r="N59" t="n">
-        <v>15.79901804058787</v>
+        <v>15.40111954246317</v>
       </c>
     </row>
     <row r="60">
@@ -3180,43 +3180,43 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2580027285645905</v>
+        <v>0.2515049261097675</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.9942920578626269</v>
+        <v>-0.9692507979878369</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.7554364368361582</v>
+        <v>-0.7364107592355904</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6493816133897647</v>
+        <v>-0.6330269280533862</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1130595130268007</v>
+        <v>0.1102121075540996</v>
       </c>
       <c r="G60" t="n">
-        <v>2.345362331158424</v>
+        <v>2.286294346886949</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.8776194066111963</v>
+        <v>-0.8555165491476138</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.6396317582972515</v>
+        <v>-0.6235226232025575</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.5350271933037616</v>
+        <v>-0.5215525256931208</v>
       </c>
       <c r="K60" t="n">
-        <v>2.434496764142959</v>
+        <v>2.373183927886088</v>
       </c>
       <c r="L60" t="n">
-        <v>1.443817824451174</v>
+        <v>1.407455251635641</v>
       </c>
       <c r="M60" t="n">
-        <v>1.681805477582559</v>
+        <v>1.63944918227681</v>
       </c>
       <c r="N60" t="n">
-        <v>1.786410527273566</v>
+        <v>1.74141975227665</v>
       </c>
     </row>
     <row r="61">
@@ -3226,43 +3226,43 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2154560774817583</v>
+        <v>0.2100298130505392</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2584105028642608</v>
+        <v>0.2519024306077962</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1963333690348724</v>
+        <v>0.1913887102927884</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3091887369749651</v>
+        <v>-0.3014018141571445</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.07134348673653676</v>
+        <v>-0.0695466999900112</v>
       </c>
       <c r="G61" t="n">
-        <v>2.004369589028985</v>
+        <v>1.953889511905675</v>
       </c>
       <c r="H61" t="n">
-        <v>0.190084319834528</v>
+        <v>0.1852970434870419</v>
       </c>
       <c r="I61" t="n">
-        <v>0.127282348725172</v>
+        <v>0.1240767409294583</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.3794508568700294</v>
+        <v>-0.3698943815452441</v>
       </c>
       <c r="K61" t="n">
-        <v>1.913046453518896</v>
+        <v>1.864866350885781</v>
       </c>
       <c r="L61" t="n">
-        <v>2.174474243343186</v>
+        <v>2.119710078037827</v>
       </c>
       <c r="M61" t="n">
-        <v>2.111672276256905</v>
+        <v>2.058489779401997</v>
       </c>
       <c r="N61" t="n">
-        <v>1.604939475428766</v>
+        <v>1.564519051500293</v>
       </c>
     </row>
     <row r="62">
@@ -3272,43 +3272,43 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3461933789030712</v>
+        <v>0.3374744936424578</v>
       </c>
       <c r="C62" t="n">
-        <v>1.156961164869112</v>
+        <v>1.127823081178887</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8790280612573145</v>
+        <v>0.8568897268060718</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1726491907831491</v>
+        <v>0.1683010184132854</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09695456459298091</v>
+        <v>-0.0945127624797879</v>
       </c>
       <c r="G62" t="n">
-        <v>2.274877447103443</v>
+        <v>2.217584625657527</v>
       </c>
       <c r="H62" t="n">
-        <v>1.064854783616532</v>
+        <v>1.03803640047187</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7857570163292431</v>
+        <v>0.7659677144950946</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0774321591716397</v>
+        <v>0.07548202912167112</v>
       </c>
       <c r="K62" t="n">
-        <v>2.145819716987991</v>
+        <v>2.091777216343811</v>
       </c>
       <c r="L62" t="n">
-        <v>3.307629038288941</v>
+        <v>3.224326353064598</v>
       </c>
       <c r="M62" t="n">
-        <v>3.028531277465793</v>
+        <v>2.952257673389164</v>
       </c>
       <c r="N62" t="n">
-        <v>2.320207070685284</v>
+        <v>2.261772622013078</v>
       </c>
     </row>
     <row r="63">
@@ -3318,43 +3318,43 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8579891040151122</v>
+        <v>0.8363806360066621</v>
       </c>
       <c r="C63" t="n">
-        <v>1.152465279557219</v>
+        <v>1.123440424803675</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8756122081851725</v>
+        <v>0.8535599020430142</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5429507827077487</v>
+        <v>-0.5292765593832334</v>
       </c>
       <c r="F63" t="n">
-        <v>2.024630325347345</v>
+        <v>1.973639981286477</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.090585170004905</v>
+        <v>-3.987563723265958</v>
       </c>
       <c r="H63" t="n">
-        <v>3.189111110497166</v>
+        <v>3.108793301000418</v>
       </c>
       <c r="I63" t="n">
-        <v>2.909371592403983</v>
+        <v>2.836099026721088</v>
       </c>
       <c r="J63" t="n">
-        <v>1.485985761235381</v>
+        <v>1.448561188321339</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.145517793868054</v>
+        <v>-2.091482897162019</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.9810370754069595</v>
+        <v>-0.9563296424572494</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.260776577479724</v>
+        <v>-1.229023901119637</v>
       </c>
       <c r="N63" t="n">
-        <v>-2.684160796785025</v>
+        <v>-2.616560168250886</v>
       </c>
     </row>
     <row r="64">
@@ -3364,43 +3364,43 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.268043659354123</v>
+        <v>2.210922946951628</v>
       </c>
       <c r="C64" t="n">
-        <v>-3.351828678497625</v>
+        <v>-3.267412824694608</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.546629527759322</v>
+        <v>-2.482492626227071</v>
       </c>
       <c r="E64" t="n">
-        <v>-3.896029866518497</v>
+        <v>-3.797908297915047</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.819907300992173</v>
+        <v>-1.774072909264115</v>
       </c>
       <c r="G64" t="n">
-        <v>18.39195004941022</v>
+        <v>17.92874852109723</v>
       </c>
       <c r="H64" t="n">
-        <v>-5.139973698190829</v>
+        <v>-5.010523386174192</v>
       </c>
       <c r="I64" t="n">
-        <v>-4.342404699342851</v>
+        <v>-4.233041174111136</v>
       </c>
       <c r="J64" t="n">
-        <v>-5.704553932296776</v>
+        <v>-5.560884658908962</v>
       </c>
       <c r="K64" t="n">
-        <v>16.36172277858171</v>
+        <v>15.94965255348257</v>
       </c>
       <c r="L64" t="n">
-        <v>13.04165620509539</v>
+        <v>12.71320190472465</v>
       </c>
       <c r="M64" t="n">
-        <v>13.8392252462924</v>
+        <v>13.49068415807017</v>
       </c>
       <c r="N64" t="n">
-        <v>12.4770802742041</v>
+        <v>12.16284482682801</v>
       </c>
     </row>
     <row r="65">
@@ -3410,43 +3410,43 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0615212595898753</v>
+        <v>0.0599718457762659</v>
       </c>
       <c r="C65" t="n">
-        <v>11.56266504632305</v>
+        <v>11.27145915970203</v>
       </c>
       <c r="D65" t="n">
-        <v>8.785002770414451</v>
+        <v>8.563752348433214</v>
       </c>
       <c r="E65" t="n">
-        <v>10.9508304209096</v>
+        <v>10.67503359818909</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.714305318679485</v>
+        <v>-0.6963155288852787</v>
       </c>
       <c r="G65" t="n">
-        <v>0.09098809027797472</v>
+        <v>0.08869655390680081</v>
       </c>
       <c r="H65" t="n">
-        <v>10.84922128758087</v>
+        <v>10.57598349235456</v>
       </c>
       <c r="I65" t="n">
-        <v>8.071352041866724</v>
+        <v>7.868074923817746</v>
       </c>
       <c r="J65" t="n">
-        <v>10.23683387537285</v>
+        <v>9.979019065990478</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.6290222109347483</v>
+        <v>-0.613180277444007</v>
       </c>
       <c r="L65" t="n">
-        <v>10.93450439054369</v>
+        <v>10.65911873913434</v>
       </c>
       <c r="M65" t="n">
-        <v>8.156635145978338</v>
+        <v>7.951210171717397</v>
       </c>
       <c r="N65" t="n">
-        <v>10.32211709506147</v>
+        <v>10.06215442655632</v>
       </c>
     </row>
     <row r="66">
@@ -3456,43 +3456,43 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.106567452723376</v>
+        <v>1.078698535403251</v>
       </c>
       <c r="C66" t="n">
-        <v>3.138173519173399</v>
+        <v>3.059138573651724</v>
       </c>
       <c r="D66" t="n">
-        <v>2.384300068326029</v>
+        <v>2.324251436580163</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2213951875284552</v>
+        <v>0.2158193465247105</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5785958259301718</v>
+        <v>-0.5640238816759533</v>
       </c>
       <c r="G66" t="n">
-        <v>8.673641855533328</v>
+        <v>8.455196059805898</v>
       </c>
       <c r="H66" t="n">
-        <v>2.575074355560463</v>
+        <v>2.510221070628154</v>
       </c>
       <c r="I66" t="n">
-        <v>1.817478190775722</v>
+        <v>1.771704976223638</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.3516468133937902</v>
+        <v>-0.3427905833065614</v>
       </c>
       <c r="K66" t="n">
-        <v>7.99243194088454</v>
+        <v>7.791142426721578</v>
       </c>
       <c r="L66" t="n">
-        <v>11.14610203636519</v>
+        <v>10.86538729518186</v>
       </c>
       <c r="M66" t="n">
-        <v>10.3885058922424</v>
+        <v>10.12687122091893</v>
       </c>
       <c r="N66" t="n">
-        <v>8.219382966928501</v>
+        <v>8.012377687888332</v>
       </c>
     </row>
     <row r="67">
@@ -3502,43 +3502,43 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0192404728668184</v>
+        <v>0.0187559012790623</v>
       </c>
       <c r="C67" t="n">
-        <v>1.460563720897646</v>
+        <v>1.423779402437625</v>
       </c>
       <c r="D67" t="n">
-        <v>1.109697140153038</v>
+        <v>1.081749401609679</v>
       </c>
       <c r="E67" t="n">
-        <v>1.335160866953754</v>
+        <v>1.301534821186165</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3825201488660349</v>
+        <v>0.3728863733778865</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.100796642360522</v>
+        <v>-3.022703034022604</v>
       </c>
       <c r="H67" t="n">
-        <v>1.843353318417812</v>
+        <v>1.796928438401386</v>
       </c>
       <c r="I67" t="n">
-        <v>1.492422008879377</v>
+        <v>1.454835338975223</v>
       </c>
       <c r="J67" t="n">
-        <v>1.717777583109121</v>
+        <v>1.674515329804803</v>
       </c>
       <c r="K67" t="n">
-        <v>-2.720060698862976</v>
+        <v>-2.651555930775165</v>
       </c>
       <c r="L67" t="n">
-        <v>-1.259227530806699</v>
+        <v>-1.227513867209501</v>
       </c>
       <c r="M67" t="n">
-        <v>-1.610158839985875</v>
+        <v>-1.569606966285454</v>
       </c>
       <c r="N67" t="n">
-        <v>-1.38480322960997</v>
+        <v>-1.349926940220054</v>
       </c>
     </row>
     <row r="68">
@@ -3548,43 +3548,43 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.7192828679928236</v>
+        <v>0.7011677185470849</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.461631126207041</v>
+        <v>-1.424819925128847</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.110508126077404</v>
+        <v>-1.082539962841797</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.75590402422163</v>
+        <v>-1.711681555945817</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7328654808360681</v>
+        <v>0.7144082530891938</v>
       </c>
       <c r="G68" t="n">
-        <v>6.357574147738606</v>
+        <v>6.197458550769045</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.7186926184728615</v>
+        <v>-0.7005923344698299</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.3699894295811204</v>
+        <v>-0.3606712404396093</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.019428486745884</v>
+        <v>-0.9937541655456894</v>
       </c>
       <c r="K68" t="n">
-        <v>7.023739170461302</v>
+        <v>6.846846197748285</v>
       </c>
       <c r="L68" t="n">
-        <v>5.572181015244765</v>
+        <v>5.431845555689688</v>
       </c>
       <c r="M68" t="n">
-        <v>5.920884217567062</v>
+        <v>5.771766662812215</v>
       </c>
       <c r="N68" t="n">
-        <v>5.271446511684863</v>
+        <v>5.138685054956628</v>
       </c>
     </row>
     <row r="69">
@@ -3594,43 +3594,43 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.1253785485537475</v>
+        <v>-0.1222208879929184</v>
       </c>
       <c r="C69" t="n">
-        <v>1.404585730567136</v>
+        <v>1.36921121860416</v>
       </c>
       <c r="D69" t="n">
-        <v>1.067166564531799</v>
+        <v>1.04028995915131</v>
       </c>
       <c r="E69" t="n">
-        <v>2.1991974963383</v>
+        <v>2.143810675548262</v>
       </c>
       <c r="F69" t="n">
-        <v>1.044722997442768</v>
+        <v>1.018411633624404</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.835805682002691</v>
+        <v>-9.588090773477298</v>
       </c>
       <c r="H69" t="n">
-        <v>2.447552893764187</v>
+        <v>2.38591123869375</v>
       </c>
       <c r="I69" t="n">
-        <v>2.110555526209367</v>
+        <v>2.057401154720578</v>
       </c>
       <c r="J69" t="n">
-        <v>3.243291223042419</v>
+        <v>3.161608886626682</v>
       </c>
       <c r="K69" t="n">
-        <v>-8.77945609507989</v>
+        <v>-8.558345366197273</v>
       </c>
       <c r="L69" t="n">
-        <v>-7.376626189013269</v>
+        <v>-7.190845751628156</v>
       </c>
       <c r="M69" t="n">
-        <v>-7.713623558909096</v>
+        <v>-7.519355837883377</v>
       </c>
       <c r="N69" t="n">
-        <v>-6.580888097618824</v>
+        <v>-6.415148335587904</v>
       </c>
     </row>
     <row r="70">
@@ -3640,43 +3640,43 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>30.79893538082093</v>
+        <v>30.02326374728108</v>
       </c>
       <c r="C70" t="n">
-        <v>131.8305025927528</v>
+        <v>128.510349476026</v>
       </c>
       <c r="D70" t="n">
-        <v>100.1612799352652</v>
+        <v>97.63871664974303</v>
       </c>
       <c r="E70" t="n">
-        <v>-23.41578335839451</v>
+        <v>-22.82605651544878</v>
       </c>
       <c r="F70" t="n">
-        <v>-119.5895383654515</v>
+        <v>-116.5776741100406</v>
       </c>
       <c r="G70" t="n">
-        <v>182.6600589066169</v>
+        <v>178.0597626781048</v>
       </c>
       <c r="H70" t="n">
-        <v>12.67228063747777</v>
+        <v>12.35312906612609</v>
       </c>
       <c r="I70" t="n">
-        <v>-19.10055579042764</v>
+        <v>-18.61950801626639</v>
       </c>
       <c r="J70" t="n">
-        <v>-142.8507428980234</v>
+        <v>-139.2530448696334</v>
       </c>
       <c r="K70" t="n">
-        <v>60.21447712525929</v>
+        <v>58.69797464694372</v>
       </c>
       <c r="L70" t="n">
-        <v>192.4762937342867</v>
+        <v>187.6287754894989</v>
       </c>
       <c r="M70" t="n">
-        <v>160.7034578814606</v>
+        <v>156.6561389677023</v>
       </c>
       <c r="N70" t="n">
-        <v>36.95332863435905</v>
+        <v>36.0226585176122</v>
       </c>
     </row>
     <row r="71">
@@ -3686,43 +3686,43 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>200.6955864405566</v>
+        <v>195.6410651899447</v>
       </c>
       <c r="C71" t="n">
-        <v>-736.1957561478532</v>
+        <v>-717.6546553690287</v>
       </c>
       <c r="D71" t="n">
-        <v>-559.3417894071864</v>
+        <v>-545.2547583416015</v>
       </c>
       <c r="E71" t="n">
-        <v>-549.3029436666951</v>
+        <v>-535.4687410764485</v>
       </c>
       <c r="F71" t="n">
-        <v>239.3417609696443</v>
+        <v>233.3139352539141</v>
       </c>
       <c r="G71" t="n">
-        <v>1449.269661988146</v>
+        <v>1412.769784565301</v>
       </c>
       <c r="H71" t="n">
-        <v>-494.043401279053</v>
+        <v>-481.6009110640069</v>
       </c>
       <c r="I71" t="n">
-        <v>-317.8646145782224</v>
+        <v>-309.8591896573357</v>
       </c>
       <c r="J71" t="n">
-        <v>-308.953898266074</v>
+        <v>-301.1728898645375</v>
       </c>
       <c r="K71" t="n">
-        <v>1670.000542381317</v>
+        <v>1627.94155453955</v>
       </c>
       <c r="L71" t="n">
-        <v>936.615364533199</v>
+        <v>913.0266930150792</v>
       </c>
       <c r="M71" t="n">
-        <v>1112.794154981428</v>
+        <v>1084.76841807477</v>
       </c>
       <c r="N71" t="n">
-        <v>1121.705248330824</v>
+        <v>1093.455085409128</v>
       </c>
     </row>
     <row r="72">
@@ -3732,43 +3732,43 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.4132353288420759</v>
+        <v>-0.4028279911014698</v>
       </c>
       <c r="C72" t="n">
-        <v>4.157032539063914</v>
+        <v>4.052337614373045</v>
       </c>
       <c r="D72" t="n">
-        <v>3.158401823980251</v>
+        <v>3.078857428309107</v>
       </c>
       <c r="E72" t="n">
-        <v>2.347396080811158</v>
+        <v>2.28827687652523</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.004665408158008533</v>
+        <v>-0.004547909785993176</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.90847144880115</v>
+        <v>-10.63374143740656</v>
       </c>
       <c r="H72" t="n">
-        <v>4.146580074425204</v>
+        <v>4.042148395207614</v>
       </c>
       <c r="I72" t="n">
-        <v>3.149339565527623</v>
+        <v>3.070023402966833</v>
       </c>
       <c r="J72" t="n">
-        <v>2.340656658368856</v>
+        <v>2.281707186534726</v>
       </c>
       <c r="K72" t="n">
-        <v>-10.87481676486617</v>
+        <v>-10.6009343471738</v>
       </c>
       <c r="L72" t="n">
-        <v>-6.723571250163507</v>
+        <v>-6.554238010869675</v>
       </c>
       <c r="M72" t="n">
-        <v>-7.72081176677704</v>
+        <v>-7.526363010632081</v>
       </c>
       <c r="N72" t="n">
-        <v>-8.529495450261354</v>
+        <v>-8.314679983837964</v>
       </c>
     </row>
     <row r="73">
@@ -3778,43 +3778,43 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5.482721601515428</v>
+        <v>5.344639178590513</v>
       </c>
       <c r="C73" t="n">
-        <v>-20.47778973468556</v>
+        <v>-19.9620563036956</v>
       </c>
       <c r="D73" t="n">
-        <v>-15.55847538871546</v>
+        <v>-15.16663496076127</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.116142723463138</v>
+        <v>-8.886552536969411</v>
       </c>
       <c r="F73" t="n">
-        <v>6.047431227066292</v>
+        <v>5.895126584044785</v>
       </c>
       <c r="G73" t="n">
-        <v>-74.12345914970572</v>
+        <v>-72.25665875769997</v>
       </c>
       <c r="H73" t="n">
-        <v>-14.35357702897653</v>
+        <v>-13.9920819836595</v>
       </c>
       <c r="I73" t="n">
-        <v>-9.45270765359586</v>
+        <v>-9.214641074463222</v>
       </c>
       <c r="J73" t="n">
-        <v>-3.041193900187983</v>
+        <v>-2.964601387774738</v>
       </c>
       <c r="K73" t="n">
-        <v>-68.58445104628439</v>
+        <v>-66.85715065356908</v>
       </c>
       <c r="L73" t="n">
-        <v>-88.98545972848143</v>
+        <v>-86.74435963669487</v>
       </c>
       <c r="M73" t="n">
-        <v>-84.08459025072702</v>
+        <v>-81.96691862770315</v>
       </c>
       <c r="N73" t="n">
-        <v>-77.67306619719103</v>
+        <v>-75.71686890029545</v>
       </c>
     </row>
     <row r="74">
@@ -3824,43 +3824,43 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6.044529682000781</v>
+        <v>5.892298114433764</v>
       </c>
       <c r="C74" t="n">
-        <v>-24.48248716310179</v>
+        <v>-23.86589536938845</v>
       </c>
       <c r="D74" t="n">
-        <v>-18.60113708153138</v>
+        <v>-18.13266717478536</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.72368588817418</v>
+        <v>-16.30249961691867</v>
       </c>
       <c r="F74" t="n">
-        <v>6.291052557387759</v>
+        <v>6.132612307634427</v>
       </c>
       <c r="G74" t="n">
-        <v>32.99073081291976</v>
+        <v>32.15985877968494</v>
       </c>
       <c r="H74" t="n">
-        <v>-18.10678541861037</v>
+        <v>-17.65076576565331</v>
       </c>
       <c r="I74" t="n">
-        <v>-12.24577034222794</v>
+        <v>-11.93736043883807</v>
       </c>
       <c r="J74" t="n">
-        <v>-10.40229603862556</v>
+        <v>-10.14031406226574</v>
       </c>
       <c r="K74" t="n">
-        <v>38.72126272285433</v>
+        <v>37.74606716048871</v>
       </c>
       <c r="L74" t="n">
-        <v>14.32342427703445</v>
+        <v>13.9626886292117</v>
       </c>
       <c r="M74" t="n">
-        <v>20.18443946628066</v>
+        <v>19.67609406604823</v>
       </c>
       <c r="N74" t="n">
-        <v>22.02792512545331</v>
+        <v>21.47315151220064</v>
       </c>
     </row>
     <row r="75">
@@ -3870,43 +3870,43 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1677661708121427</v>
+        <v>-0.1635409773709559</v>
       </c>
       <c r="C75" t="n">
-        <v>3.509288578505769</v>
+        <v>3.420907094841</v>
       </c>
       <c r="D75" t="n">
-        <v>2.666263336423468</v>
+        <v>2.599113455687692</v>
       </c>
       <c r="E75" t="n">
-        <v>1.148365659096151</v>
+        <v>1.119444053343282</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2446756244840939</v>
+        <v>-0.2385134653385169</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.263199078556374</v>
+        <v>-2.206200376991421</v>
       </c>
       <c r="H75" t="n">
-        <v>3.262263512339645</v>
+        <v>3.180103358543235</v>
       </c>
       <c r="I75" t="n">
-        <v>2.419802669165734</v>
+        <v>2.358859903903637</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9028480218159576</v>
+        <v>0.8801097813131282</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.492317429334892</v>
+        <v>-2.429548378787908</v>
       </c>
       <c r="L75" t="n">
-        <v>1.01462172052877</v>
+        <v>0.9890684578053563</v>
       </c>
       <c r="M75" t="n">
-        <v>0.1721608742223208</v>
+        <v>0.1678250001121129</v>
       </c>
       <c r="N75" t="n">
-        <v>-1.344794088301779</v>
+        <v>-1.31092542971505</v>
       </c>
     </row>
     <row r="76">
@@ -3916,43 +3916,43 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.348582752716972</v>
+        <v>3.264248647601742</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.77847223351795</v>
+        <v>-13.43146121080215</v>
       </c>
       <c r="D76" t="n">
-        <v>-10.46851363925191</v>
+        <v>-10.20486397166148</v>
       </c>
       <c r="E76" t="n">
-        <v>-9.912363296499032</v>
+        <v>-9.662720283343983</v>
       </c>
       <c r="F76" t="n">
-        <v>3.585236698426409</v>
+        <v>3.494942460261698</v>
       </c>
       <c r="G76" t="n">
-        <v>21.13845927796054</v>
+        <v>20.60608687495659</v>
       </c>
       <c r="H76" t="n">
-        <v>-10.14634109948132</v>
+        <v>-9.890805351970124</v>
       </c>
       <c r="I76" t="n">
-        <v>-6.847647806443226</v>
+        <v>-6.675189697282839</v>
       </c>
       <c r="J76" t="n">
-        <v>-6.310320173315255</v>
+        <v>-6.151394668375792</v>
       </c>
       <c r="K76" t="n">
-        <v>24.41317557672821</v>
+        <v>23.79832939632134</v>
       </c>
       <c r="L76" t="n">
-        <v>10.68159751854601</v>
+        <v>10.41258133037007</v>
       </c>
       <c r="M76" t="n">
-        <v>13.98029087410906</v>
+        <v>13.62819704600762</v>
       </c>
       <c r="N76" t="n">
-        <v>14.51762479805999</v>
+        <v>14.15199820730315</v>
       </c>
     </row>
     <row r="77">
@@ -3962,43 +3962,43 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.08190976346993</v>
+        <v>2.029476835930529</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.260946742725803</v>
+        <v>-7.078079693870498</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.516672583278132</v>
+        <v>-5.377735104385907</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.030537842341072</v>
+        <v>-1.004583731859348</v>
       </c>
       <c r="F77" t="n">
-        <v>5.531584382230163</v>
+        <v>5.392271349465405</v>
       </c>
       <c r="G77" t="n">
-        <v>-43.19990772491799</v>
+        <v>-42.11191742332386</v>
       </c>
       <c r="H77" t="n">
-        <v>-1.700206747342508</v>
+        <v>-1.657387015791402</v>
       </c>
       <c r="I77" t="n">
-        <v>0.03706345181908066</v>
+        <v>0.0361300082483309</v>
       </c>
       <c r="J77" t="n">
-        <v>4.511495575309523</v>
+        <v>4.397873493918123</v>
       </c>
       <c r="K77" t="n">
-        <v>-37.8613827650005</v>
+        <v>-36.90784329182465</v>
       </c>
       <c r="L77" t="n">
-        <v>-45.09317405639332</v>
+        <v>-43.95750181482616</v>
       </c>
       <c r="M77" t="n">
-        <v>-43.35590381835826</v>
+        <v>-42.26398475289199</v>
       </c>
       <c r="N77" t="n">
-        <v>-38.88146778368296</v>
+        <v>-37.90223745454058</v>
       </c>
     </row>
     <row r="78">
@@ -4008,43 +4008,43 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1386514243473583</v>
+        <v>0.1351594862174737</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3711747500842006</v>
+        <v>0.3618267086286556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2820086195296103</v>
+        <v>0.2749062283632237</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1128508963764748</v>
+        <v>-0.110008744917133</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2478433531999619</v>
+        <v>0.2416014147608065</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0965415079327232</v>
+        <v>-0.09411010865749958</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6209598143815083</v>
+        <v>0.6053209324647051</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5313272327410996</v>
+        <v>0.5179457486908052</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1356883436815632</v>
+        <v>0.1322710307811524</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1384444369602016</v>
+        <v>0.1349577118106602</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5115608873648196</v>
+        <v>0.4986772190090474</v>
       </c>
       <c r="M78" t="n">
-        <v>0.4219283083133852</v>
+        <v>0.4113020377589186</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02628967973161411</v>
+        <v>0.02562757376689473</v>
       </c>
     </row>
     <row r="79">
@@ -4054,43 +4054,43 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.153061829873526</v>
+        <v>1.124021950991628</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.633724390000483</v>
+        <v>-4.517023974141195</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.520579506576372</v>
+        <v>-3.43191366072465</v>
       </c>
       <c r="E79" t="n">
-        <v>-3.128079093252393</v>
+        <v>-3.049298375993709</v>
       </c>
       <c r="F79" t="n">
-        <v>1.285767979593228</v>
+        <v>1.253385894409031</v>
       </c>
       <c r="G79" t="n">
-        <v>6.649829261338538</v>
+        <v>6.482353215101059</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.331808628575731</v>
+        <v>-3.24789698001989</v>
       </c>
       <c r="I79" t="n">
-        <v>-2.222542875460537</v>
+        <v>-2.16656810095926</v>
       </c>
       <c r="J79" t="n">
-        <v>-1.83652393492851</v>
+        <v>-1.790271053034153</v>
       </c>
       <c r="K79" t="n">
-        <v>7.828671640854251</v>
+        <v>7.631506432218828</v>
       </c>
       <c r="L79" t="n">
-        <v>3.211094943061513</v>
+        <v>3.130223470423303</v>
       </c>
       <c r="M79" t="n">
-        <v>4.320360717706804</v>
+        <v>4.211552370471794</v>
       </c>
       <c r="N79" t="n">
-        <v>4.706381824441156</v>
+        <v>4.587851530043389</v>
       </c>
     </row>
     <row r="80">
@@ -4100,43 +4100,43 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5.266963300192281</v>
+        <v>5.134314753210407</v>
       </c>
       <c r="C80" t="n">
-        <v>17.37619109921951</v>
+        <v>16.93857147477543</v>
       </c>
       <c r="D80" t="n">
-        <v>13.20196393602513</v>
+        <v>12.86947228312962</v>
       </c>
       <c r="E80" t="n">
-        <v>-4.83586703443715</v>
+        <v>-4.714075653150667</v>
       </c>
       <c r="F80" t="n">
-        <v>7.864813414070742</v>
+        <v>7.666737974353523</v>
       </c>
       <c r="G80" t="n">
-        <v>-158.2622783673127</v>
+        <v>-154.276440594967</v>
       </c>
       <c r="H80" t="n">
-        <v>25.3147644558039</v>
+        <v>24.67721174642234</v>
       </c>
       <c r="I80" t="n">
-        <v>21.12281817604143</v>
+        <v>20.59083969441579</v>
       </c>
       <c r="J80" t="n">
-        <v>3.055381092149643</v>
+        <v>2.978431275101411</v>
       </c>
       <c r="K80" t="n">
-        <v>-150.885880402326</v>
+        <v>-147.08581731954</v>
       </c>
       <c r="L80" t="n">
-        <v>-133.4359297699769</v>
+        <v>-130.0753439465448</v>
       </c>
       <c r="M80" t="n">
-        <v>-137.6278759513944</v>
+        <v>-134.1617159026832</v>
       </c>
       <c r="N80" t="n">
-        <v>-155.6953031404928</v>
+        <v>-151.7741146764047</v>
       </c>
     </row>
     <row r="81">
@@ -4146,43 +4146,43 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1.896572224223629</v>
+        <v>-1.848807025293865</v>
       </c>
       <c r="C81" t="n">
-        <v>15.86933215592758</v>
+        <v>15.46966279578989</v>
       </c>
       <c r="D81" t="n">
-        <v>12.05709292761919</v>
+        <v>11.75343486764833</v>
       </c>
       <c r="E81" t="n">
-        <v>29.26053286763716</v>
+        <v>28.52360592366817</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.53159033438603</v>
+        <v>-5.39227715171614</v>
       </c>
       <c r="G81" t="n">
-        <v>-68.70318299302555</v>
+        <v>-66.97289233451232</v>
       </c>
       <c r="H81" t="n">
-        <v>10.31118172414596</v>
+        <v>10.05149446311566</v>
       </c>
       <c r="I81" t="n">
-        <v>6.505322943622344</v>
+        <v>6.341486291089023</v>
       </c>
       <c r="J81" t="n">
-        <v>23.71942370073684</v>
+        <v>23.12204967137246</v>
       </c>
       <c r="K81" t="n">
-        <v>-74.05890060496823</v>
+        <v>-72.19372612084651</v>
       </c>
       <c r="L81" t="n">
-        <v>-58.21612839902172</v>
+        <v>-56.74995436231282</v>
       </c>
       <c r="M81" t="n">
-        <v>-62.02198721495829</v>
+        <v>-60.45996256886054</v>
       </c>
       <c r="N81" t="n">
-        <v>-44.80789002084373</v>
+        <v>-43.67940266184284</v>
       </c>
     </row>
     <row r="82">
@@ -4192,43 +4192,43 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3.725503589144995</v>
+        <v>3.631676727306447</v>
       </c>
       <c r="C82" t="n">
-        <v>8.171850906090611</v>
+        <v>7.966042722690915</v>
       </c>
       <c r="D82" t="n">
-        <v>6.208753134490326</v>
+        <v>6.052385596894377</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.836627214533968</v>
+        <v>-6.664446659140396</v>
       </c>
       <c r="F82" t="n">
-        <v>3.137226765130044</v>
+        <v>3.058215663622663</v>
       </c>
       <c r="G82" t="n">
-        <v>32.02719979242241</v>
+        <v>31.22059430189091</v>
       </c>
       <c r="H82" t="n">
-        <v>11.36125060558678</v>
+        <v>11.07511734457222</v>
       </c>
       <c r="I82" t="n">
-        <v>9.385619495778418</v>
+        <v>9.149242532871853</v>
       </c>
       <c r="J82" t="n">
-        <v>-3.680702271584226</v>
+        <v>-3.588003731577177</v>
       </c>
       <c r="K82" t="n">
-        <v>34.81895357723191</v>
+        <v>33.94203772720491</v>
       </c>
       <c r="L82" t="n">
-        <v>43.0429771281172</v>
+        <v>41.95893912587587</v>
       </c>
       <c r="M82" t="n">
-        <v>41.06734608787162</v>
+        <v>40.03306438198636</v>
       </c>
       <c r="N82" t="n">
-        <v>28.00103131943536</v>
+        <v>27.29582494019565</v>
       </c>
     </row>
     <row r="83">
@@ -4238,43 +4238,43 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.1929754740939681</v>
+        <v>-0.1881153839845936</v>
       </c>
       <c r="C83" t="n">
-        <v>2.43417476563259</v>
+        <v>2.372870038912865</v>
       </c>
       <c r="D83" t="n">
-        <v>1.849420697917312</v>
+        <v>1.802843010860336</v>
       </c>
       <c r="E83" t="n">
-        <v>2.50441702199623</v>
+        <v>2.441343243032867</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4153247685499925</v>
+        <v>-0.404864808240087</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.673284962062446</v>
+        <v>-3.580773227103108</v>
       </c>
       <c r="H83" t="n">
-        <v>2.016147517671891</v>
+        <v>1.965370813245162</v>
       </c>
       <c r="I83" t="n">
-        <v>1.432042657996496</v>
+        <v>1.395976642918631</v>
       </c>
       <c r="J83" t="n">
-        <v>2.088123716000732</v>
+        <v>2.035534289976864</v>
       </c>
       <c r="K83" t="n">
-        <v>-4.070714750626844</v>
+        <v>-3.96819374068766</v>
       </c>
       <c r="L83" t="n">
-        <v>-1.639242449405599</v>
+        <v>-1.597958104580807</v>
       </c>
       <c r="M83" t="n">
-        <v>-2.223347312684174</v>
+        <v>-2.167352278419773</v>
       </c>
       <c r="N83" t="n">
-        <v>-1.567266617213846</v>
+        <v>-1.527794984765026</v>
       </c>
     </row>
     <row r="84">
@@ -4284,43 +4284,43 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.64410268405592</v>
+        <v>1.602695934151083</v>
       </c>
       <c r="C84" t="n">
-        <v>2.929359500353905</v>
+        <v>2.855583538919863</v>
       </c>
       <c r="D84" t="n">
-        <v>2.225648777600169</v>
+        <v>2.16959578090853</v>
       </c>
       <c r="E84" t="n">
-        <v>1.40668748620092</v>
+        <v>1.371260041491873</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.738280976092179</v>
+        <v>-5.593762286618004</v>
       </c>
       <c r="G84" t="n">
-        <v>12.94083415316011</v>
+        <v>12.61491905762728</v>
       </c>
       <c r="H84" t="n">
-        <v>-2.785897028338371</v>
+        <v>-2.715734171339403</v>
       </c>
       <c r="I84" t="n">
-        <v>-3.495138840915204</v>
+        <v>-3.407113718596545</v>
       </c>
       <c r="J84" t="n">
-        <v>-4.323341793548745</v>
+        <v>-4.214458367875489</v>
       </c>
       <c r="K84" t="n">
-        <v>7.050092431661925</v>
+        <v>6.872535751683975</v>
       </c>
       <c r="L84" t="n">
-        <v>10.00247625162493</v>
+        <v>9.750563742390188</v>
       </c>
       <c r="M84" t="n">
-        <v>9.2932344697468</v>
+        <v>9.059184225058598</v>
       </c>
       <c r="N84" t="n">
-        <v>8.465034605810736</v>
+        <v>8.251842586688243</v>
       </c>
     </row>
     <row r="85">
@@ -4330,43 +4330,43 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1.00052426444597</v>
+        <v>-0.9753260463581348</v>
       </c>
       <c r="C85" t="n">
-        <v>9.678173766641651</v>
+        <v>9.434428820187163</v>
       </c>
       <c r="D85" t="n">
-        <v>7.353216841608359</v>
+        <v>7.168025968976611</v>
       </c>
       <c r="E85" t="n">
-        <v>5.795664747556488</v>
+        <v>5.649700846967058</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9878696339571256</v>
+        <v>0.9629901229213929</v>
       </c>
       <c r="G85" t="n">
-        <v>-125.7606340187228</v>
+        <v>-122.5933506299257</v>
       </c>
       <c r="H85" t="n">
-        <v>10.65203179504497</v>
+        <v>10.38376022004351</v>
       </c>
       <c r="I85" t="n">
-        <v>8.330440833482553</v>
+        <v>8.120638560465084</v>
       </c>
       <c r="J85" t="n">
-        <v>6.778512783718407</v>
+        <v>6.607795841106432</v>
       </c>
       <c r="K85" t="n">
-        <v>-124.6799838810699</v>
+        <v>-121.5399166816376</v>
       </c>
       <c r="L85" t="n">
-        <v>-115.0158216422146</v>
+        <v>-112.1191465087066</v>
       </c>
       <c r="M85" t="n">
-        <v>-117.3374126224587</v>
+        <v>-114.3822681864962</v>
       </c>
       <c r="N85" t="n">
-        <v>-118.8893425518603</v>
+        <v>-115.8951127381536</v>
       </c>
     </row>
     <row r="86">
@@ -4376,43 +4376,43 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3.317612791418929</v>
+        <v>3.234058665227441</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.89298611789679</v>
+        <v>-13.54309106134474</v>
       </c>
       <c r="D86" t="n">
-        <v>-10.55551821713154</v>
+        <v>-10.28967733798737</v>
       </c>
       <c r="E86" t="n">
-        <v>-9.902368830718178</v>
+        <v>-9.652977528328542</v>
       </c>
       <c r="F86" t="n">
-        <v>3.751528072011254</v>
+        <v>3.657045783194881</v>
       </c>
       <c r="G86" t="n">
-        <v>13.60627418157247</v>
+        <v>13.26359996928838</v>
       </c>
       <c r="H86" t="n">
-        <v>-10.09499732177746</v>
+        <v>-9.840754668051202</v>
       </c>
       <c r="I86" t="n">
-        <v>-6.768690533104402</v>
+        <v>-6.598220964016368</v>
       </c>
       <c r="J86" t="n">
-        <v>-6.134189771148732</v>
+        <v>-5.979700112938231</v>
       </c>
       <c r="K86" t="n">
-        <v>17.05015375689712</v>
+        <v>16.62074538764051</v>
       </c>
       <c r="L86" t="n">
-        <v>3.203628105241041</v>
+        <v>3.122944685021462</v>
       </c>
       <c r="M86" t="n">
-        <v>6.529934955860703</v>
+        <v>6.365478449442776</v>
       </c>
       <c r="N86" t="n">
-        <v>7.164441950457661</v>
+        <v>6.984005376193043</v>
       </c>
     </row>
     <row r="87">
@@ -4422,43 +4422,43 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.7500719072435792</v>
+        <v>0.7311813353984797</v>
       </c>
       <c r="C87" t="n">
-        <v>7.123648042864637</v>
+        <v>6.944238863753445</v>
       </c>
       <c r="D87" t="n">
-        <v>5.412356713725302</v>
+        <v>5.276046431518274</v>
       </c>
       <c r="E87" t="n">
-        <v>7.742103485726361</v>
+        <v>7.547118497331354</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.195975838585004</v>
+        <v>-3.11548514081196</v>
       </c>
       <c r="G87" t="n">
-        <v>3.883598741748736</v>
+        <v>3.785790251202618</v>
       </c>
       <c r="H87" t="n">
-        <v>3.938176408999907</v>
+        <v>3.838993379113775</v>
       </c>
       <c r="I87" t="n">
-        <v>2.224361688144818</v>
+        <v>2.168341106819752</v>
       </c>
       <c r="J87" t="n">
-        <v>4.549892232938513</v>
+        <v>4.435303131168736</v>
       </c>
       <c r="K87" t="n">
-        <v>0.618067319321276</v>
+        <v>0.6025012849344478</v>
       </c>
       <c r="L87" t="n">
-        <v>7.752219508605446</v>
+        <v>7.55697974802775</v>
       </c>
       <c r="M87" t="n">
-        <v>6.038404801755738</v>
+        <v>5.886327489386382</v>
       </c>
       <c r="N87" t="n">
-        <v>8.363936755673901</v>
+        <v>8.153290887371014</v>
       </c>
     </row>
     <row r="88">
@@ -4468,43 +4468,43 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1865293830375439</v>
+        <v>0.1818316378247659</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.512341955362694</v>
+        <v>-0.4994386157980851</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.3892636757381608</v>
+        <v>-0.3794600644280904</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.4758581968212799</v>
+        <v>-0.4638737012438278</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1782080422798155</v>
+        <v>0.1737198701545154</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.612088949502025</v>
+        <v>-2.54630345148532</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.3315217064306213</v>
+        <v>-0.323172327453675</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.2090709489081113</v>
+        <v>-0.2038054940324774</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.2967139698112184</v>
+        <v>-0.2892412241850537</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.451178129016088</v>
+        <v>-2.389445172343337</v>
       </c>
       <c r="L88" t="n">
-        <v>-2.960907892224853</v>
+        <v>-2.886337384084715</v>
       </c>
       <c r="M88" t="n">
-        <v>-2.838457131219457</v>
+        <v>-2.766970547268348</v>
       </c>
       <c r="N88" t="n">
-        <v>-2.926099801698688</v>
+        <v>-2.852405935822479</v>
       </c>
     </row>
     <row r="89">
@@ -4514,43 +4514,43 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.7097619867581108</v>
+        <v>0.6918866208441323</v>
       </c>
       <c r="C89" t="n">
-        <v>5.254065687038604</v>
+        <v>5.121741966630763</v>
       </c>
       <c r="D89" t="n">
-        <v>3.991898185379947</v>
+        <v>3.891362171777783</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4546167881187335</v>
+        <v>0.4431672577270342</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.836457684772584</v>
+        <v>-2.765021456909193</v>
       </c>
       <c r="G89" t="n">
-        <v>6.646893028088647</v>
+        <v>6.479490930928083</v>
       </c>
       <c r="H89" t="n">
-        <v>2.427547696233458</v>
+        <v>2.366409872352512</v>
       </c>
       <c r="I89" t="n">
-        <v>1.162992413483088</v>
+        <v>1.133702432709187</v>
       </c>
       <c r="J89" t="n">
-        <v>-2.378278624998286</v>
+        <v>-2.318381643389821</v>
       </c>
       <c r="K89" t="n">
-        <v>3.744617774491812</v>
+        <v>3.650309521618528</v>
       </c>
       <c r="L89" t="n">
-        <v>9.008623100330276</v>
+        <v>8.781740797102048</v>
       </c>
       <c r="M89" t="n">
-        <v>7.744067830832686</v>
+        <v>7.549033370377733</v>
       </c>
       <c r="N89" t="n">
-        <v>4.202798125747313</v>
+        <v>4.096950594093129</v>
       </c>
     </row>
     <row r="90">
@@ -4560,43 +4560,43 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.545453448131762</v>
+        <v>1.506531180662133</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.919432880732945</v>
+        <v>-5.770351877917283</v>
       </c>
       <c r="D90" t="n">
-        <v>-4.497426332786363</v>
+        <v>-4.384158585471633</v>
       </c>
       <c r="E90" t="n">
-        <v>-4.412695160888672</v>
+        <v>-4.301561369365108</v>
       </c>
       <c r="F90" t="n">
-        <v>1.863176650214205</v>
+        <v>1.816252519299443</v>
       </c>
       <c r="G90" t="n">
-        <v>5.409231383937223</v>
+        <v>5.27299981320617</v>
       </c>
       <c r="H90" t="n">
-        <v>-4.034613293024272</v>
+        <v>-3.933001498817564</v>
       </c>
       <c r="I90" t="n">
-        <v>-2.617805959166952</v>
+        <v>-2.551876478179053</v>
       </c>
       <c r="J90" t="n">
-        <v>-2.54176193154529</v>
+        <v>-2.477747620494174</v>
       </c>
       <c r="K90" t="n">
-        <v>7.129095218609288</v>
+        <v>6.949548852298092</v>
       </c>
       <c r="L90" t="n">
-        <v>1.231305155247695</v>
+        <v>1.200294717083272</v>
       </c>
       <c r="M90" t="n">
-        <v>2.648112517961801</v>
+        <v>2.581419765851811</v>
       </c>
       <c r="N90" t="n">
-        <v>2.724159448953314</v>
+        <v>2.655551453785129</v>
       </c>
     </row>
     <row r="91">
@@ -4606,43 +4606,43 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.052533632867978</v>
+        <v>2.975655529122988</v>
       </c>
       <c r="C91" t="n">
-        <v>-3.278001518197874</v>
+        <v>-3.195445002496038</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.490537631542709</v>
+        <v>-2.427813405228899</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.17860846866677</v>
+        <v>-6.997815110435919</v>
       </c>
       <c r="F91" t="n">
-        <v>2.197809770113292</v>
+        <v>2.142457899228328</v>
       </c>
       <c r="G91" t="n">
-        <v>25.31052903583201</v>
+        <v>24.67308299556379</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.037443262392054</v>
+        <v>-1.011315238806356</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.2602487085926581</v>
+        <v>-0.2536943410983081</v>
       </c>
       <c r="J91" t="n">
-        <v>-4.965478134419807</v>
+        <v>-4.84042249570347</v>
       </c>
       <c r="K91" t="n">
-        <v>27.22527160001151</v>
+        <v>26.53960274053863</v>
       </c>
       <c r="L91" t="n">
-        <v>23.9900183302425</v>
+        <v>23.38582937121576</v>
       </c>
       <c r="M91" t="n">
-        <v>24.76721294103896</v>
+        <v>24.14345032448541</v>
       </c>
       <c r="N91" t="n">
-        <v>20.06198924986163</v>
+        <v>19.55672776010282</v>
       </c>
     </row>
     <row r="92">
@@ -4652,43 +4652,43 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0185443201141687</v>
+        <v>0.0180772811435685</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4930331017491572</v>
+        <v>0.4806160559424005</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3745933266612453</v>
+        <v>0.3651591883051059</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2476802314930471</v>
+        <v>0.2414424012764422</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1074294114259926</v>
+        <v>-0.1047238001436326</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2903090954705208</v>
+        <v>-0.2829976566973693</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3858633898706299</v>
+        <v>0.3761454148093697</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2673612279858008</v>
+        <v>0.2606277315875417</v>
       </c>
       <c r="J92" t="n">
-        <v>0.140343893389021</v>
+        <v>0.1368093304018147</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.3994581567061463</v>
+        <v>-0.3893977972452784</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09383464314902609</v>
+        <v>0.09147141630257663</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.02466751838948261</v>
+        <v>-0.02404626658165296</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.1516848181479306</v>
+        <v>-0.1478646338064521</v>
       </c>
     </row>
     <row r="93">
@@ -4698,43 +4698,43 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.2350874518367907</v>
+        <v>-0.2291667709581744</v>
       </c>
       <c r="C93" t="n">
-        <v>2.189739954944616</v>
+        <v>2.134591322471525</v>
       </c>
       <c r="D93" t="n">
-        <v>1.663705684944377</v>
+        <v>1.621805233178309</v>
       </c>
       <c r="E93" t="n">
-        <v>1.955709194192071</v>
+        <v>1.906454629817338</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6465781657217617</v>
+        <v>-0.6302940852554962</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.703922248145396</v>
+        <v>-4.585453898212252</v>
       </c>
       <c r="H93" t="n">
-        <v>1.539869562574363</v>
+        <v>1.501087925343352</v>
       </c>
       <c r="I93" t="n">
-        <v>1.014626173718672</v>
+        <v>0.9890727988416057</v>
       </c>
       <c r="J93" t="n">
-        <v>1.307951132417951</v>
+        <v>1.275010364208648</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.328700310692206</v>
+        <v>-5.194496916206926</v>
       </c>
       <c r="L93" t="n">
-        <v>-3.142252564123423</v>
+        <v>-3.063114887795618</v>
       </c>
       <c r="M93" t="n">
-        <v>-3.667495957368747</v>
+        <v>-3.575130018576444</v>
       </c>
       <c r="N93" t="n">
-        <v>-3.374171440317008</v>
+        <v>-3.289192883734042</v>
       </c>
     </row>
     <row r="94">
@@ -4744,43 +4744,43 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.07021877742929369</v>
+        <v>-0.06845031650295701</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3029354430154841</v>
+        <v>0.2953060094965821</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2301622243216375</v>
+        <v>0.2243655853693086</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2568106609441222</v>
+        <v>0.2503428807295822</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09011510772000093</v>
+        <v>-0.08784555742719052</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.296132846940536</v>
+        <v>-2.23830470794194</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2118369730255441</v>
+        <v>0.2065018557924601</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1392999843245079</v>
+        <v>0.1357917122022076</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1663431275304566</v>
+        <v>0.1621537734549251</v>
       </c>
       <c r="K94" t="n">
-        <v>-2.379736434880058</v>
+        <v>-2.319802738308612</v>
       </c>
       <c r="L94" t="n">
-        <v>-2.07778434867663</v>
+        <v>-2.025455319768535</v>
       </c>
       <c r="M94" t="n">
-        <v>-2.150321338688856</v>
+        <v>-2.096165464636955</v>
       </c>
       <c r="N94" t="n">
-        <v>-2.123278327399559</v>
+        <v>-2.069803531978566</v>
       </c>
     </row>
     <row r="95">
@@ -4790,43 +4790,43 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.1718398883618921</v>
+        <v>-0.1675120982852268</v>
       </c>
       <c r="C95" t="n">
-        <v>2.428827523620277</v>
+        <v>2.367657467268061</v>
       </c>
       <c r="D95" t="n">
-        <v>1.845358006859183</v>
+        <v>1.798882638735333</v>
       </c>
       <c r="E95" t="n">
-        <v>1.912157582464856</v>
+        <v>1.863999866062109</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7539724904984495</v>
+        <v>-0.7349836824075949</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.973360395776375</v>
+        <v>-2.898476271153979</v>
       </c>
       <c r="H95" t="n">
-        <v>1.672448542025332</v>
+        <v>1.630327901277082</v>
       </c>
       <c r="I95" t="n">
-        <v>1.089557128972084</v>
+        <v>1.062116616901947</v>
       </c>
       <c r="J95" t="n">
-        <v>1.157322633318206</v>
+        <v>1.128175446039857</v>
       </c>
       <c r="K95" t="n">
-        <v>-3.711397849051118</v>
+        <v>-3.617926240481089</v>
       </c>
       <c r="L95" t="n">
-        <v>-1.284976803170709</v>
+        <v>-1.25261464377617</v>
       </c>
       <c r="M95" t="n">
-        <v>-1.86786821943256</v>
+        <v>-1.820825931279099</v>
       </c>
       <c r="N95" t="n">
-        <v>-1.800103037913859</v>
+        <v>-1.754767416838198</v>
       </c>
     </row>
     <row r="96">
@@ -4836,43 +4836,43 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.543058894409877</v>
+        <v>2.479011919330236</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.51108181499331</v>
+        <v>-13.17080502383992</v>
       </c>
       <c r="D96" t="n">
-        <v>-10.26535757115597</v>
+        <v>-10.00682439208227</v>
       </c>
       <c r="E96" t="n">
-        <v>-5.874558190594885</v>
+        <v>-5.726607357500145</v>
       </c>
       <c r="F96" t="n">
-        <v>2.50576045580828</v>
+        <v>2.442652842444907</v>
       </c>
       <c r="G96" t="n">
-        <v>12.41137378681176</v>
+        <v>12.09879315827209</v>
       </c>
       <c r="H96" t="n">
-        <v>-10.96970769203576</v>
+        <v>-10.69343544496859</v>
       </c>
       <c r="I96" t="n">
-        <v>-7.732538806271233</v>
+        <v>-7.537794704466804</v>
       </c>
       <c r="J96" t="n">
-        <v>-3.356034207312847</v>
+        <v>-3.271512437205723</v>
       </c>
       <c r="K96" t="n">
-        <v>14.6813115909006</v>
+        <v>14.31156254589587</v>
       </c>
       <c r="L96" t="n">
-        <v>1.205843245392799</v>
+        <v>1.17547406579677</v>
       </c>
       <c r="M96" t="n">
-        <v>4.44301217864145</v>
+        <v>4.331114852586792</v>
       </c>
       <c r="N96" t="n">
-        <v>8.819521555123567</v>
+        <v>8.597401777049598</v>
       </c>
     </row>
     <row r="97">
@@ -4882,43 +4882,43 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.0307135518210764</v>
+        <v>-0.0299400305737251</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1029059622109569</v>
+        <v>0.1003142740625781</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0781851899621451</v>
+        <v>0.07621609482081354</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6444959109112826</v>
+        <v>0.6282642720625704</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3207559888244574</v>
+        <v>0.3126777446013117</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.28874493289143</v>
+        <v>-1.256287873095311</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4232318303591051</v>
+        <v>0.4125727305830415</v>
       </c>
       <c r="I97" t="n">
-        <v>0.398614384633361</v>
+        <v>0.3885752755843651</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9650977494471459</v>
+        <v>0.9407917486525383</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.9651408184297368</v>
+        <v>-0.9408337329421792</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.8626649745078236</v>
+        <v>-0.8409387446333072</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.8872824208070528</v>
+        <v>-0.8649362001910255</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.3207991136933562</v>
+        <v>-0.3127197833697629</v>
       </c>
     </row>
     <row r="98">
@@ -4928,43 +4928,43 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.681345233700306</v>
+        <v>1.639000529643396</v>
       </c>
       <c r="C98" t="n">
-        <v>14.88864864198675</v>
+        <v>14.51367781034812</v>
       </c>
       <c r="D98" t="n">
-        <v>11.31199589744883</v>
+        <v>11.02710311697194</v>
       </c>
       <c r="E98" t="n">
-        <v>3.1863913981069</v>
+        <v>3.106142084606082</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.787739846258429</v>
+        <v>-1.74271559234363</v>
       </c>
       <c r="G98" t="n">
-        <v>15.34140998484331</v>
+        <v>14.95503635222878</v>
       </c>
       <c r="H98" t="n">
-        <v>13.12445479761119</v>
+        <v>12.79391521348899</v>
       </c>
       <c r="I98" t="n">
-        <v>9.542145671874254</v>
+        <v>9.301826594956193</v>
       </c>
       <c r="J98" t="n">
-        <v>1.407090167301059</v>
+        <v>1.371652581062675</v>
       </c>
       <c r="K98" t="n">
-        <v>13.39775582124893</v>
+        <v>13.06033314688897</v>
       </c>
       <c r="L98" t="n">
-        <v>28.30995033443293</v>
+        <v>27.5969638253273</v>
       </c>
       <c r="M98" t="n">
-        <v>24.72764124009023</v>
+        <v>24.10487523739807</v>
       </c>
       <c r="N98" t="n">
-        <v>16.59258889418025</v>
+        <v>16.17470430261679</v>
       </c>
     </row>
     <row r="99">
@@ -4974,43 +4974,43 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>16.06626419342724</v>
+        <v>15.66163509707352</v>
       </c>
       <c r="C99" t="n">
-        <v>-21.73195753721959</v>
+        <v>-21.18463787196225</v>
       </c>
       <c r="D99" t="n">
-        <v>-16.51135844601107</v>
+        <v>-16.09551964446099</v>
       </c>
       <c r="E99" t="n">
-        <v>-14.2982347563856</v>
+        <v>-13.93813350700515</v>
       </c>
       <c r="F99" t="n">
-        <v>17.1049753972653</v>
+        <v>16.67418634420219</v>
       </c>
       <c r="G99" t="n">
-        <v>68.4247130341009</v>
+        <v>66.70143564553551</v>
       </c>
       <c r="H99" t="n">
-        <v>-4.401985940859262</v>
+        <v>-4.291121861197219</v>
       </c>
       <c r="I99" t="n">
-        <v>0.7645630285178484</v>
+        <v>0.7453074975736165</v>
       </c>
       <c r="J99" t="n">
-        <v>2.887376683121662</v>
+        <v>2.814658059547533</v>
       </c>
       <c r="K99" t="n">
-        <v>84.03983342500061</v>
+        <v>81.92328900328076</v>
       </c>
       <c r="L99" t="n">
-        <v>62.5328708380972</v>
+        <v>60.95797958055303</v>
       </c>
       <c r="M99" t="n">
-        <v>67.69942010746442</v>
+        <v>65.99440923175872</v>
       </c>
       <c r="N99" t="n">
-        <v>69.82226394499426</v>
+        <v>68.06378921650122</v>
       </c>
     </row>
     <row r="100">
@@ -5020,43 +5020,43 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.0417668309301453</v>
+        <v>-0.0407149326883787</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9371090150137216</v>
+        <v>0.9135079109011014</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7119902946331167</v>
+        <v>0.6940588087530399</v>
       </c>
       <c r="E100" t="n">
-        <v>0.670265143521942</v>
+        <v>0.6533845061767874</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.01045815135114946</v>
+        <v>-0.01019476265793492</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.736764708869258</v>
+        <v>-1.693024264527735</v>
       </c>
       <c r="H100" t="n">
-        <v>0.926065949951806</v>
+        <v>0.9027429655926756</v>
       </c>
       <c r="I100" t="n">
-        <v>0.7010877415329807</v>
+        <v>0.6834308366106017</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6595973658443081</v>
+        <v>0.6429853966344361</v>
       </c>
       <c r="K100" t="n">
-        <v>-1.743349743146511</v>
+        <v>-1.699443454621362</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.8068256385971544</v>
+        <v>-0.7865057232061113</v>
       </c>
       <c r="M100" t="n">
-        <v>-1.031803847795852</v>
+        <v>-1.005817852948417</v>
       </c>
       <c r="N100" t="n">
-        <v>-1.073294301949882</v>
+        <v>-1.046263369413789</v>
       </c>
     </row>
     <row r="101">
@@ -5066,43 +5066,43 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.135273856583627</v>
+        <v>3.056311939106265</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.51527824826618</v>
+        <v>-10.25045081332056</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.989226374076601</v>
+        <v>-7.788017592160115</v>
       </c>
       <c r="E101" t="n">
-        <v>-6.000905265105757</v>
+        <v>-5.849772379109931</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8710081678624069</v>
+        <v>0.849071814542445</v>
       </c>
       <c r="G101" t="n">
-        <v>28.98570032695484</v>
+        <v>28.25569504450257</v>
       </c>
       <c r="H101" t="n">
-        <v>-9.600362878806722</v>
+        <v>-9.358577600689074</v>
       </c>
       <c r="I101" t="n">
-        <v>-7.084858692112003</v>
+        <v>-6.906426423361192</v>
       </c>
       <c r="J101" t="n">
-        <v>-5.114161262696201</v>
+        <v>-4.985361037241264</v>
       </c>
       <c r="K101" t="n">
-        <v>29.56596863175249</v>
+        <v>28.82134928364151</v>
       </c>
       <c r="L101" t="n">
-        <v>19.09459734138871</v>
+        <v>18.61369963085278</v>
       </c>
       <c r="M101" t="n">
-        <v>21.61010158662542</v>
+        <v>21.06585086524828</v>
       </c>
       <c r="N101" t="n">
-        <v>23.58080490613102</v>
+        <v>22.98692199311601</v>
       </c>
     </row>
     <row r="102">
@@ -5112,43 +5112,43 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.693384817153874</v>
+        <v>1.650736896013351</v>
       </c>
       <c r="C102" t="n">
-        <v>35.45813385117393</v>
+        <v>34.56512023669226</v>
       </c>
       <c r="D102" t="n">
-        <v>26.94013904825062</v>
+        <v>26.26165125622259</v>
       </c>
       <c r="E102" t="n">
-        <v>19.7921241149951</v>
+        <v>19.29365918256559</v>
       </c>
       <c r="F102" t="n">
-        <v>-16.28580990562339</v>
+        <v>-15.87565154732894</v>
       </c>
       <c r="G102" t="n">
-        <v>11.05347597594526</v>
+        <v>10.77509402343485</v>
       </c>
       <c r="H102" t="n">
-        <v>19.19603855293392</v>
+        <v>18.71258604401635</v>
       </c>
       <c r="I102" t="n">
-        <v>10.67234686524806</v>
+        <v>10.40356365490937</v>
       </c>
       <c r="J102" t="n">
-        <v>3.514813251090611</v>
+        <v>3.426292628466794</v>
       </c>
       <c r="K102" t="n">
-        <v>-5.389364700314427</v>
+        <v>-5.253633472298073</v>
       </c>
       <c r="L102" t="n">
-        <v>30.09248362662149</v>
+        <v>29.3346039907407</v>
       </c>
       <c r="M102" t="n">
-        <v>21.56879197055466</v>
+        <v>21.02558163245643</v>
       </c>
       <c r="N102" t="n">
-        <v>14.41126153767868</v>
+        <v>14.0483137071747</v>
       </c>
     </row>
     <row r="103">
@@ -5158,43 +5158,43 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.0210347472021311</v>
+        <v>-0.0205049867892586</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4510481982999346</v>
+        <v>0.439688542894495</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3426943231322927</v>
+        <v>0.3340635616419331</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3874806272869575</v>
+        <v>0.3777219220779492</v>
       </c>
       <c r="F103" t="n">
-        <v>0.290368394096791</v>
+        <v>0.2830554618868792</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.6230957100524365</v>
+        <v>-0.6074030355722323</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7411220162518712</v>
+        <v>0.7224568475409936</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6328389061753096</v>
+        <v>0.6169008491596683</v>
       </c>
       <c r="J103" t="n">
-        <v>0.677743448691651</v>
+        <v>0.6606744701225101</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.3307767241409882</v>
+        <v>-0.3224461075537929</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1199768996489191</v>
+        <v>0.1169552796939755</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0116937891796636</v>
+        <v>0.01139928092984629</v>
       </c>
       <c r="N103" t="n">
-        <v>0.05659829217895851</v>
+        <v>0.05517286337087904</v>
       </c>
     </row>
     <row r="104">
@@ -5204,43 +5204,43 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.9522606384178792</v>
+        <v>-0.9282779404504274</v>
       </c>
       <c r="C104" t="n">
-        <v>10.36748941223432</v>
+        <v>10.10638404126417</v>
       </c>
       <c r="D104" t="n">
-        <v>7.87694038042585</v>
+        <v>7.678559522885376</v>
       </c>
       <c r="E104" t="n">
-        <v>18.07521137164246</v>
+        <v>17.61998691151548</v>
       </c>
       <c r="F104" t="n">
-        <v>-1.254299966572652</v>
+        <v>-1.222710403752041</v>
       </c>
       <c r="G104" t="n">
-        <v>-15.61575585011309</v>
+        <v>-15.22247281290917</v>
       </c>
       <c r="H104" t="n">
-        <v>9.09985373664977</v>
+        <v>8.870673788524801</v>
       </c>
       <c r="I104" t="n">
-        <v>6.612508299834015</v>
+        <v>6.44597218255244</v>
       </c>
       <c r="J104" t="n">
-        <v>16.81613204079816</v>
+        <v>16.39261751185018</v>
       </c>
       <c r="K104" t="n">
-        <v>-16.7817508901371</v>
+        <v>-16.35910225096636</v>
       </c>
       <c r="L104" t="n">
-        <v>-6.427597112898523</v>
+        <v>-6.265717986537465</v>
       </c>
       <c r="M104" t="n">
-        <v>-8.914942567494869</v>
+        <v>-8.690419609842612</v>
       </c>
       <c r="N104" t="n">
-        <v>1.288679384502394</v>
+        <v>1.256223975543401</v>
       </c>
     </row>
     <row r="105">
@@ -5250,43 +5250,43 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.187977004511492</v>
+        <v>3.107687757490416</v>
       </c>
       <c r="C105" t="n">
-        <v>6.720492441012341</v>
+        <v>6.551236741571564</v>
       </c>
       <c r="D105" t="n">
-        <v>5.106049900807017</v>
+        <v>4.977453960118714</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.4880752688988039</v>
+        <v>-0.4757830861841743</v>
       </c>
       <c r="F105" t="n">
-        <v>-1.592797345177622</v>
+        <v>-1.552682720975344</v>
       </c>
       <c r="G105" t="n">
-        <v>29.09901772411574</v>
+        <v>28.36615854137511</v>
       </c>
       <c r="H105" t="n">
-        <v>5.172340366208832</v>
+        <v>5.042074899189485</v>
       </c>
       <c r="I105" t="n">
-        <v>3.547172834591997</v>
+        <v>3.457837235389126</v>
       </c>
       <c r="J105" t="n">
-        <v>-2.064872264193757</v>
+        <v>-2.012868426320332</v>
       </c>
       <c r="K105" t="n">
-        <v>27.21059325348024</v>
+        <v>26.52529406837728</v>
       </c>
       <c r="L105" t="n">
-        <v>33.97573071707545</v>
+        <v>33.12005144699149</v>
       </c>
       <c r="M105" t="n">
-        <v>32.35056324498476</v>
+        <v>31.53581384121811</v>
       </c>
       <c r="N105" t="n">
-        <v>26.73852413529963</v>
+        <v>26.06511401777369</v>
       </c>
     </row>
     <row r="106">
@@ -5296,43 +5296,43 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.7212703122476727</v>
+        <v>0.7031051089895972</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.472042038196745</v>
+        <v>-2.409783623669168</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.878191235942261</v>
+        <v>-1.830888962468524</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.554713693725896</v>
+        <v>-1.515558206836888</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6601346306886051</v>
+        <v>0.6435091304558499</v>
       </c>
       <c r="G106" t="n">
-        <v>6.218949886984928</v>
+        <v>6.062325544029751</v>
       </c>
       <c r="H106" t="n">
-        <v>-1.801806547916761</v>
+        <v>-1.75642802391701</v>
       </c>
       <c r="I106" t="n">
-        <v>-1.210382243059619</v>
+        <v>-1.17989874874162</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.8909590314813501</v>
+        <v>-0.8685202153722529</v>
       </c>
       <c r="K106" t="n">
-        <v>6.81219976010278</v>
+        <v>6.640634410502772</v>
       </c>
       <c r="L106" t="n">
-        <v>4.350258525435398</v>
+        <v>4.240697201479818</v>
       </c>
       <c r="M106" t="n">
-        <v>4.941682843760137</v>
+        <v>4.817226489783623</v>
       </c>
       <c r="N106" t="n">
-        <v>5.261107410354619</v>
+        <v>5.1286063440431</v>
       </c>
     </row>
     <row r="107">
@@ -5342,43 +5342,43 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2025007378581915</v>
+        <v>0.1974007538429875</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.9508843415692442</v>
+        <v>-0.9269363056578541</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.7224564182705857</v>
+        <v>-0.7042613429151479</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.5970232495306339</v>
+        <v>-0.5819872103462056</v>
       </c>
       <c r="F107" t="n">
-        <v>0.2187794750460997</v>
+        <v>0.2132695107990993</v>
       </c>
       <c r="G107" t="n">
-        <v>1.145884464740328</v>
+        <v>1.117025347903239</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.7292689928076685</v>
+        <v>-0.7109023426638671</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.501522322438777</v>
+        <v>-0.4888914754860271</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.3772274300590115</v>
+        <v>-0.3677269517706573</v>
       </c>
       <c r="K107" t="n">
-        <v>1.345885664111478</v>
+        <v>1.311989514172175</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3978371805179799</v>
+        <v>0.387817645365884</v>
       </c>
       <c r="M107" t="n">
-        <v>0.6255838546679079</v>
+        <v>0.6098285162295349</v>
       </c>
       <c r="N107" t="n">
-        <v>0.7498791274762142</v>
+        <v>0.7309934107923473</v>
       </c>
     </row>
     <row r="108">
@@ -5388,43 +5388,43 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.833740046672036</v>
+        <v>2.762372262563558</v>
       </c>
       <c r="C108" t="n">
-        <v>-9.096887663545401</v>
+        <v>-8.867782416014514</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.911571251630221</v>
+        <v>-6.737503229577175</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.223963017637666</v>
+        <v>-7.042027404434233</v>
       </c>
       <c r="F108" t="n">
-        <v>1.100076847202292</v>
+        <v>1.072371395876201</v>
       </c>
       <c r="G108" t="n">
-        <v>26.80248230387794</v>
+        <v>26.12746139895022</v>
       </c>
       <c r="H108" t="n">
-        <v>-7.957126373709241</v>
+        <v>-7.756726030766815</v>
       </c>
       <c r="I108" t="n">
-        <v>-5.781343229323865</v>
+        <v>-5.6357400163785</v>
       </c>
       <c r="J108" t="n">
-        <v>-6.109663723987634</v>
+        <v>-5.955791754630024</v>
       </c>
       <c r="K108" t="n">
-        <v>27.63978108740317</v>
+        <v>26.94367280048814</v>
       </c>
       <c r="L108" t="n">
-        <v>18.58257764623409</v>
+        <v>18.11457515913477</v>
       </c>
       <c r="M108" t="n">
-        <v>20.7583608435313</v>
+        <v>20.23556122510233</v>
       </c>
       <c r="N108" t="n">
-        <v>20.43004567248009</v>
+        <v>19.9155146763881</v>
       </c>
     </row>
     <row r="109">
@@ -5434,43 +5434,43 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>8.717803690388925</v>
+        <v>8.498245678211187</v>
       </c>
       <c r="C109" t="n">
-        <v>1.386099499752888</v>
+        <v>1.351190563780641</v>
       </c>
       <c r="D109" t="n">
-        <v>1.053121222193681</v>
+        <v>1.026598348963347</v>
       </c>
       <c r="E109" t="n">
-        <v>-12.11428054058419</v>
+        <v>-11.80918220975272</v>
       </c>
       <c r="F109" t="n">
-        <v>-9.337597573549241</v>
+        <v>-9.102430043449385</v>
       </c>
       <c r="G109" t="n">
-        <v>35.62740015044439</v>
+        <v>34.73012356176459</v>
       </c>
       <c r="H109" t="n">
-        <v>-7.829411652760367</v>
+        <v>-7.632227806914383</v>
       </c>
       <c r="I109" t="n">
-        <v>-8.191718363233088</v>
+        <v>-7.985409817637578</v>
       </c>
       <c r="J109" t="n">
-        <v>-21.40812374920004</v>
+        <v>-20.86895984258313</v>
       </c>
       <c r="K109" t="n">
-        <v>25.48138418440094</v>
+        <v>24.83963515474201</v>
       </c>
       <c r="L109" t="n">
-        <v>26.98956942758302</v>
+        <v>26.30983673073576</v>
       </c>
       <c r="M109" t="n">
-        <v>26.62726287988958</v>
+        <v>25.95665487869224</v>
       </c>
       <c r="N109" t="n">
-        <v>13.41087387164558</v>
+        <v>13.07312081899644</v>
       </c>
     </row>
     <row r="110">
@@ -5480,43 +5480,43 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.3680812734052411</v>
+        <v>0.3588111412046501</v>
       </c>
       <c r="C110" t="n">
-        <v>1.468323925379255</v>
+        <v>1.431344166056996</v>
       </c>
       <c r="D110" t="n">
-        <v>1.115593135375351</v>
+        <v>1.087496906106943</v>
       </c>
       <c r="E110" t="n">
-        <v>4.107258304417686</v>
+        <v>4.003816944547122</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.5171186119607056</v>
+        <v>-0.5040949722305089</v>
       </c>
       <c r="G110" t="n">
-        <v>2.783706930350922</v>
+        <v>2.71359923100148</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9563600206034981</v>
+        <v>0.9322740796363416</v>
       </c>
       <c r="I110" t="n">
-        <v>0.6023909316750975</v>
+        <v>0.5872197073381357</v>
       </c>
       <c r="J110" t="n">
-        <v>3.591987080048294</v>
+        <v>3.501522833424687</v>
       </c>
       <c r="K110" t="n">
-        <v>2.232455447093502</v>
+        <v>2.176231024332113</v>
       </c>
       <c r="L110" t="n">
-        <v>3.705934051047933</v>
+        <v>3.61260004830973</v>
       </c>
       <c r="M110" t="n">
-        <v>3.351964968992365</v>
+        <v>3.267545682711264</v>
       </c>
       <c r="N110" t="n">
-        <v>6.341561808862335</v>
+        <v>6.181849482879233</v>
       </c>
     </row>
     <row r="111">
@@ -5526,43 +5526,43 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5.129985875679571</v>
+        <v>5.000787107117505</v>
       </c>
       <c r="C111" t="n">
-        <v>-19.36643367921497</v>
+        <v>-18.87868976657466</v>
       </c>
       <c r="D111" t="n">
-        <v>-14.71409686636692</v>
+        <v>-14.34352212372482</v>
       </c>
       <c r="E111" t="n">
-        <v>-13.2415045715871</v>
+        <v>-12.90801708721242</v>
       </c>
       <c r="F111" t="n">
-        <v>2.230103248837599</v>
+        <v>2.173938066223346</v>
       </c>
       <c r="G111" t="n">
-        <v>48.61802737573768</v>
+        <v>47.39358165228234</v>
       </c>
       <c r="H111" t="n">
-        <v>-17.06448875582609</v>
+        <v>-16.63471935941388</v>
       </c>
       <c r="I111" t="n">
-        <v>-12.42941024013004</v>
+        <v>-12.11637536325237</v>
       </c>
       <c r="J111" t="n">
-        <v>-10.98565409534232</v>
+        <v>-10.70898023787696</v>
       </c>
       <c r="K111" t="n">
-        <v>50.3724173506337</v>
+        <v>49.10378729025675</v>
       </c>
       <c r="L111" t="n">
-        <v>31.07782494723274</v>
+        <v>30.29512947592445</v>
       </c>
       <c r="M111" t="n">
-        <v>35.71290355871616</v>
+        <v>34.81347356546092</v>
       </c>
       <c r="N111" t="n">
-        <v>37.15666934096424</v>
+        <v>36.2208780855771</v>
       </c>
     </row>
     <row r="112">
@@ -5572,43 +5572,43 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>54.26672364156068</v>
+        <v>52.9000154208565</v>
       </c>
       <c r="C112" t="n">
-        <v>-209.737330724018</v>
+        <v>-204.455093012701</v>
       </c>
       <c r="D112" t="n">
-        <v>-159.352798346067</v>
+        <v>-155.3394958122654</v>
       </c>
       <c r="E112" t="n">
-        <v>-154.0696360157217</v>
+        <v>-150.189390001711</v>
       </c>
       <c r="F112" t="n">
-        <v>61.35405074401111</v>
+        <v>59.808848087606</v>
       </c>
       <c r="G112" t="n">
-        <v>499.0918433976036</v>
+        <v>486.5222080946993</v>
       </c>
       <c r="H112" t="n">
-        <v>-147.6233144765337</v>
+        <v>-143.9054191638313</v>
       </c>
       <c r="I112" t="n">
-        <v>-97.42134619617899</v>
+        <v>-94.96778818155042</v>
       </c>
       <c r="J112" t="n">
-        <v>-92.44322240208444</v>
+        <v>-90.11503850729422</v>
       </c>
       <c r="K112" t="n">
-        <v>555.4136384209904</v>
+        <v>541.4255378948729</v>
       </c>
       <c r="L112" t="n">
-        <v>346.4362689824681</v>
+        <v>337.7112665316881</v>
       </c>
       <c r="M112" t="n">
-        <v>396.6382382760939</v>
+        <v>386.6488985017207</v>
       </c>
       <c r="N112" t="n">
-        <v>401.6164640184998</v>
+        <v>391.5017475567186</v>
       </c>
     </row>
     <row r="113">
@@ -5618,43 +5618,43 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.680518383505642</v>
+        <v>0.6633795181630294</v>
       </c>
       <c r="C113" t="n">
-        <v>7.615975869532752</v>
+        <v>7.424167406977933</v>
       </c>
       <c r="D113" t="n">
-        <v>5.786414191296792</v>
+        <v>5.640683266100713</v>
       </c>
       <c r="E113" t="n">
-        <v>1.104142456459147</v>
+        <v>1.076334612705051</v>
       </c>
       <c r="F113" t="n">
-        <v>-2.737270673901556</v>
+        <v>-2.668332472343196</v>
       </c>
       <c r="G113" t="n">
-        <v>5.51934764317157</v>
+        <v>5.380342792857193</v>
       </c>
       <c r="H113" t="n">
-        <v>4.888235354469598</v>
+        <v>4.765125076284793</v>
       </c>
       <c r="I113" t="n">
-        <v>3.056384276464398</v>
+        <v>2.979409194204671</v>
       </c>
       <c r="J113" t="n">
-        <v>-1.629712718452839</v>
+        <v>-1.588668380040085</v>
       </c>
       <c r="K113" t="n">
-        <v>2.718971214977461</v>
+        <v>2.650493885557085</v>
       </c>
       <c r="L113" t="n">
-        <v>10.34447719045405</v>
+        <v>10.08395138262266</v>
       </c>
       <c r="M113" t="n">
-        <v>8.512626125155519</v>
+        <v>8.298235512929189</v>
       </c>
       <c r="N113" t="n">
-        <v>3.826530408695855</v>
+        <v>3.730159184944033</v>
       </c>
     </row>
     <row r="114">
@@ -5664,43 +5664,43 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1.1423041819264</v>
+        <v>-1.113535234563823</v>
       </c>
       <c r="C114" t="n">
-        <v>5.182195400229444</v>
+        <v>5.051681734035587</v>
       </c>
       <c r="D114" t="n">
-        <v>3.937293069154672</v>
+        <v>3.838132286195332</v>
       </c>
       <c r="E114" t="n">
-        <v>4.013441248247789</v>
+        <v>3.912362672295351</v>
       </c>
       <c r="F114" t="n">
-        <v>-2.211846999220648</v>
+        <v>-2.156141600517351</v>
       </c>
       <c r="G114" t="n">
-        <v>-38.37841764311688</v>
+        <v>-37.41185663904889</v>
       </c>
       <c r="H114" t="n">
-        <v>2.954351272115016</v>
+        <v>2.879945892547286</v>
       </c>
       <c r="I114" t="n">
-        <v>1.713291880472796</v>
+        <v>1.670142599654328</v>
       </c>
       <c r="J114" t="n">
-        <v>1.79586106257147</v>
+        <v>1.750632275706231</v>
       </c>
       <c r="K114" t="n">
-        <v>-40.48433661926097</v>
+        <v>-39.46473801528474</v>
       </c>
       <c r="L114" t="n">
-        <v>-35.31813825913768</v>
+        <v>-34.42865043566859</v>
       </c>
       <c r="M114" t="n">
-        <v>-36.55919767210913</v>
+        <v>-35.6384537493536</v>
       </c>
       <c r="N114" t="n">
-        <v>-36.4766306360029</v>
+        <v>-35.55796616524729</v>
       </c>
     </row>
     <row r="115">
@@ -5710,43 +5710,43 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1.576773965263655</v>
+        <v>-1.537062890116532</v>
       </c>
       <c r="C115" t="n">
-        <v>15.63699493778799</v>
+        <v>15.24317699385343</v>
       </c>
       <c r="D115" t="n">
-        <v>11.88056934098501</v>
+        <v>11.58135703009962</v>
       </c>
       <c r="E115" t="n">
-        <v>9.039226542194232</v>
+        <v>8.811573490839518</v>
       </c>
       <c r="F115" t="n">
-        <v>-2.494469717724299</v>
+        <v>-2.431646461763063</v>
       </c>
       <c r="G115" t="n">
-        <v>-23.02250294420715</v>
+        <v>-22.4426808741875</v>
       </c>
       <c r="H115" t="n">
-        <v>13.12044366179071</v>
+        <v>12.79000509818223</v>
       </c>
       <c r="I115" t="n">
-        <v>9.369322647552597</v>
+        <v>9.133356121004583</v>
       </c>
       <c r="J115" t="n">
-        <v>6.536843048713583</v>
+        <v>6.372212561877122</v>
       </c>
       <c r="K115" t="n">
-        <v>-25.37075543571305</v>
+        <v>-24.73179259269172</v>
       </c>
       <c r="L115" t="n">
-        <v>-9.755841933640548</v>
+        <v>-9.510140913275546</v>
       </c>
       <c r="M115" t="n">
-        <v>-13.5069629773202</v>
+        <v>-13.16678991915325</v>
       </c>
       <c r="N115" t="n">
-        <v>-16.33944553836943</v>
+        <v>-15.92793636588762</v>
       </c>
     </row>
     <row r="116">
@@ -5756,43 +5756,43 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.217689352639317</v>
+        <v>2.161836814180573</v>
       </c>
       <c r="C116" t="n">
-        <v>-3.589690556549912</v>
+        <v>-3.499284147903866</v>
       </c>
       <c r="D116" t="n">
-        <v>-2.727350602813708</v>
+        <v>-2.65866223838934</v>
       </c>
       <c r="E116" t="n">
-        <v>-3.733834253116435</v>
+        <v>-3.639797583385138</v>
       </c>
       <c r="F116" t="n">
-        <v>1.107843018040966</v>
+        <v>1.079941975589847</v>
       </c>
       <c r="G116" t="n">
-        <v>18.8225806469872</v>
+        <v>18.34853368083863</v>
       </c>
       <c r="H116" t="n">
-        <v>-2.450790432195431</v>
+        <v>-2.389067239672723</v>
       </c>
       <c r="I116" t="n">
-        <v>-1.595911228403966</v>
+        <v>-1.555718181007545</v>
       </c>
       <c r="J116" t="n">
-        <v>-2.614860726441599</v>
+        <v>-2.549005421182535</v>
       </c>
       <c r="K116" t="n">
-        <v>19.7247731451055</v>
+        <v>19.22800444782792</v>
       </c>
       <c r="L116" t="n">
-        <v>16.16613952249526</v>
+        <v>15.75899506453274</v>
       </c>
       <c r="M116" t="n">
-        <v>17.02101876769553</v>
+        <v>16.59234416356385</v>
       </c>
       <c r="N116" t="n">
-        <v>16.00207343592536</v>
+        <v>15.59906098472881</v>
       </c>
     </row>
     <row r="117">
@@ -5802,43 +5802,43 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0396408392380778</v>
+        <v>0.0386424841278607</v>
       </c>
       <c r="C117" t="n">
-        <v>18.44939213834449</v>
+        <v>17.98474393018993</v>
       </c>
       <c r="D117" t="n">
-        <v>14.01735330034144</v>
+        <v>13.66432605449866</v>
       </c>
       <c r="E117" t="n">
-        <v>4.284271012263692</v>
+        <v>4.17637158478285</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3261900164412472</v>
+        <v>0.3179749161538871</v>
       </c>
       <c r="G117" t="n">
-        <v>-5.989103446924183</v>
+        <v>-5.838267789890151</v>
       </c>
       <c r="H117" t="n">
-        <v>18.77613729554841</v>
+        <v>18.30326000587833</v>
       </c>
       <c r="I117" t="n">
-        <v>14.34396509784434</v>
+        <v>13.98271212915205</v>
       </c>
       <c r="J117" t="n">
-        <v>4.610659984750279</v>
+        <v>4.494540446271194</v>
       </c>
       <c r="K117" t="n">
-        <v>-5.666589400334001</v>
+        <v>-5.523876264233401</v>
       </c>
       <c r="L117" t="n">
-        <v>12.78335787569194</v>
+        <v>12.46140882248742</v>
       </c>
       <c r="M117" t="n">
-        <v>8.351185678728044</v>
+        <v>8.140860946482675</v>
       </c>
       <c r="N117" t="n">
-        <v>-1.38211935989459</v>
+        <v>-1.347310663802319</v>
       </c>
     </row>
     <row r="118">
@@ -5848,43 +5848,43 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.723997159174478</v>
+        <v>1.680578265756894</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.428036543362588</v>
+        <v>-7.240961335458757</v>
       </c>
       <c r="D118" t="n">
-        <v>-5.643622932148404</v>
+        <v>-5.501488206881617</v>
       </c>
       <c r="E118" t="n">
-        <v>-4.914404837609617</v>
+        <v>-4.790635480612993</v>
       </c>
       <c r="F118" t="n">
-        <v>1.9096697222211</v>
+        <v>1.861574662614616</v>
       </c>
       <c r="G118" t="n">
-        <v>4.20964798520632</v>
+        <v>4.103627939742474</v>
       </c>
       <c r="H118" t="n">
-        <v>-5.494223510450531</v>
+        <v>-5.355851411782536</v>
       </c>
       <c r="I118" t="n">
-        <v>-3.71560977003198</v>
+        <v>-3.622032084171057</v>
       </c>
       <c r="J118" t="n">
-        <v>-2.996082431349554</v>
+        <v>-2.920626051932227</v>
       </c>
       <c r="K118" t="n">
-        <v>5.959448196529744</v>
+        <v>5.809359407406308</v>
       </c>
       <c r="L118" t="n">
-        <v>-1.444445170142629</v>
+        <v>-1.408066797616772</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3341686024664181</v>
+        <v>0.3257525613744807</v>
       </c>
       <c r="N118" t="n">
-        <v>1.05369917994034</v>
+        <v>1.027161750835797</v>
       </c>
     </row>
     <row r="119">
@@ -5894,43 +5894,43 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>26.50493449118464</v>
+        <v>25.83740733222816</v>
       </c>
       <c r="C119" t="n">
-        <v>-105.3149004548368</v>
+        <v>-102.6625431619039</v>
       </c>
       <c r="D119" t="n">
-        <v>-80.01543662772434</v>
+        <v>-78.00024669761788</v>
       </c>
       <c r="E119" t="n">
-        <v>-76.1424156262205</v>
+        <v>-74.2247677861189</v>
       </c>
       <c r="F119" t="n">
-        <v>28.73993919475371</v>
+        <v>28.01612340997459</v>
       </c>
       <c r="G119" t="n">
-        <v>217.3195757799821</v>
+        <v>211.8463791171386</v>
       </c>
       <c r="H119" t="n">
-        <v>-76.20377917033387</v>
+        <v>-74.28458588848522</v>
       </c>
       <c r="I119" t="n">
-        <v>-50.99348323696041</v>
+        <v>-49.70921162324318</v>
       </c>
       <c r="J119" t="n">
-        <v>-47.26944905238719</v>
+        <v>-46.07896729353309</v>
       </c>
       <c r="K119" t="n">
-        <v>243.6016623669567</v>
+        <v>237.4665509728511</v>
       </c>
       <c r="L119" t="n">
-        <v>138.6579419417261</v>
+        <v>135.1658396661329</v>
       </c>
       <c r="M119" t="n">
-        <v>163.8682383700011</v>
+        <v>159.7412144138124</v>
       </c>
       <c r="N119" t="n">
-        <v>167.5923223481334</v>
+        <v>163.3715072830301</v>
       </c>
     </row>
     <row r="120">
@@ -5940,43 +5940,43 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1.097782869654614</v>
+        <v>1.070135192186279</v>
       </c>
       <c r="C120" t="n">
-        <v>8.00456929783218</v>
+        <v>7.802974104158739</v>
       </c>
       <c r="D120" t="n">
-        <v>6.081657055333642</v>
+        <v>5.928490434331625</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.5266878863210485</v>
+        <v>-0.5134232442775226</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2225562191677355</v>
+        <v>0.2169511375653445</v>
       </c>
       <c r="G120" t="n">
-        <v>8.415479254751382</v>
+        <v>8.203535287862888</v>
       </c>
       <c r="H120" t="n">
-        <v>8.242499157700097</v>
+        <v>8.034911697060615</v>
       </c>
       <c r="I120" t="n">
-        <v>6.315893754356269</v>
+        <v>6.156827878697577</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.2986219316737853</v>
+        <v>-0.291101134000485</v>
       </c>
       <c r="K120" t="n">
-        <v>8.536235996170809</v>
+        <v>8.32125076900109</v>
       </c>
       <c r="L120" t="n">
-        <v>16.55617884937597</v>
+        <v>16.13921124531813</v>
       </c>
       <c r="M120" t="n">
-        <v>14.62957346653001</v>
+        <v>14.26112744693672</v>
       </c>
       <c r="N120" t="n">
-        <v>8.015059842852461</v>
+        <v>7.813200444650782</v>
       </c>
     </row>
     <row r="121">
@@ -5986,43 +5986,43 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.289891052569481</v>
+        <v>2.232220113252503</v>
       </c>
       <c r="C121" t="n">
-        <v>26.7025182288106</v>
+        <v>26.03001492056096</v>
       </c>
       <c r="D121" t="n">
-        <v>20.28785713997155</v>
+        <v>19.77690716412971</v>
       </c>
       <c r="E121" t="n">
-        <v>40.61022426065806</v>
+        <v>39.58745517461037</v>
       </c>
       <c r="F121" t="n">
-        <v>-4.534726225641626</v>
+        <v>-4.420519079985227</v>
       </c>
       <c r="G121" t="n">
-        <v>12.06486774589575</v>
+        <v>11.76101387701401</v>
       </c>
       <c r="H121" t="n">
-        <v>22.19986024112193</v>
+        <v>21.64075643949149</v>
       </c>
       <c r="I121" t="n">
-        <v>15.7774955013979</v>
+        <v>15.38013904873435</v>
       </c>
       <c r="J121" t="n">
-        <v>36.08699092156557</v>
+        <v>35.17813953266012</v>
       </c>
       <c r="K121" t="n">
-        <v>7.317795600404384</v>
+        <v>7.133496812245262</v>
       </c>
       <c r="L121" t="n">
-        <v>34.05238188918202</v>
+        <v>33.19477215821863</v>
       </c>
       <c r="M121" t="n">
-        <v>27.63001719221495</v>
+        <v>26.93415480914162</v>
       </c>
       <c r="N121" t="n">
-        <v>47.93951691429206</v>
+        <v>46.73215948663317</v>
       </c>
     </row>
     <row r="122">
@@ -6032,43 +6032,43 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11.99621655114178</v>
+        <v>11.694091663594</v>
       </c>
       <c r="C122" t="n">
-        <v>5.554598781419934</v>
+        <v>5.414706130678333</v>
       </c>
       <c r="D122" t="n">
-        <v>4.220235169644852</v>
+        <v>4.113948485787624</v>
       </c>
       <c r="E122" t="n">
-        <v>-26.58127669350812</v>
+        <v>-25.91182685508066</v>
       </c>
       <c r="F122" t="n">
-        <v>8.299066426576395</v>
+        <v>8.090054318451159</v>
       </c>
       <c r="G122" t="n">
-        <v>89.7808018329314</v>
+        <v>87.51967103872759</v>
       </c>
       <c r="H122" t="n">
-        <v>14.0216633869776</v>
+        <v>13.66852759154049</v>
       </c>
       <c r="I122" t="n">
-        <v>12.64694210659339</v>
+        <v>12.32842868650895</v>
       </c>
       <c r="J122" t="n">
-        <v>-18.22200165758012</v>
+        <v>-17.76308028197625</v>
       </c>
       <c r="K122" t="n">
-        <v>96.96743645389392</v>
+        <v>94.52531016269748</v>
       </c>
       <c r="L122" t="n">
-        <v>102.6900324818678</v>
+        <v>100.1037825268427</v>
       </c>
       <c r="M122" t="n">
-        <v>101.3153114254776</v>
+        <v>98.76368384016381</v>
       </c>
       <c r="N122" t="n">
-        <v>70.44639019802533</v>
+        <v>68.67219684081222</v>
       </c>
     </row>
     <row r="123">
@@ -6078,43 +6078,43 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.7670801108432977</v>
+        <v>0.7477611871442577</v>
       </c>
       <c r="C123" t="n">
-        <v>70.91821573783346</v>
+        <v>69.13213944756819</v>
       </c>
       <c r="D123" t="n">
-        <v>53.88175816161342</v>
+        <v>52.52474530209608</v>
       </c>
       <c r="E123" t="n">
-        <v>19.39858046280532</v>
+        <v>18.91002693295479</v>
       </c>
       <c r="F123" t="n">
-        <v>-5.851436598688213</v>
+        <v>-5.704068083220444</v>
       </c>
       <c r="G123" t="n">
-        <v>5.994606196968785</v>
+        <v>5.8436319530952</v>
       </c>
       <c r="H123" t="n">
-        <v>65.07752153123238</v>
+        <v>63.43854320913461</v>
       </c>
       <c r="I123" t="n">
-        <v>48.03848334430244</v>
+        <v>46.8286334456707</v>
       </c>
       <c r="J123" t="n">
-        <v>13.55099381351892</v>
+        <v>13.20971183810473</v>
       </c>
       <c r="K123" t="n">
-        <v>0.07203681161253961</v>
+        <v>0.07022256346897215</v>
       </c>
       <c r="L123" t="n">
-        <v>71.0009948819104</v>
+        <v>69.21283379770288</v>
       </c>
       <c r="M123" t="n">
-        <v>53.96195670930342</v>
+        <v>52.60292404820122</v>
       </c>
       <c r="N123" t="n">
-        <v>19.47446861959681</v>
+        <v>18.98400384541861</v>
       </c>
     </row>
     <row r="124">
@@ -6124,43 +6124,43 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-2.105149305923407</v>
+        <v>-2.052131090170803</v>
       </c>
       <c r="C124" t="n">
-        <v>10.62376959333162</v>
+        <v>10.35620980228956</v>
       </c>
       <c r="D124" t="n">
-        <v>8.071655188121326</v>
+        <v>7.868370435329537</v>
       </c>
       <c r="E124" t="n">
-        <v>15.76190058036272</v>
+        <v>15.36493688601126</v>
       </c>
       <c r="F124" t="n">
-        <v>2.72040328711744</v>
+        <v>2.651889890939481</v>
       </c>
       <c r="G124" t="n">
-        <v>-78.99485652973625</v>
+        <v>-77.00536992417575</v>
       </c>
       <c r="H124" t="n">
-        <v>13.31469181461709</v>
+        <v>12.97936110846693</v>
       </c>
       <c r="I124" t="n">
-        <v>10.76965955215563</v>
+        <v>10.49842552038807</v>
       </c>
       <c r="J124" t="n">
-        <v>18.471738193574</v>
+        <v>18.00652719969489</v>
       </c>
       <c r="K124" t="n">
-        <v>-76.07923877366591</v>
+        <v>-74.16318204351069</v>
       </c>
       <c r="L124" t="n">
-        <v>-65.48495008253978</v>
+        <v>-63.83571066647769</v>
       </c>
       <c r="M124" t="n">
-        <v>-68.02998238430862</v>
+        <v>-66.31664629287398</v>
       </c>
       <c r="N124" t="n">
-        <v>-60.32790769773415</v>
+        <v>-58.80854846880827</v>
       </c>
     </row>
     <row r="125">
@@ -6170,43 +6170,43 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.5706325288754195</v>
+        <v>0.5562611403728351</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.166463629811207</v>
+        <v>-0.1622712408839901</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1264746010722169</v>
+        <v>-0.1232893364128393</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.533293496381769</v>
+        <v>-0.5198624919532133</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6642984833073938</v>
+        <v>0.6475681163861411</v>
       </c>
       <c r="G125" t="n">
-        <v>-3.157985971370866</v>
+        <v>-3.07845204895371</v>
       </c>
       <c r="H125" t="n">
-        <v>0.5058261418586352</v>
+        <v>0.4930869031514755</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5438954487920238</v>
+        <v>0.5301974340384972</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1338689724886641</v>
+        <v>0.1304974804780914</v>
       </c>
       <c r="K125" t="n">
-        <v>-2.546603319628591</v>
+        <v>-2.48246707814849</v>
       </c>
       <c r="L125" t="n">
-        <v>-2.705075705430776</v>
+        <v>-2.636948334619541</v>
       </c>
       <c r="M125" t="n">
-        <v>-2.667006387842439</v>
+        <v>-2.599837793345916</v>
       </c>
       <c r="N125" t="n">
-        <v>-3.077031792125621</v>
+        <v>-2.999536701884988</v>
       </c>
     </row>
     <row r="126">
@@ -6216,43 +6216,43 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.125512115965269</v>
+        <v>1.097166077027075</v>
       </c>
       <c r="C126" t="n">
-        <v>1.572742321253531</v>
+        <v>1.533132783119182</v>
       </c>
       <c r="D126" t="n">
-        <v>1.19492743186863</v>
+        <v>1.164833167194264</v>
       </c>
       <c r="E126" t="n">
-        <v>2.512543342143178</v>
+        <v>2.449264901689243</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.945815607819554</v>
+        <v>-7.745700126679846</v>
       </c>
       <c r="G126" t="n">
-        <v>9.361783539718221</v>
+        <v>9.126006885710183</v>
       </c>
       <c r="H126" t="n">
-        <v>-6.357311318190625</v>
+        <v>-6.197202340587035</v>
       </c>
       <c r="I126" t="n">
-        <v>-6.738912655143993</v>
+        <v>-6.569193042343581</v>
       </c>
       <c r="J126" t="n">
-        <v>-5.427623358037726</v>
+        <v>-5.290928585172628</v>
       </c>
       <c r="K126" t="n">
-        <v>1.31159706879647</v>
+        <v>1.278564477626681</v>
       </c>
       <c r="L126" t="n">
-        <v>2.900101270942969</v>
+        <v>2.827062178440306</v>
       </c>
       <c r="M126" t="n">
-        <v>2.518499955005154</v>
+        <v>2.455071497170037</v>
       </c>
       <c r="N126" t="n">
-        <v>3.829791366557543</v>
+        <v>3.733338015534754</v>
       </c>
     </row>
     <row r="127">
@@ -6262,43 +6262,43 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3.179374283328061</v>
+        <v>3.099301695964559</v>
       </c>
       <c r="C127" t="n">
-        <v>-13.25021677814385</v>
+        <v>-12.91650987672089</v>
       </c>
       <c r="D127" t="n">
-        <v>-10.06715931303419</v>
+        <v>-9.813617759961231</v>
       </c>
       <c r="E127" t="n">
-        <v>-9.502082140930911</v>
+        <v>-9.262772064619789</v>
       </c>
       <c r="F127" t="n">
-        <v>3.593556998386257</v>
+        <v>3.503053213346578</v>
       </c>
       <c r="G127" t="n">
-        <v>12.2759801700464</v>
+        <v>11.96680943170548</v>
       </c>
       <c r="H127" t="n">
-        <v>-9.612134984158752</v>
+        <v>-9.370053225397353</v>
       </c>
       <c r="I127" t="n">
-        <v>-6.43977356918823</v>
+        <v>-6.277587778599198</v>
       </c>
       <c r="J127" t="n">
-        <v>-5.892567969431669</v>
+        <v>-5.744163559796137</v>
       </c>
       <c r="K127" t="n">
-        <v>15.57470778954917</v>
+        <v>15.18245854834493</v>
       </c>
       <c r="L127" t="n">
-        <v>2.369015559881646</v>
+        <v>2.309351868702283</v>
       </c>
       <c r="M127" t="n">
-        <v>5.541377034217621</v>
+        <v>5.401817373370765</v>
       </c>
       <c r="N127" t="n">
-        <v>6.088588606913405</v>
+        <v>5.93524741468449</v>
       </c>
     </row>
     <row r="128">
@@ -6308,43 +6308,43 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.4417802651596588</v>
+        <v>-0.4306540227845587</v>
       </c>
       <c r="C128" t="n">
-        <v>3.806733118256736</v>
+        <v>3.710860489551292</v>
       </c>
       <c r="D128" t="n">
-        <v>2.892253719720793</v>
+        <v>2.819412267909295</v>
       </c>
       <c r="E128" t="n">
-        <v>5.773998876930438</v>
+        <v>5.62858063160645</v>
       </c>
       <c r="F128" t="n">
-        <v>1.040170093218033</v>
+        <v>1.013973394358495</v>
       </c>
       <c r="G128" t="n">
-        <v>-18.33192868861946</v>
+        <v>-17.8702387991471</v>
       </c>
       <c r="H128" t="n">
-        <v>4.840716404180963</v>
+        <v>4.718802891447261</v>
       </c>
       <c r="I128" t="n">
-        <v>3.927723242698457</v>
+        <v>3.82880347595699</v>
       </c>
       <c r="J128" t="n">
-        <v>6.811951689784145</v>
+        <v>6.640392587838702</v>
       </c>
       <c r="K128" t="n">
-        <v>-17.25079147748045</v>
+        <v>-16.81633004432568</v>
       </c>
       <c r="L128" t="n">
-        <v>-13.45024513217936</v>
+        <v>-13.11150051376357</v>
       </c>
       <c r="M128" t="n">
-        <v>-14.36323830191081</v>
+        <v>-14.00149993729503</v>
       </c>
       <c r="N128" t="n">
-        <v>-11.47901068477662</v>
+        <v>-11.18991163446248</v>
       </c>
     </row>
     <row r="129">
@@ -6354,43 +6354,43 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-22.83310283291796</v>
+        <v>-22.25805080744368</v>
       </c>
       <c r="C129" t="n">
-        <v>378.1720247889541</v>
+        <v>368.6477568686484</v>
       </c>
       <c r="D129" t="n">
-        <v>287.3249611706684</v>
+        <v>280.0886778630704</v>
       </c>
       <c r="E129" t="n">
-        <v>324.658446862194</v>
+        <v>316.4819191768597</v>
       </c>
       <c r="F129" t="n">
-        <v>-66.5735162653847</v>
+        <v>-64.89686129424504</v>
       </c>
       <c r="G129" t="n">
-        <v>-532.8525078091293</v>
+        <v>-519.4326096841606</v>
       </c>
       <c r="H129" t="n">
-        <v>311.2787477323175</v>
+        <v>303.4391879633093</v>
       </c>
       <c r="I129" t="n">
-        <v>220.5084992326587</v>
+        <v>214.9549894864832</v>
       </c>
       <c r="J129" t="n">
-        <v>257.9703320179248</v>
+        <v>251.4733454705987</v>
       </c>
       <c r="K129" t="n">
-        <v>-597.3086673475907</v>
+        <v>-582.2654399113096</v>
       </c>
       <c r="L129" t="n">
-        <v>-219.456401575145</v>
+        <v>-213.9293889237086</v>
       </c>
       <c r="M129" t="n">
-        <v>-310.2266505011446</v>
+        <v>-302.4135878161382</v>
       </c>
       <c r="N129" t="n">
-        <v>-272.7648606113422</v>
+        <v>-265.8952736471636</v>
       </c>
     </row>
     <row r="130">
@@ -6400,43 +6400,43 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1.178310572880693</v>
+        <v>1.148634804040554</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.345396350135596</v>
+        <v>-4.235957480135347</v>
       </c>
       <c r="D130" t="n">
-        <v>-3.301515595371324</v>
+        <v>-3.218366877295385</v>
       </c>
       <c r="E130" t="n">
-        <v>-3.237955829694849</v>
+        <v>-3.156407865237828</v>
       </c>
       <c r="F130" t="n">
-        <v>1.121797597236165</v>
+        <v>1.093545108505951</v>
       </c>
       <c r="G130" t="n">
-        <v>11.02798074780879</v>
+        <v>10.75024089298818</v>
       </c>
       <c r="H130" t="n">
-        <v>-3.207097381014852</v>
+        <v>-3.126326587034672</v>
       </c>
       <c r="I130" t="n">
-        <v>-2.167180698374172</v>
+        <v>-2.11260022110447</v>
       </c>
       <c r="J130" t="n">
-        <v>-2.11024433113203</v>
+        <v>-2.05709779709577</v>
       </c>
       <c r="K130" t="n">
-        <v>12.04051138136725</v>
+        <v>11.73727092787884</v>
       </c>
       <c r="L130" t="n">
-        <v>7.711616311529878</v>
+        <v>7.51739914305847</v>
       </c>
       <c r="M130" t="n">
-        <v>8.751533016172123</v>
+        <v>8.531125530436128</v>
       </c>
       <c r="N130" t="n">
-        <v>8.808471597050314</v>
+        <v>8.586630112330422</v>
       </c>
     </row>
     <row r="131">
@@ -6446,43 +6446,43 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>16.29338340339163</v>
+        <v>15.88303430644623</v>
       </c>
       <c r="C131" t="n">
-        <v>-67.16335891526347</v>
+        <v>-65.47184874844559</v>
       </c>
       <c r="D131" t="n">
-        <v>-51.02891865993832</v>
+        <v>-49.74375460458028</v>
       </c>
       <c r="E131" t="n">
-        <v>-46.18764320106141</v>
+        <v>-45.02440673823767</v>
       </c>
       <c r="F131" t="n">
-        <v>18.4183970859784</v>
+        <v>17.95452948866649</v>
       </c>
       <c r="G131" t="n">
-        <v>33.4814642294089</v>
+        <v>32.63823306797393</v>
       </c>
       <c r="H131" t="n">
-        <v>-48.51678499290134</v>
+        <v>-47.29488906032375</v>
       </c>
       <c r="I131" t="n">
-        <v>-32.43715893379484</v>
+        <v>-31.6202286163516</v>
       </c>
       <c r="J131" t="n">
-        <v>-27.68747016912799</v>
+        <v>-26.99016083199919</v>
       </c>
       <c r="K131" t="n">
-        <v>50.38894511595707</v>
+        <v>49.11989880357115</v>
       </c>
       <c r="L131" t="n">
-        <v>-16.54623822935493</v>
+        <v>-16.12952097995623</v>
       </c>
       <c r="M131" t="n">
-        <v>-0.46661186601753</v>
+        <v>-0.4548602394152397</v>
       </c>
       <c r="N131" t="n">
-        <v>4.283107508253394</v>
+        <v>4.175237383637921</v>
       </c>
     </row>
     <row r="132">
@@ -6492,43 +6492,43 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>11.40271200258139</v>
+        <v>11.11553453568315</v>
       </c>
       <c r="C132" t="n">
-        <v>-38.92666139987653</v>
+        <v>-37.94629286885589</v>
       </c>
       <c r="D132" t="n">
-        <v>-29.57543324751494</v>
+        <v>-28.83057553291893</v>
       </c>
       <c r="E132" t="n">
-        <v>-29.6154318525948</v>
+        <v>-28.86956677255066</v>
       </c>
       <c r="F132" t="n">
-        <v>5.761345817152925</v>
+        <v>5.616246239322651</v>
       </c>
       <c r="G132" t="n">
-        <v>105.3362172494272</v>
+        <v>102.6833230927138</v>
       </c>
       <c r="H132" t="n">
-        <v>-33.00562899789789</v>
+        <v>-32.17438175365865</v>
       </c>
       <c r="I132" t="n">
-        <v>-23.69276184629707</v>
+        <v>-23.09605929612282</v>
       </c>
       <c r="J132" t="n">
-        <v>-23.79685620555456</v>
+        <v>-23.1975320374351</v>
       </c>
       <c r="K132" t="n">
-        <v>110.0401680580914</v>
+        <v>107.2688048321478</v>
       </c>
       <c r="L132" t="n">
-        <v>71.27319235674454</v>
+        <v>69.47817597519185</v>
       </c>
       <c r="M132" t="n">
-        <v>80.58605972125731</v>
+        <v>78.55649864027747</v>
       </c>
       <c r="N132" t="n">
-        <v>80.48198678373227</v>
+        <v>78.45504678119097</v>
       </c>
     </row>
     <row r="133">
@@ -6538,43 +6538,43 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.10007372777078</v>
+        <v>2.047183340527445</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.400515239012432</v>
+        <v>-7.214133155557171</v>
       </c>
       <c r="D133" t="n">
-        <v>-5.622712983274866</v>
+        <v>-5.481104875373239</v>
       </c>
       <c r="E133" t="n">
-        <v>-4.924937915600423</v>
+        <v>-4.800903282882079</v>
       </c>
       <c r="F133" t="n">
-        <v>1.801372343189098</v>
+        <v>1.7560047546417</v>
       </c>
       <c r="G133" t="n">
-        <v>18.01680092924389</v>
+        <v>17.56304753695451</v>
       </c>
       <c r="H133" t="n">
-        <v>-5.569732909725814</v>
+        <v>-5.42945910574368</v>
       </c>
       <c r="I133" t="n">
-        <v>-3.798995721478387</v>
+        <v>-3.703317959222844</v>
       </c>
       <c r="J133" t="n">
-        <v>-3.113025372662091</v>
+        <v>-3.034623783574454</v>
       </c>
       <c r="K133" t="n">
-        <v>19.62342947142316</v>
+        <v>19.12921311603474</v>
       </c>
       <c r="L133" t="n">
-        <v>12.25232405527629</v>
+        <v>11.9437490965284</v>
       </c>
       <c r="M133" t="n">
-        <v>14.0230612827364</v>
+        <v>13.66989028127435</v>
       </c>
       <c r="N133" t="n">
-        <v>14.70903557686134</v>
+        <v>14.33858830286873</v>
       </c>
     </row>
     <row r="134">
@@ -6584,43 +6584,43 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.07126034842101581</v>
+        <v>0.0694656555141705</v>
       </c>
       <c r="C134" t="n">
-        <v>12.33402877553634</v>
+        <v>12.0233960822256</v>
       </c>
       <c r="D134" t="n">
-        <v>9.371064242487503</v>
+        <v>9.135053853845834</v>
       </c>
       <c r="E134" t="n">
-        <v>1.319874628681273</v>
+        <v>1.286633567045924</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.4204329533164521</v>
+        <v>-0.4098443432992358</v>
       </c>
       <c r="G134" t="n">
-        <v>0.626021587422793</v>
+        <v>0.6102552246786505</v>
       </c>
       <c r="H134" t="n">
-        <v>11.91459377092457</v>
+        <v>11.61452455427847</v>
       </c>
       <c r="I134" t="n">
-        <v>8.951389503830061</v>
+        <v>8.725948629558445</v>
       </c>
       <c r="J134" t="n">
-        <v>0.8997993286684312</v>
+        <v>0.8771378695466678</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1989805274816914</v>
+        <v>0.1939692000157933</v>
       </c>
       <c r="L134" t="n">
-        <v>12.53400724618381</v>
+        <v>12.21833809219409</v>
       </c>
       <c r="M134" t="n">
-        <v>9.570802980419943</v>
+        <v>9.329762168771198</v>
       </c>
       <c r="N134" t="n">
-        <v>1.519212939131672</v>
+        <v>1.480951539261177</v>
       </c>
     </row>
     <row r="135">
@@ -6630,43 +6630,43 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.7027805813514566</v>
+        <v>0.6850810422337368</v>
       </c>
       <c r="C135" t="n">
-        <v>1.854041121560247</v>
+        <v>1.807347069066918</v>
       </c>
       <c r="D135" t="n">
-        <v>1.408650715394402</v>
+        <v>1.37317382672969</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.9639415622767824</v>
+        <v>-0.9396646800728026</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.918228491831006</v>
+        <v>-0.8951028939681359</v>
       </c>
       <c r="G135" t="n">
-        <v>6.509123026163198</v>
+        <v>6.345190668496059</v>
       </c>
       <c r="H135" t="n">
-        <v>0.9456545542549537</v>
+        <v>0.9218382306128019</v>
       </c>
       <c r="I135" t="n">
-        <v>0.4978998538396513</v>
+        <v>0.4853602388110241</v>
       </c>
       <c r="J135" t="n">
-        <v>-1.878642821892289</v>
+        <v>-1.831329175219861</v>
       </c>
       <c r="K135" t="n">
-        <v>5.525724364409846</v>
+        <v>5.386558916278747</v>
       </c>
       <c r="L135" t="n">
-        <v>7.389607355870867</v>
+        <v>7.203499987610478</v>
       </c>
       <c r="M135" t="n">
-        <v>6.941852668577988</v>
+        <v>6.767022008600634</v>
       </c>
       <c r="N135" t="n">
-        <v>4.565311313126417</v>
+        <v>4.450333881598836</v>
       </c>
     </row>
     <row r="136">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.4670889114084369</v>
+        <v>0.4553252704110878</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.8732478622376676</v>
+        <v>-0.8512551021824331</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.6634703036266326</v>
+        <v>-0.6467607944226319</v>
       </c>
       <c r="E136" t="n">
-        <v>-1.026021005935869</v>
+        <v>-1.000180652044413</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8302066289844452</v>
+        <v>0.8092978630119375</v>
       </c>
       <c r="G136" t="n">
-        <v>3.177975161413989</v>
+        <v>3.097937810956152</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.0364999970055746</v>
+        <v>-0.0355807440524627</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1717061812108786</v>
+        <v>0.1673817585507479</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.193470073338733</v>
+        <v>-0.188597526740217</v>
       </c>
       <c r="K136" t="n">
-        <v>3.964867753936592</v>
+        <v>3.865012502141734</v>
       </c>
       <c r="L136" t="n">
-        <v>3.098161091641189</v>
+        <v>3.020133859686302</v>
       </c>
       <c r="M136" t="n">
-        <v>3.306367278579287</v>
+        <v>3.223096370791501</v>
       </c>
       <c r="N136" t="n">
-        <v>2.941191901527318</v>
+        <v>2.867117940898389</v>
       </c>
     </row>
     <row r="137">
@@ -6722,43 +6722,43 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.100910885242911</v>
+        <v>0.0983694431368613</v>
       </c>
       <c r="C137" t="n">
-        <v>5.492081712978134</v>
+        <v>5.353763555510494</v>
       </c>
       <c r="D137" t="n">
-        <v>4.172736377864561</v>
+        <v>4.067645951766104</v>
       </c>
       <c r="E137" t="n">
-        <v>4.07792937150556</v>
+        <v>3.975226661235076</v>
       </c>
       <c r="F137" t="n">
-        <v>-2.081606856764262</v>
+        <v>-2.02918155793463</v>
       </c>
       <c r="G137" t="n">
-        <v>0.8501556683312048</v>
+        <v>0.8287444855138829</v>
       </c>
       <c r="H137" t="n">
-        <v>3.411888038852576</v>
+        <v>3.325959589189349</v>
       </c>
       <c r="I137" t="n">
-        <v>2.092203219365048</v>
+        <v>2.039511050989878</v>
       </c>
       <c r="J137" t="n">
-        <v>1.996828983096801</v>
+        <v>1.946538816243082</v>
       </c>
       <c r="K137" t="n">
-        <v>-1.24080884530748</v>
+        <v>-1.209559056571287</v>
       </c>
       <c r="L137" t="n">
-        <v>4.25268604246581</v>
+        <v>4.145582082906684</v>
       </c>
       <c r="M137" t="n">
-        <v>2.933001224862565</v>
+        <v>2.85913354654404</v>
       </c>
       <c r="N137" t="n">
-        <v>2.837627178170728</v>
+        <v>2.766161496599169</v>
       </c>
     </row>
     <row r="138">
@@ -6768,43 +6768,43 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.140711219099843</v>
+        <v>-0.1371674050092909</v>
       </c>
       <c r="C138" t="n">
-        <v>2.279183255953589</v>
+        <v>2.221781992649433</v>
       </c>
       <c r="D138" t="n">
-        <v>1.73166230601839</v>
+        <v>1.68805036576655</v>
       </c>
       <c r="E138" t="n">
-        <v>2.195153174978599</v>
+        <v>2.139868210480568</v>
       </c>
       <c r="F138" t="n">
-        <v>1.426787299743118</v>
+        <v>1.390853640938963</v>
       </c>
       <c r="G138" t="n">
-        <v>-9.480586578994124</v>
+        <v>-9.241817868721636</v>
       </c>
       <c r="H138" t="n">
-        <v>3.703999998690652</v>
+        <v>3.610714705089071</v>
       </c>
       <c r="I138" t="n">
-        <v>3.156952429402312</v>
+        <v>3.077444536754602</v>
       </c>
       <c r="J138" t="n">
-        <v>3.621234249822721</v>
+        <v>3.530033412804841</v>
       </c>
       <c r="K138" t="n">
-        <v>-8.040750862288302</v>
+        <v>-7.838244435390118</v>
       </c>
       <c r="L138" t="n">
-        <v>-5.76353815240374</v>
+        <v>-5.61838336057843</v>
       </c>
       <c r="M138" t="n">
-        <v>-6.310585724319447</v>
+        <v>-6.151653531474097</v>
       </c>
       <c r="N138" t="n">
-        <v>-5.846304168246509</v>
+        <v>-5.699064913113733</v>
       </c>
     </row>
     <row r="139">
@@ -6814,43 +6814,43 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0255770175446565</v>
+        <v>0.0249328599874347</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.08402304864133742</v>
+        <v>-0.08190692694463707</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.06383845870615695</v>
+        <v>-0.06223068619925048</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.06223003059178608</v>
+        <v>-0.06066276637023037</v>
       </c>
       <c r="F139" t="n">
-        <v>0.02242678941000519</v>
+        <v>0.02186197039397043</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2164366269307698</v>
+        <v>0.2109856673474786</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.06123807193511628</v>
+        <v>-0.05969579020669252</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.04113952819572403</v>
+        <v>-0.04010342858240724</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.03967487098679814</v>
+        <v>-0.03867565878649664</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2364916112230429</v>
+        <v>0.2305355665699513</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1528267478899023</v>
+        <v>0.1489778040313375</v>
       </c>
       <c r="M139" t="n">
-        <v>0.17292529210687</v>
+        <v>0.1685701661211704</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1743899973661217</v>
+        <v>0.1699979827572586</v>
       </c>
     </row>
     <row r="140">
@@ -6860,43 +6860,43 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1075011063006614</v>
+        <v>0.1047936893818447</v>
       </c>
       <c r="C140" t="n">
-        <v>8.866584365450736</v>
+        <v>8.643279309817197</v>
       </c>
       <c r="D140" t="n">
-        <v>6.736592982892641</v>
+        <v>6.566931791071466</v>
       </c>
       <c r="E140" t="n">
-        <v>8.110803862768144</v>
+        <v>7.906533150038495</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.3466132972546018</v>
+        <v>-0.3378838363442246</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4862443039910921</v>
+        <v>0.4739982341541746</v>
       </c>
       <c r="H140" t="n">
-        <v>8.521476542027822</v>
+        <v>8.306863031924408</v>
       </c>
       <c r="I140" t="n">
-        <v>6.391123504275797</v>
+        <v>6.230162966276046</v>
       </c>
       <c r="J140" t="n">
-        <v>7.764730109967956</v>
+        <v>7.569175269713788</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1296622262232583</v>
+        <v>0.1263966811782935</v>
       </c>
       <c r="L140" t="n">
-        <v>8.997752057149899</v>
+        <v>8.771143541301582</v>
       </c>
       <c r="M140" t="n">
-        <v>6.867399021405209</v>
+        <v>6.694443477610002</v>
       </c>
       <c r="N140" t="n">
-        <v>8.241005829054512</v>
+        <v>8.033455977918594</v>
       </c>
     </row>
     <row r="141">
@@ -6906,43 +6906,43 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.3967608540359397</v>
+        <v>-0.3867684261818793</v>
       </c>
       <c r="C141" t="n">
-        <v>2.429452285715776</v>
+        <v>2.368266494721138</v>
       </c>
       <c r="D141" t="n">
-        <v>1.845832684342054</v>
+        <v>1.799345361458926</v>
       </c>
       <c r="E141" t="n">
-        <v>2.254769116893192</v>
+        <v>2.197982724034793</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.7349270952397993</v>
+        <v>-0.7164179457043145</v>
       </c>
       <c r="G141" t="n">
-        <v>-10.06227287657502</v>
+        <v>-9.808854388475037</v>
       </c>
       <c r="H141" t="n">
-        <v>1.688968846883332</v>
+        <v>1.646432142018017</v>
       </c>
       <c r="I141" t="n">
-        <v>1.106684028271894</v>
+        <v>1.078812174994891</v>
       </c>
       <c r="J141" t="n">
-        <v>1.517850692206676</v>
+        <v>1.479623600544712</v>
       </c>
       <c r="K141" t="n">
-        <v>-10.76040758886887</v>
+        <v>-10.48940656793066</v>
       </c>
       <c r="L141" t="n">
-        <v>-8.33651161590673</v>
+        <v>-8.126556450145998</v>
       </c>
       <c r="M141" t="n">
-        <v>-8.918796441926506</v>
+        <v>-8.694176424390884</v>
       </c>
       <c r="N141" t="n">
-        <v>-8.50763052336746</v>
+        <v>-8.293365725444502</v>
       </c>
     </row>
     <row r="142">
@@ -6952,43 +6952,43 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.1478062264147737</v>
+        <v>-0.1440837244622581</v>
       </c>
       <c r="C142" t="n">
-        <v>1.098915710308392</v>
+        <v>1.071239502231787</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8349266817671119</v>
+        <v>0.8138990411969256</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9119191142957184</v>
+        <v>0.8889524181974353</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.6583504465896651</v>
+        <v>-0.6417698810592769</v>
       </c>
       <c r="G142" t="n">
-        <v>-3.912877767367841</v>
+        <v>-3.81433188413754</v>
       </c>
       <c r="H142" t="n">
-        <v>0.4384953463598735</v>
+        <v>0.4274518347123121</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1750035674872197</v>
+        <v>0.1705961001059724</v>
       </c>
       <c r="J142" t="n">
-        <v>0.252826833202816</v>
+        <v>0.2464593857476272</v>
       </c>
       <c r="K142" t="n">
-        <v>-4.557521863573568</v>
+        <v>-4.442740609445767</v>
       </c>
       <c r="L142" t="n">
-        <v>-3.460676059135527</v>
+        <v>-3.373518882475016</v>
       </c>
       <c r="M142" t="n">
-        <v>-3.724167840768095</v>
+        <v>-3.63037461977176</v>
       </c>
       <c r="N142" t="n">
-        <v>-3.646344852728954</v>
+        <v>-3.554511604813277</v>
       </c>
     </row>
     <row r="143">
@@ -6998,43 +6998,43 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-2.334846665777574</v>
+        <v>-2.276043518690986</v>
       </c>
       <c r="C143" t="n">
-        <v>19.44492161570446</v>
+        <v>18.95520098324714</v>
       </c>
       <c r="D143" t="n">
-        <v>14.77372989532183</v>
+        <v>14.401653293982</v>
       </c>
       <c r="E143" t="n">
-        <v>12.57592634983268</v>
+        <v>12.25920146261057</v>
       </c>
       <c r="F143" t="n">
-        <v>-4.434253672377247</v>
+        <v>-4.322576929429673</v>
       </c>
       <c r="G143" t="n">
-        <v>-29.83591072862938</v>
+        <v>-29.08449288489974</v>
       </c>
       <c r="H143" t="n">
-        <v>14.97797013511585</v>
+        <v>14.60074974037938</v>
       </c>
       <c r="I143" t="n">
-        <v>10.3146333052805</v>
+        <v>10.05485911612935</v>
       </c>
       <c r="J143" t="n">
-        <v>8.129954160188223</v>
+        <v>7.925201146940752</v>
       </c>
       <c r="K143" t="n">
-        <v>-34.053649662283</v>
+        <v>-33.19600800243572</v>
       </c>
       <c r="L143" t="n">
-        <v>-14.64142567330986</v>
+        <v>-14.2726811557172</v>
       </c>
       <c r="M143" t="n">
-        <v>-19.30476254674153</v>
+        <v>-18.81857182246557</v>
       </c>
       <c r="N143" t="n">
-        <v>-21.48944607819913</v>
+        <v>-20.94823406754882</v>
       </c>
     </row>
     <row r="144">
@@ -7044,43 +7044,43 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0985428141882938</v>
+        <v>0.0960610119860448</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1523735892885859</v>
+        <v>0.1485360582359569</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1157693662036519</v>
+        <v>0.1128537130394525</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.09692347849593885</v>
+        <v>-0.09448245928655019</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1284504051047162</v>
+        <v>0.12521537979217</v>
       </c>
       <c r="G144" t="n">
-        <v>0.749816587750447</v>
+        <v>0.7309324461304795</v>
       </c>
       <c r="H144" t="n">
-        <v>0.2822040139406941</v>
+        <v>0.275096701763235</v>
       </c>
       <c r="I144" t="n">
-        <v>0.2452682731458332</v>
+        <v>0.2390911881351285</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03202150969491763</v>
+        <v>0.03121504750957407</v>
       </c>
       <c r="K144" t="n">
-        <v>0.869128931679757</v>
+        <v>0.8472399069502665</v>
       </c>
       <c r="L144" t="n">
-        <v>1.022882532856252</v>
+        <v>0.9971212214547525</v>
       </c>
       <c r="M144" t="n">
-        <v>0.985946793901455</v>
+        <v>0.9611157096203684</v>
       </c>
       <c r="N144" t="n">
-        <v>0.7727002155782151</v>
+        <v>0.7532397494600463</v>
       </c>
     </row>
     <row r="145">
@@ -7090,43 +7090,43 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2.877475277170485</v>
+        <v>2.805006020648611</v>
       </c>
       <c r="C145" t="n">
-        <v>-11.3158226906538</v>
+        <v>-11.03083353233463</v>
       </c>
       <c r="D145" t="n">
-        <v>-8.597458569339553</v>
+        <v>-8.380931450778064</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.686272851092618</v>
+        <v>-7.492693958039303</v>
       </c>
       <c r="F145" t="n">
-        <v>3.358411024137853</v>
+        <v>3.273829393864574</v>
       </c>
       <c r="G145" t="n">
-        <v>22.52035179980501</v>
+        <v>21.95317641362836</v>
       </c>
       <c r="H145" t="n">
-        <v>-7.917114744184857</v>
+        <v>-7.717722094711384</v>
       </c>
       <c r="I145" t="n">
-        <v>-5.208431024451555</v>
+        <v>-5.07725661368177</v>
       </c>
       <c r="J145" t="n">
-        <v>-4.313419874848994</v>
+        <v>-4.204786332841863</v>
       </c>
       <c r="K145" t="n">
-        <v>25.61192910978426</v>
+        <v>24.96689230428922</v>
       </c>
       <c r="L145" t="n">
-        <v>14.33640311780467</v>
+        <v>13.97534059768918</v>
       </c>
       <c r="M145" t="n">
-        <v>17.0450868912664</v>
+        <v>16.61580613109408</v>
       </c>
       <c r="N145" t="n">
-        <v>17.94010344664477</v>
+        <v>17.48828168156525</v>
       </c>
     </row>
     <row r="146">
@@ -7136,43 +7136,43 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.585439431986264</v>
+        <v>2.520325102454083</v>
       </c>
       <c r="C146" t="n">
-        <v>-5.987712648331299</v>
+        <v>-5.836912018579967</v>
       </c>
       <c r="D146" t="n">
-        <v>-4.549303468819566</v>
+        <v>-4.434729195082648</v>
       </c>
       <c r="E146" t="n">
-        <v>-3.936170400278051</v>
+        <v>-3.837037891750624</v>
       </c>
       <c r="F146" t="n">
-        <v>-1.175198902406932</v>
+        <v>-1.145601501032732</v>
       </c>
       <c r="G146" t="n">
-        <v>24.32616837583186</v>
+        <v>23.71351347303944</v>
       </c>
       <c r="H146" t="n">
-        <v>-7.126704375368602</v>
+        <v>-6.947218222479039</v>
       </c>
       <c r="I146" t="n">
-        <v>-5.696993130523071</v>
+        <v>-5.553514276037408</v>
       </c>
       <c r="J146" t="n">
-        <v>-5.098393068711624</v>
+        <v>-4.969989965450513</v>
       </c>
       <c r="K146" t="n">
-        <v>22.91121679445582</v>
+        <v>22.33419746772909</v>
       </c>
       <c r="L146" t="n">
-        <v>16.95971112053628</v>
+        <v>16.53258055038604</v>
       </c>
       <c r="M146" t="n">
-        <v>18.3894224136572</v>
+        <v>17.92628454388724</v>
       </c>
       <c r="N146" t="n">
-        <v>18.98802733261074</v>
+        <v>18.50981358928904</v>
       </c>
     </row>
     <row r="147">
@@ -7182,43 +7182,43 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.6727949538935287</v>
+        <v>0.6558506032375339</v>
       </c>
       <c r="C147" t="n">
-        <v>-2.032307921835532</v>
+        <v>-1.981124217395937</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.544093048802684</v>
+        <v>-1.505205043009857</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.956593292547117</v>
+        <v>-0.9325014766226831</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5713545153926853</v>
+        <v>0.5569649436492091</v>
       </c>
       <c r="G147" t="n">
-        <v>6.014638181191731</v>
+        <v>5.863159431505425</v>
       </c>
       <c r="H147" t="n">
-        <v>-1.451531408548825</v>
+        <v>-1.414974569006099</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.9655799521252526</v>
+        <v>-0.9412618070492147</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.3818620417995792</v>
+        <v>-0.3722448407474293</v>
       </c>
       <c r="K147" t="n">
-        <v>6.523603150499033</v>
+        <v>6.359306110690823</v>
       </c>
       <c r="L147" t="n">
-        <v>4.500717174263341</v>
+        <v>4.387366547058361</v>
       </c>
       <c r="M147" t="n">
-        <v>4.986668643249424</v>
+        <v>4.861079321261371</v>
       </c>
       <c r="N147" t="n">
-        <v>5.570387817522846</v>
+        <v>5.430097519678362</v>
       </c>
     </row>
     <row r="148">
@@ -7228,43 +7228,43 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>13.8298709847905</v>
+        <v>13.48156548377964</v>
       </c>
       <c r="C148" t="n">
-        <v>-26.03947237628269</v>
+        <v>-25.38366788742998</v>
       </c>
       <c r="D148" t="n">
-        <v>-19.78409268532078</v>
+        <v>-19.28583002456392</v>
       </c>
       <c r="E148" t="n">
-        <v>-26.18129576020694</v>
+        <v>-25.52191944737648</v>
       </c>
       <c r="F148" t="n">
-        <v>9.892876771568902</v>
+        <v>9.643724526826386</v>
       </c>
       <c r="G148" t="n">
-        <v>81.11090310300642</v>
+        <v>79.06812383385741</v>
       </c>
       <c r="H148" t="n">
-        <v>-15.95291844566237</v>
+        <v>-15.55114396360737</v>
       </c>
       <c r="I148" t="n">
-        <v>-9.744065203079565</v>
+        <v>-9.498660779844268</v>
       </c>
       <c r="J148" t="n">
-        <v>-16.21900732905716</v>
+        <v>-15.81053139462085</v>
       </c>
       <c r="K148" t="n">
-        <v>89.72130983200569</v>
+        <v>87.46167734470669</v>
       </c>
       <c r="L148" t="n">
-        <v>63.8755135398231</v>
+        <v>62.26680780639427</v>
       </c>
       <c r="M148" t="n">
-        <v>70.08436704063804</v>
+        <v>68.31929124188591</v>
       </c>
       <c r="N148" t="n">
-        <v>63.6094508961809</v>
+        <v>62.00744595428482</v>
       </c>
     </row>
     <row r="149">
@@ -7274,43 +7274,43 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0950065121479771</v>
+        <v>0.0926137717638197</v>
       </c>
       <c r="C149" t="n">
-        <v>0.765461265478937</v>
+        <v>0.7461831124238392</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5815769384425442</v>
+        <v>0.5669299148265348</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6488962477171973</v>
+        <v>0.6325537863223107</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.2364127051507416</v>
+        <v>-0.2304586477482236</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.5039138527323292</v>
+        <v>-0.4912227750545063</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5303790565695873</v>
+        <v>0.5170214523499026</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3461751086496745</v>
+        <v>0.3374566835256574</v>
       </c>
       <c r="J149" t="n">
-        <v>0.4129603770710172</v>
+        <v>0.4025599639947464</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.7491366910949284</v>
+        <v>-0.7302696726820747</v>
       </c>
       <c r="L149" t="n">
-        <v>0.01765506324085087</v>
+        <v>0.01721042021748165</v>
       </c>
       <c r="M149" t="n">
-        <v>-0.1665488829050956</v>
+        <v>-0.1623543468774745</v>
       </c>
       <c r="N149" t="n">
-        <v>-0.09976343599953963</v>
+        <v>-0.09725089241929941</v>
       </c>
     </row>
     <row r="150">
@@ -7320,43 +7320,43 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.5463541318871892</v>
+        <v>0.5325941951643087</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.87680754579298</v>
+        <v>-1.829540120575689</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.425948033889454</v>
+        <v>-1.390035512007976</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2478514534040186</v>
+        <v>0.2416093109611066</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2680290416553149</v>
+        <v>0.2612787263601193</v>
       </c>
       <c r="G150" t="n">
-        <v>-6.209131716363203</v>
+        <v>-6.052754644177302</v>
       </c>
       <c r="H150" t="n">
-        <v>-1.601127216846891</v>
+        <v>-1.560802804706005</v>
       </c>
       <c r="I150" t="n">
-        <v>-1.152105749372068</v>
+        <v>-1.123089949391444</v>
       </c>
       <c r="J150" t="n">
-        <v>0.5186226281604978</v>
+        <v>0.5055611097605306</v>
       </c>
       <c r="K150" t="n">
-        <v>-5.991767124690898</v>
+        <v>-5.840864382893741</v>
       </c>
       <c r="L150" t="n">
-        <v>-7.860923425659381</v>
+        <v>-7.662945955356629</v>
       </c>
       <c r="M150" t="n">
-        <v>-7.411901947982987</v>
+        <v>-7.225233090097421</v>
       </c>
       <c r="N150" t="n">
-        <v>-5.741172544040931</v>
+        <v>-5.596581030386096</v>
       </c>
     </row>
     <row r="151">
@@ -7366,43 +7366,43 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.2163196944911927</v>
+        <v>0.2108716798530857</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.4304083557555992</v>
+        <v>-0.4195685150835075</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.3270127243654006</v>
+        <v>-0.3187769041670575</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.3965788238305764</v>
+        <v>-0.3865909804098738</v>
       </c>
       <c r="F151" t="n">
-        <v>0.2844388277496547</v>
+        <v>0.2772752317540566</v>
       </c>
       <c r="G151" t="n">
-        <v>-5.210191096407356</v>
+        <v>-5.078972358199874</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.1429401299788771</v>
+        <v>-0.1393401807355614</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.040272241248765</v>
+        <v>-0.03925798426976579</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.1110542947745844</v>
+        <v>-0.1082573907526013</v>
       </c>
       <c r="K151" t="n">
-        <v>-4.945812002266775</v>
+        <v>-4.82125165537348</v>
       </c>
       <c r="L151" t="n">
-        <v>-5.37319097680914</v>
+        <v>-5.237867084253475</v>
       </c>
       <c r="M151" t="n">
-        <v>-5.270523084039895</v>
+        <v>-5.137784883850271</v>
       </c>
       <c r="N151" t="n">
-        <v>-5.341304731176199</v>
+        <v>-5.206783894178518</v>
       </c>
     </row>
     <row r="152">
@@ -7412,43 +7412,43 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.367960018808822</v>
+        <v>1.333507925926826</v>
       </c>
       <c r="C152" t="n">
-        <v>-6.736379396219858</v>
+        <v>-6.566723583582131</v>
       </c>
       <c r="D152" t="n">
-        <v>-5.118120383256532</v>
+        <v>-4.989220447292954</v>
       </c>
       <c r="E152" t="n">
-        <v>-3.655096369804645</v>
+        <v>-3.563042714804692</v>
       </c>
       <c r="F152" t="n">
-        <v>1.480688310314298</v>
+        <v>1.443397153778412</v>
       </c>
       <c r="G152" t="n">
-        <v>7.445399859481572</v>
+        <v>7.257887356209861</v>
       </c>
       <c r="H152" t="n">
-        <v>-5.236533813185436</v>
+        <v>-5.104651633274452</v>
       </c>
       <c r="I152" t="n">
-        <v>-3.622876890962559</v>
+        <v>-3.531634684003789</v>
       </c>
       <c r="J152" t="n">
-        <v>-2.16754231394216</v>
+        <v>-2.112952729379142</v>
       </c>
       <c r="K152" t="n">
-        <v>8.799234655002808</v>
+        <v>8.577625802802135</v>
       </c>
       <c r="L152" t="n">
-        <v>2.08201242517588</v>
+        <v>2.029576912099929</v>
       </c>
       <c r="M152" t="n">
-        <v>3.695669372941377</v>
+        <v>3.602593886269923</v>
       </c>
       <c r="N152" t="n">
-        <v>5.151006519883236</v>
+        <v>5.021278346092519</v>
       </c>
     </row>
     <row r="153">
@@ -7458,43 +7458,43 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.373558444545717</v>
+        <v>2.3137803407503</v>
       </c>
       <c r="C153" t="n">
-        <v>7.127314362674092</v>
+        <v>6.947812847245405</v>
       </c>
       <c r="D153" t="n">
-        <v>5.415142285179146</v>
+        <v>5.278761848314719</v>
       </c>
       <c r="E153" t="n">
-        <v>5.025046278505926</v>
+        <v>4.898490415218221</v>
       </c>
       <c r="F153" t="n">
-        <v>5.268762010546901</v>
+        <v>5.136068163018699</v>
       </c>
       <c r="G153" t="n">
-        <v>-54.18484364397089</v>
+        <v>-52.82019757219164</v>
       </c>
       <c r="H153" t="n">
-        <v>12.42931631138727</v>
+        <v>12.11628380010635</v>
       </c>
       <c r="I153" t="n">
-        <v>10.70915910918897</v>
+        <v>10.43944878195358</v>
       </c>
       <c r="J153" t="n">
-        <v>10.30572109944197</v>
+        <v>10.04617136432391</v>
       </c>
       <c r="K153" t="n">
-        <v>-49.1361861884676</v>
+        <v>-47.89869062781064</v>
       </c>
       <c r="L153" t="n">
-        <v>-41.97563207211629</v>
+        <v>-40.91847517056567</v>
       </c>
       <c r="M153" t="n">
-        <v>-43.69578922999538</v>
+        <v>-42.59531014551541</v>
       </c>
       <c r="N153" t="n">
-        <v>-44.09922278065108</v>
+        <v>-42.98858321635606</v>
       </c>
     </row>
     <row r="154">
@@ -7504,43 +7504,43 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>7.285670912075997</v>
+        <v>7.102181184657598</v>
       </c>
       <c r="C154" t="n">
-        <v>6.044096228877343</v>
+        <v>5.89187557783351</v>
       </c>
       <c r="D154" t="n">
-        <v>4.592142201007956</v>
+        <v>4.476489033180563</v>
       </c>
       <c r="E154" t="n">
-        <v>-7.22965276547801</v>
+        <v>-7.047573855892837</v>
       </c>
       <c r="F154" t="n">
-        <v>-12.92257182383577</v>
+        <v>-12.59711666533141</v>
       </c>
       <c r="G154" t="n">
-        <v>67.3401650511243</v>
+        <v>65.64420201921459</v>
       </c>
       <c r="H154" t="n">
-        <v>-6.776445138883648</v>
+        <v>-6.60578026993678</v>
       </c>
       <c r="I154" t="n">
-        <v>-8.252909618945232</v>
+        <v>-8.04505997068855</v>
       </c>
       <c r="J154" t="n">
-        <v>-20.11565805086064</v>
+        <v>-19.60904491157153</v>
       </c>
       <c r="K154" t="n">
-        <v>53.74197921071279</v>
+        <v>52.3884866860979</v>
       </c>
       <c r="L154" t="n">
-        <v>59.8881053293732</v>
+        <v>58.37982252946288</v>
       </c>
       <c r="M154" t="n">
-        <v>58.41164098534998</v>
+        <v>56.94054296132335</v>
       </c>
       <c r="N154" t="n">
-        <v>46.54890624067789</v>
+        <v>45.37657136297026</v>
       </c>
     </row>
     <row r="155">
@@ -7550,43 +7550,43 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>7.644206411084259</v>
+        <v>7.451686961931681</v>
       </c>
       <c r="C155" t="n">
-        <v>-24.20309919159795</v>
+        <v>-23.59354378799253</v>
       </c>
       <c r="D155" t="n">
-        <v>-18.38886559447808</v>
+        <v>-17.92574174820723</v>
       </c>
       <c r="E155" t="n">
-        <v>-20.85558476452544</v>
+        <v>-20.33033656023842</v>
       </c>
       <c r="F155" t="n">
-        <v>6.58662668830425</v>
+        <v>6.420742399783823</v>
       </c>
       <c r="G155" t="n">
-        <v>72.10149263221406</v>
+        <v>70.28561549622977</v>
       </c>
       <c r="H155" t="n">
-        <v>-17.50942102157492</v>
+        <v>-17.06844599960714</v>
       </c>
       <c r="I155" t="n">
-        <v>-11.72090406168006</v>
+        <v>-11.42571292316594</v>
       </c>
       <c r="J155" t="n">
-        <v>-14.23059206009886</v>
+        <v>-13.87219439300385</v>
       </c>
       <c r="K155" t="n">
-        <v>77.97925763032497</v>
+        <v>76.01534889775222</v>
       </c>
       <c r="L155" t="n">
-        <v>53.88320932628622</v>
+        <v>52.52615991916559</v>
       </c>
       <c r="M155" t="n">
-        <v>59.6717264289141</v>
+        <v>58.16889313474506</v>
       </c>
       <c r="N155" t="n">
-        <v>57.16205279130219</v>
+        <v>55.72242566403692</v>
       </c>
     </row>
     <row r="156">
@@ -7596,43 +7596,43 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1.405180721718444</v>
+        <v>-1.369791224894707</v>
       </c>
       <c r="C156" t="n">
-        <v>12.24400506109536</v>
+        <v>11.93563961633638</v>
       </c>
       <c r="D156" t="n">
-        <v>9.302666638855635</v>
+        <v>9.068378844851846</v>
       </c>
       <c r="E156" t="n">
-        <v>13.65498983899482</v>
+        <v>13.31108872217314</v>
       </c>
       <c r="F156" t="n">
-        <v>-2.133780990694413</v>
+        <v>-2.080041685546259</v>
       </c>
       <c r="G156" t="n">
-        <v>-52.13292894947826</v>
+        <v>-50.81996037899189</v>
       </c>
       <c r="H156" t="n">
-        <v>10.09054554914536</v>
+        <v>9.836415013377298</v>
       </c>
       <c r="I156" t="n">
-        <v>7.153934435525088</v>
+        <v>6.973762493176189</v>
       </c>
       <c r="J156" t="n">
-        <v>11.51415629329005</v>
+        <v>11.22417210031658</v>
       </c>
       <c r="K156" t="n">
-        <v>-54.13640487933861</v>
+        <v>-52.77297873854803</v>
       </c>
       <c r="L156" t="n">
-        <v>-41.91207823027867</v>
+        <v>-40.85652193315502</v>
       </c>
       <c r="M156" t="n">
-        <v>-44.84868937013655</v>
+        <v>-43.71917447893294</v>
       </c>
       <c r="N156" t="n">
-        <v>-40.48847015221768</v>
+        <v>-39.46876744515408</v>
       </c>
     </row>
     <row r="157">
@@ -7642,43 +7642,43 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.2223596776753165</v>
+        <v>0.2167595459732574</v>
       </c>
       <c r="C157" t="n">
-        <v>3.272408831610332</v>
+        <v>3.189993167801185</v>
       </c>
       <c r="D157" t="n">
-        <v>2.486288458279556</v>
+        <v>2.423671247455901</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7306404696922039</v>
+        <v>0.712239278883206</v>
       </c>
       <c r="F157" t="n">
-        <v>0.008372939716855571</v>
+        <v>0.008162067108844984</v>
       </c>
       <c r="G157" t="n">
-        <v>0.8337393922580751</v>
+        <v>0.8127416535913665</v>
       </c>
       <c r="H157" t="n">
-        <v>3.283895754871004</v>
+        <v>3.201190792733204</v>
       </c>
       <c r="I157" t="n">
-        <v>2.49702731917028</v>
+        <v>2.434139649979592</v>
       </c>
       <c r="J157" t="n">
-        <v>0.7401294251887691</v>
+        <v>0.7214892548981886</v>
       </c>
       <c r="K157" t="n">
-        <v>0.8214924993237331</v>
+        <v>0.8008031988329127</v>
       </c>
       <c r="L157" t="n">
-        <v>4.097015297194512</v>
+        <v>3.993831907609184</v>
       </c>
       <c r="M157" t="n">
-        <v>3.3101468656457</v>
+        <v>3.226780768902918</v>
       </c>
       <c r="N157" t="n">
-        <v>1.55324938940087</v>
+        <v>1.514130781037492</v>
       </c>
     </row>
     <row r="158">
@@ -7688,43 +7688,43 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>30.33416929863131</v>
+        <v>29.5702028056013</v>
       </c>
       <c r="C158" t="n">
-        <v>96.35799916406926</v>
+        <v>93.93122155984179</v>
       </c>
       <c r="D158" t="n">
-        <v>73.21022326744104</v>
+        <v>71.36642273435395</v>
       </c>
       <c r="E158" t="n">
-        <v>39.24221075707081</v>
+        <v>38.25389511092003</v>
       </c>
       <c r="F158" t="n">
-        <v>35.31592829600334</v>
+        <v>34.42649613048779</v>
       </c>
       <c r="G158" t="n">
-        <v>-669.6377971714929</v>
+        <v>-652.7729595532585</v>
       </c>
       <c r="H158" t="n">
-        <v>132.0987351635144</v>
+        <v>128.7718266056089</v>
       </c>
       <c r="I158" t="n">
-        <v>108.8489090624014</v>
+        <v>106.1075477115139</v>
       </c>
       <c r="J158" t="n">
-        <v>74.71038523348619</v>
+        <v>72.82880309956164</v>
       </c>
       <c r="K158" t="n">
-        <v>-637.134813655272</v>
+        <v>-621.0885641475425</v>
       </c>
       <c r="L158" t="n">
-        <v>-540.352009145538</v>
+        <v>-526.7432359708178</v>
       </c>
       <c r="M158" t="n">
-        <v>-563.6018346802499</v>
+        <v>-549.4075143127765</v>
       </c>
       <c r="N158" t="n">
-        <v>-597.7403015218048</v>
+        <v>-582.6862033725959</v>
       </c>
     </row>
     <row r="159">
@@ -7734,43 +7734,43 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.030017135844681</v>
+        <v>1.004076139363607</v>
       </c>
       <c r="C159" t="n">
-        <v>-3.568459192551248</v>
+        <v>-3.478587496114943</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.711219581911436</v>
+        <v>-2.642937477482072</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.796815007637794</v>
+        <v>-0.7767472101324175</v>
       </c>
       <c r="F159" t="n">
-        <v>1.321247655130548</v>
+        <v>1.287972013804192</v>
       </c>
       <c r="G159" t="n">
-        <v>-10.78319253399812</v>
+        <v>-10.5116176738869</v>
       </c>
       <c r="H159" t="n">
-        <v>-2.232786905920882</v>
+        <v>-2.176554135364127</v>
       </c>
       <c r="I159" t="n">
-        <v>-1.379012478662259</v>
+        <v>-1.344282029418812</v>
       </c>
       <c r="J159" t="n">
-        <v>0.5296022690225055</v>
+        <v>0.516264228208442</v>
       </c>
       <c r="K159" t="n">
-        <v>-9.55746031220068</v>
+        <v>-9.316755535844241</v>
       </c>
       <c r="L159" t="n">
-        <v>-13.11149495331209</v>
+        <v>-12.78128176305622</v>
       </c>
       <c r="M159" t="n">
-        <v>-12.25772050682086</v>
+        <v>-11.94900963836268</v>
       </c>
       <c r="N159" t="n">
-        <v>-10.34910382409199</v>
+        <v>-10.08846149442543</v>
       </c>
     </row>
     <row r="160">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0104911973125559</v>
+        <v>0.0102269763563248</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0008685980936841073</v>
+        <v>0.0008467224381173977</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0006599375341949446</v>
+        <v>0.0006433169978403569</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.01996916389264356</v>
+        <v>-0.01946624021085029</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01548572428526998</v>
+        <v>0.01509571609490946</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05621295219464727</v>
+        <v>0.05479722817965148</v>
       </c>
       <c r="H160" t="n">
-        <v>0.01650124387177049</v>
+        <v>0.01608565980591923</v>
       </c>
       <c r="I160" t="n">
-        <v>0.01625728882900419</v>
+        <v>0.01584784877443747</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.004430784639206797</v>
+        <v>-0.004319195263909774</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07072580794926812</v>
+        <v>0.06894457745194352</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07174132672032169</v>
+        <v>0.06993452036804339</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07149737187344755</v>
+        <v>0.06969670952752026</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05080931811454974</v>
+        <v>0.04952968470210684</v>
       </c>
     </row>
     <row r="161">
@@ -7826,43 +7826,43 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>6.234917988928787</v>
+        <v>6.077891489094934</v>
       </c>
       <c r="C161" t="n">
-        <v>-5.813354862362253</v>
+        <v>-5.666945435975286</v>
       </c>
       <c r="D161" t="n">
-        <v>-4.416831099634361</v>
+        <v>-4.305593144433603</v>
       </c>
       <c r="E161" t="n">
-        <v>13.86082459879464</v>
+        <v>13.51173953056687</v>
       </c>
       <c r="F161" t="n">
-        <v>2.725656649060401</v>
+        <v>2.65701094688584</v>
       </c>
       <c r="G161" t="n">
-        <v>42.2181917333461</v>
+        <v>41.15492596321512</v>
       </c>
       <c r="H161" t="n">
-        <v>-3.000382778158434</v>
+        <v>-2.92481809444446</v>
       </c>
       <c r="I161" t="n">
-        <v>-1.624834524911353</v>
+        <v>-1.583913043873581</v>
       </c>
       <c r="J161" t="n">
-        <v>16.61777409255606</v>
+        <v>16.19925521140681</v>
       </c>
       <c r="K161" t="n">
-        <v>44.36567266786273</v>
+        <v>43.24832255930005</v>
       </c>
       <c r="L161" t="n">
-        <v>38.63963275602381</v>
+        <v>37.66649304555484</v>
       </c>
       <c r="M161" t="n">
-        <v>40.01518112568966</v>
+        <v>39.00739820961248</v>
       </c>
       <c r="N161" t="n">
-        <v>58.25780145640068</v>
+        <v>56.79057788313826</v>
       </c>
     </row>
     <row r="162">
@@ -7872,43 +7872,43 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>8.203497765778337</v>
+        <v>7.996892555759154</v>
       </c>
       <c r="C162" t="n">
-        <v>-7.293153303437197</v>
+        <v>-7.109475131884022</v>
       </c>
       <c r="D162" t="n">
-        <v>-5.541142264267808</v>
+        <v>-5.401588516105534</v>
       </c>
       <c r="E162" t="n">
-        <v>-15.72744615310784</v>
+        <v>-15.3313501940057</v>
       </c>
       <c r="F162" t="n">
-        <v>-9.222103654308007</v>
+        <v>-8.989844840236616</v>
       </c>
       <c r="G162" t="n">
-        <v>25.60875614221757</v>
+        <v>24.96379924795662</v>
       </c>
       <c r="H162" t="n">
-        <v>-16.40037301245692</v>
+        <v>-15.98732938065798</v>
       </c>
       <c r="I162" t="n">
-        <v>-14.67596017834291</v>
+        <v>-14.30634590874092</v>
       </c>
       <c r="J162" t="n">
-        <v>-24.90837672670403</v>
+        <v>-24.28105889816442</v>
       </c>
       <c r="K162" t="n">
-        <v>15.62592665464128</v>
+        <v>15.23238746557803</v>
       </c>
       <c r="L162" t="n">
-        <v>8.447656658860858</v>
+        <v>8.234902303583922</v>
       </c>
       <c r="M162" t="n">
-        <v>10.17206964615107</v>
+        <v>9.915885924819442</v>
       </c>
       <c r="N162" t="n">
-        <v>-0.06033149068917965</v>
+        <v>-0.05881204122255923</v>
       </c>
     </row>
     <row r="163">
@@ -7918,43 +7918,43 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0254663060829513</v>
+        <v>0.0248249367954957</v>
       </c>
       <c r="C163" t="n">
-        <v>6.135427893559549</v>
+        <v>5.980907053218203</v>
       </c>
       <c r="D163" t="n">
-        <v>4.661533550151435</v>
+        <v>4.544132760191064</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5536364280164912</v>
+        <v>0.5396930865601453</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04222925492602459</v>
+        <v>0.04116571052922582</v>
       </c>
       <c r="G163" t="n">
-        <v>0.210857160226935</v>
+        <v>0.2055467195933719</v>
       </c>
       <c r="H163" t="n">
-        <v>6.178013785349227</v>
+        <v>6.022420418706507</v>
       </c>
       <c r="I163" t="n">
-        <v>4.704033768200864</v>
+        <v>4.585562609633508</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5959934974803778</v>
+        <v>0.5809833926162462</v>
       </c>
       <c r="K163" t="n">
-        <v>0.2507248765180575</v>
+        <v>0.2444103668724111</v>
       </c>
       <c r="L163" t="n">
-        <v>6.38650940496191</v>
+        <v>6.225665073120192</v>
       </c>
       <c r="M163" t="n">
-        <v>4.912529388289054</v>
+        <v>4.788807264510725</v>
       </c>
       <c r="N163" t="n">
-        <v>0.8044891654108384</v>
+        <v>0.7842280941308253</v>
       </c>
     </row>
     <row r="164">
@@ -7964,43 +7964,43 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.009153014554027601</v>
+        <v>0.008922495749947201</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1547888308101196</v>
+        <v>0.1508904718647978</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1176044019305213</v>
+        <v>0.1146425333649692</v>
       </c>
       <c r="E164" t="n">
-        <v>0.006102536702705153</v>
+        <v>0.005948844227481719</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.03004526717321724</v>
+        <v>-0.02928857668439912</v>
       </c>
       <c r="G164" t="n">
-        <v>0.04266532743559923</v>
+        <v>0.04159080054633245</v>
       </c>
       <c r="H164" t="n">
-        <v>0.1248717448656014</v>
+        <v>0.1217268481629969</v>
       </c>
       <c r="I164" t="n">
-        <v>0.08765652341681507</v>
+        <v>0.08544889260528105</v>
       </c>
       <c r="J164" t="n">
-        <v>-0.0238967917968208</v>
+        <v>-0.02329495074938823</v>
       </c>
       <c r="K164" t="n">
-        <v>0.01177128394500386</v>
+        <v>0.01147482398839879</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1666882952723203</v>
+        <v>0.1624902481422118</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1294730739945049</v>
+        <v>0.126212292751161</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01791977597617122</v>
+        <v>0.01746846615872997</v>
       </c>
     </row>
     <row r="165">
@@ -8010,43 +8010,43 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>3.111220183909269</v>
+        <v>3.032864058526512</v>
       </c>
       <c r="C165" t="n">
-        <v>-12.21812387097382</v>
+        <v>-11.91041024436281</v>
       </c>
       <c r="D165" t="n">
-        <v>-9.283002804782061</v>
+        <v>-9.049210244724151</v>
       </c>
       <c r="E165" t="n">
-        <v>-7.830113640569786</v>
+        <v>-7.632912115150649</v>
       </c>
       <c r="F165" t="n">
-        <v>3.540177367997208</v>
+        <v>3.451017949721823</v>
       </c>
       <c r="G165" t="n">
-        <v>27.598811740239</v>
+        <v>26.90373526692555</v>
       </c>
       <c r="H165" t="n">
-        <v>-8.634376155352566</v>
+        <v>-8.416919266852764</v>
       </c>
       <c r="I165" t="n">
-        <v>-5.709721855296363</v>
+        <v>-5.565922427692972</v>
       </c>
       <c r="J165" t="n">
-        <v>-4.274321162603428</v>
+        <v>-4.166672322230357</v>
       </c>
       <c r="K165" t="n">
-        <v>30.85047978764387</v>
+        <v>30.07351000747182</v>
       </c>
       <c r="L165" t="n">
-        <v>18.67592602246898</v>
+        <v>18.20557255516248</v>
       </c>
       <c r="M165" t="n">
-        <v>21.60058038061805</v>
+        <v>21.05656945095207</v>
       </c>
       <c r="N165" t="n">
-        <v>23.03598691821229</v>
+        <v>22.45582525411207</v>
       </c>
     </row>
     <row r="166">
@@ -8056,43 +8056,43 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5.19159248604588</v>
+        <v>5.060842154109665</v>
       </c>
       <c r="C166" t="n">
-        <v>-11.3945631179341</v>
+        <v>-11.10759088081371</v>
       </c>
       <c r="D166" t="n">
-        <v>-8.657283434025096</v>
+        <v>-8.439249625380228</v>
       </c>
       <c r="E166" t="n">
-        <v>-3.997367554376265</v>
+        <v>-3.896693794636731</v>
       </c>
       <c r="F166" t="n">
-        <v>6.047983139171715</v>
+        <v>5.895664596235843</v>
       </c>
       <c r="G166" t="n">
-        <v>-31.28593051340246</v>
+        <v>-30.49799390039678</v>
       </c>
       <c r="H166" t="n">
-        <v>-5.273875548998959</v>
+        <v>-5.141052916930796</v>
       </c>
       <c r="I166" t="n">
-        <v>-2.554061419184635</v>
+        <v>-2.489737345359223</v>
       </c>
       <c r="J166" t="n">
-        <v>2.076672013718129</v>
+        <v>2.024370998982073</v>
       </c>
       <c r="K166" t="n">
-        <v>-25.71937354544411</v>
+        <v>-25.07163075028115</v>
       </c>
       <c r="L166" t="n">
-        <v>-37.04123263714067</v>
+        <v>-36.10834865681088</v>
       </c>
       <c r="M166" t="n">
-        <v>-34.3214184103886</v>
+        <v>-33.45703299074293</v>
       </c>
       <c r="N166" t="n">
-        <v>-29.69067522428813</v>
+        <v>-28.94291513883837</v>
       </c>
     </row>
     <row r="167">
@@ -8102,43 +8102,43 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2.8937470246847</v>
+        <v>2.820867963966062</v>
       </c>
       <c r="C167" t="n">
-        <v>9.297720525141434</v>
+        <v>9.063557299083154</v>
       </c>
       <c r="D167" t="n">
-        <v>7.064158673166901</v>
+        <v>6.88624773469296</v>
       </c>
       <c r="E167" t="n">
-        <v>6.438264052413642</v>
+        <v>6.276116279026434</v>
       </c>
       <c r="F167" t="n">
-        <v>-6.283204884231699</v>
+        <v>-6.124962278240437</v>
       </c>
       <c r="G167" t="n">
-        <v>26.38286488665935</v>
+        <v>25.71841205246042</v>
       </c>
       <c r="H167" t="n">
-        <v>3.055040437082448</v>
+        <v>2.978099199437015</v>
       </c>
       <c r="I167" t="n">
-        <v>0.8117434421182699</v>
+        <v>0.7912996717743352</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1695827876438676</v>
+        <v>0.1653118426814677</v>
       </c>
       <c r="K167" t="n">
-        <v>19.83131737840647</v>
+        <v>19.33186536307042</v>
       </c>
       <c r="L167" t="n">
-        <v>29.16956247479898</v>
+        <v>28.4349266214909</v>
       </c>
       <c r="M167" t="n">
-        <v>26.92626553386699</v>
+        <v>26.24812714649961</v>
       </c>
       <c r="N167" t="n">
-        <v>26.28411031573736</v>
+        <v>25.62214461683709</v>
       </c>
     </row>
     <row r="168">
@@ -8148,43 +8148,43 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.4765087090924826</v>
+        <v>0.4645078303540605</v>
       </c>
       <c r="C168" t="n">
-        <v>4.482708416521196</v>
+        <v>4.369811340140721</v>
       </c>
       <c r="D168" t="n">
-        <v>3.405841620450793</v>
+        <v>3.320065449922567</v>
       </c>
       <c r="E168" t="n">
-        <v>3.302379970316296</v>
+        <v>3.219209482944851</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.6021735525560826</v>
+        <v>-0.5870078029153813</v>
       </c>
       <c r="G168" t="n">
-        <v>2.620268269386309</v>
+        <v>2.55427677507988</v>
       </c>
       <c r="H168" t="n">
-        <v>3.887208017542741</v>
+        <v>3.789308627333488</v>
       </c>
       <c r="I168" t="n">
-        <v>2.808738150996831</v>
+        <v>2.738000039992965</v>
       </c>
       <c r="J168" t="n">
-        <v>2.702597999022195</v>
+        <v>2.634533029282738</v>
       </c>
       <c r="K168" t="n">
-        <v>1.97390716474773</v>
+        <v>1.924194284221044</v>
       </c>
       <c r="L168" t="n">
-        <v>6.463288697809</v>
+        <v>6.30051067836515</v>
       </c>
       <c r="M168" t="n">
-        <v>5.384818840160553</v>
+        <v>5.249202099698008</v>
       </c>
       <c r="N168" t="n">
-        <v>5.278679583380085</v>
+        <v>5.145735961636472</v>
       </c>
     </row>
   </sheetData>
